--- a/Covid_19_Dataset_and_References/References/63.xlsx
+++ b/Covid_19_Dataset_and_References/References/63.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="161">
   <si>
     <t>Doi</t>
   </si>
@@ -587,6 +587,120 @@
   </si>
   <si>
     <t>[Kate%Mark%NULL%1,  Katie%Steel%NULL%1,  Janet%Stevenson%NULL%1,  Christine%Evans%NULL%1,  Duncan%McCormick%NULL%1,  Lorna%Willocks%NULL%1,  Alison%McCallum%NULL%1,  Laura%Jones%NULL%1,  Ingolfur%Johannessen%NULL%1,  Kate%Templeton%NULL%1,  Oliver%Koch%NULL%1,  Claire%Mackintosh%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Early in the pandemic, inadequate SARS-CoV-2 testing limited understanding of transmission.
+ Chief among barriers to large-scale testing was unknown feasibility, particularly in non-urban areas.
+ Our objective was to report methods of high-volume, comprehensive SARS-CoV-2 testing, offering one model to augment disease surveillance in a rural community.
+Methods
+id="Par2"&gt;A community-university partnership created an operational site used to test most residents of Bolinas, California regardless of symptoms in 4 days (April 20th – April 23rd, 2020).
+ Prior to testing, key preparatory elements included community mobilization, pre-registration, volunteer recruitment, and data management.
+ On day of testing, participants were directed to a testing lane after site entry.
+ An administrator viewed the lane-specific queue and pre-prepared test kits, linked to participants’ records.
+ Medical personnel performed sample collection, which included finger prick with blood collection to run laboratory-based antibody testing and respiratory specimen collection for polymerase chain reaction (PCR).
+Results
+id="Par3"&gt;Using this 4-lane model, 1,840 participants were tested in 4 days.
+ A median of 57 participants (IQR 47–67) were tested hourly.
+ The fewest participants were tested on day 1 (n = 338 participants), an intentionally lower volume day, increasing to n = 571 participants on day 4. The number of testing teams was also increased to two per lane to allow simultaneous testing of multiple participants on days 2–4. Consistent staffing on all days helped optimize proficiency, and strong community partnership was essential from planning through execution.
+Conclusions
+id="Par4"&gt;High-volume ascertainment of SARS-CoV-2 prevalence by PCR and antibody testing was feasible when conducted in a community-led, drive-through model in a non-urban area.
+Supplementary Information
+The online version contains supplementary material available at 10.1186/s13690-021-00647-8.
+</t>
+  </si>
+  <si>
+    <t>[Ayesha%Appa%Ayesha.appa@ucsf.edu%1,   Gabriel%Chamie%NULL%1,   Aenor%Sawyer%NULL%1,   Kimberly%Baltzell%NULL%1,   Kathryn%Dippell%NULL%1,   Salu%Ribeiro%NULL%1,   Elias%Duarte%NULL%1,   Joanna%Vinden%NULL%1,   CLIAHUB%Consortium%NULL%1,   Jonathan%Kramer-Feldman%NULL%1,   Shahryar%Rahdari%NULL%1,   Doug%MacIntosh%NULL%1,   Katherine%Nicholson%NULL%1,   Jonathan%Im%NULL%1,   Diane%Havlir%NULL%1,   Bryan%Greenhouse%NULL%1]</t>
+  </si>
+  <si>
+    <t>In Taiwan, high-risk patients have been identified and tested for preventing community spread of COVID-19. Most sample collection was performed in emergency departments (EDs).
+ Traditional sample collection requires substantial personal protective equipment (PPE), healthcare professionals, sanitation workers, and isolation space.
+ To solve this problem, we established a multifunctional sample collection station (MSCS) for COVID-19 testing in front of our ED.
+ The station is composed of a thick and clear acrylic board (2 cm), which completely separates the patient and medical personnel.
+ Three pairs of gloves (length, 45 cm) are attached and fixed on the outside wall of the MSCS.
+ The gloves are used to conduct sampling of throat/nasal swabs, sputum, and blood from patients.
+ The gap between the board and the building is only 0.2 cm (sealed with silicone sealant).
+ ED personnel communicate with patients using a small two-way broadcast system.
+ Medical waste is put in specific trashcans installed in the table outside the MSCS.
+ With full physical protection, the personnel conducting the sampling procedure need to wear only their N95 mask and gloves.
+ After we activated the station, our PPE, sampling time, and sanitization resources were considerably conserved during the 4-week observation period.
+ The MSCS obviously saved time and PPE.
+ It elevated the efficiency and capacity of the ED for handling potential community infections of COVID-19.</t>
+  </si>
+  <si>
+    <t>[Po-Ting%Lin%NULL%1,   Ting-Yuan%Ni%NULL%1,   Tren-Yi%Chen%NULL%1,   Chih-Pei%Su%NULL%1,   Hsiao-Fen%Sun%NULL%1,   Mu-Kuan%Chen%NULL%1,   Chu-Chung%Chou%NULL%1,   Po-Yu%Wang%NULL%1,   Yan-Ren%Lin%H6213.lac@gmail.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Early in the pandemic, inadequate SARS-CoV-2 testing limited understanding of transmission.
+ Chief among barriers to large-scale testing was unknown feasibility, particularly in non-urban areas.
+ Our objective was to report methods of high-volume, comprehensive SARS-CoV-2 testing, offering one model to augment disease surveillance in a rural community.
+Methods
+A community-university partnership created an operational site used to test most residents of Bolinas, California regardless of symptoms in 4 days (April 20th – April 23rd, 2020).
+ Prior to testing, key preparatory elements included community mobilization, pre-registration, volunteer recruitment, and data management.
+ On day of testing, participants were directed to a testing lane after site entry.
+ An administrator viewed the lane-specific queue and pre-prepared test kits, linked to participants’ records.
+ Medical personnel performed sample collection, which included finger prick with blood collection to run laboratory-based antibody testing and respiratory specimen collection for polymerase chain reaction (PCR).
+Results
+id="Par3"&gt;Using this 4-lane model, 1,840 participants were tested in 4 days.
+ A median of 57 participants (IQR 47–67) were tested hourly.
+ The fewest participants were tested on day 1 (n = 338 participants), an intentionally lower volume day, increasing to n = 571 participants on day 4. The number of testing teams was also increased to two per lane to allow simultaneous testing of multiple participants on days 2–4. Consistent staffing on all days helped optimize proficiency, and strong community partnership was essential from planning through execution.
+Conclusions
+id="Par4"&gt;High-volume ascertainment of SARS-CoV-2 prevalence by PCR and antibody testing was feasible when conducted in a community-led, drive-through model in a non-urban area.
+Supplementary Information
+The online version contains supplementary material available at 10.1186/s13690-021-00647-8.
+</t>
+  </si>
+  <si>
+    <t>[Ayesha%Appa%Ayesha.appa@ucsf.edu%1,    Gabriel%Chamie%NULL%1,    Aenor%Sawyer%NULL%1,    Kimberly%Baltzell%NULL%1,    Kathryn%Dippell%NULL%1,    Salu%Ribeiro%NULL%1,    Elias%Duarte%NULL%1,    Joanna%Vinden%NULL%1,    CLIAHUB%Consortium%NULL%1,    Jonathan%Kramer-Feldman%NULL%1,    Shahryar%Rahdari%NULL%1,    Doug%MacIntosh%NULL%1,    Katherine%Nicholson%NULL%1,    Jonathan%Im%NULL%1,    Diane%Havlir%NULL%1,    Bryan%Greenhouse%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Early in the pandemic, inadequate SARS-CoV-2 testing limited understanding of transmission.
+ Chief among barriers to large-scale testing was unknown feasibility, particularly in non-urban areas.
+ Our objective was to report methods of high-volume, comprehensive SARS-CoV-2 testing, offering one model to augment disease surveillance in a rural community.
+Methods
+A community-university partnership created an operational site used to test most residents of Bolinas, California regardless of symptoms in 4 days (April 20th – April 23rd, 2020).
+ Prior to testing, key preparatory elements included community mobilization, pre-registration, volunteer recruitment, and data management.
+ On day of testing, participants were directed to a testing lane after site entry.
+ An administrator viewed the lane-specific queue and pre-prepared test kits, linked to participants’ records.
+ Medical personnel performed sample collection, which included finger prick with blood collection to run laboratory-based antibody testing and respiratory specimen collection for polymerase chain reaction (PCR).
+Results
+Using this 4-lane model, 1,840 participants were tested in 4 days.
+ A median of 57 participants (IQR 47–67) were tested hourly.
+ The fewest participants were tested on day 1 (n = 338 participants), an intentionally lower volume day, increasing to n = 571 participants on day 4. The number of testing teams was also increased to two per lane to allow simultaneous testing of multiple participants on days 2–4. Consistent staffing on all days helped optimize proficiency, and strong community partnership was essential from planning through execution.
+Conclusions
+id="Par4"&gt;High-volume ascertainment of SARS-CoV-2 prevalence by PCR and antibody testing was feasible when conducted in a community-led, drive-through model in a non-urban area.
+Supplementary Information
+The online version contains supplementary material available at 10.1186/s13690-021-00647-8.
+</t>
+  </si>
+  <si>
+    <t>[Ayesha%Appa%Ayesha.appa@ucsf.edu%1,     Gabriel%Chamie%NULL%1,     Aenor%Sawyer%NULL%1,     Kimberly%Baltzell%NULL%1,     Kathryn%Dippell%NULL%1,     Salu%Ribeiro%NULL%1,     Elias%Duarte%NULL%1,     Joanna%Vinden%NULL%1,     CLIAHUB%Consortium%NULL%1,     Jonathan%Kramer-Feldman%NULL%1,     Shahryar%Rahdari%NULL%1,     Doug%MacIntosh%NULL%1,     Katherine%Nicholson%NULL%1,     Jonathan%Im%NULL%1,     Diane%Havlir%NULL%1,     Bryan%Greenhouse%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Early in the pandemic, inadequate SARS-CoV-2 testing limited understanding of transmission.
+ Chief among barriers to large-scale testing was unknown feasibility, particularly in non-urban areas.
+ Our objective was to report methods of high-volume, comprehensive SARS-CoV-2 testing, offering one model to augment disease surveillance in a rural community.
+Methods
+A community-university partnership created an operational site used to test most residents of Bolinas, California regardless of symptoms in 4 days (April 20th – April 23rd, 2020).
+ Prior to testing, key preparatory elements included community mobilization, pre-registration, volunteer recruitment, and data management.
+ On day of testing, participants were directed to a testing lane after site entry.
+ An administrator viewed the lane-specific queue and pre-prepared test kits, linked to participants’ records.
+ Medical personnel performed sample collection, which included finger prick with blood collection to run laboratory-based antibody testing and respiratory specimen collection for polymerase chain reaction (PCR).
+Results
+Using this 4-lane model, 1,840 participants were tested in 4 days.
+ A median of 57 participants (IQR 47–67) were tested hourly.
+ The fewest participants were tested on day 1 (n = 338 participants), an intentionally lower volume day, increasing to n = 571 participants on day 4. The number of testing teams was also increased to two per lane to allow simultaneous testing of multiple participants on days 2–4. Consistent staffing on all days helped optimize proficiency, and strong community partnership was essential from planning through execution.
+Conclusions
+High-volume ascertainment of SARS-CoV-2 prevalence by PCR and antibody testing was feasible when conducted in a community-led, drive-through model in a non-urban area.
+Supplementary Information
+The online version contains supplementary material available at 10.1186/s13690-021-00647-8.
+</t>
+  </si>
+  <si>
+    <t>[Ayesha%Appa%Ayesha.appa@ucsf.edu%1,      Gabriel%Chamie%NULL%1,      Aenor%Sawyer%NULL%1,      Kimberly%Baltzell%NULL%1,      Kathryn%Dippell%NULL%1,      Salu%Ribeiro%NULL%1,      Elias%Duarte%NULL%1,      Joanna%Vinden%NULL%1,      CLIAHUB%Consortium%NULL%1,      Jonathan%Kramer-Feldman%NULL%1,      Shahryar%Rahdari%NULL%1,      Doug%MacIntosh%NULL%1,      Katherine%Nicholson%NULL%1,      Jonathan%Im%NULL%1,      Diane%Havlir%NULL%1,      Bryan%Greenhouse%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -961,10 +1075,10 @@
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="F3" t="s">
         <v>45</v>
@@ -1273,10 +1387,10 @@
         <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="E15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="F15" t="s">
         <v>100</v>

--- a/Covid_19_Dataset_and_References/References/63.xlsx
+++ b/Covid_19_Dataset_and_References/References/63.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="151">
   <si>
     <t>Doi</t>
   </si>
@@ -587,120 +587,6 @@
   </si>
   <si>
     <t>[Kate%Mark%NULL%1,  Katie%Steel%NULL%1,  Janet%Stevenson%NULL%1,  Christine%Evans%NULL%1,  Duncan%McCormick%NULL%1,  Lorna%Willocks%NULL%1,  Alison%McCallum%NULL%1,  Laura%Jones%NULL%1,  Ingolfur%Johannessen%NULL%1,  Kate%Templeton%NULL%1,  Oliver%Koch%NULL%1,  Claire%Mackintosh%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Early in the pandemic, inadequate SARS-CoV-2 testing limited understanding of transmission.
- Chief among barriers to large-scale testing was unknown feasibility, particularly in non-urban areas.
- Our objective was to report methods of high-volume, comprehensive SARS-CoV-2 testing, offering one model to augment disease surveillance in a rural community.
-Methods
-id="Par2"&gt;A community-university partnership created an operational site used to test most residents of Bolinas, California regardless of symptoms in 4 days (April 20th – April 23rd, 2020).
- Prior to testing, key preparatory elements included community mobilization, pre-registration, volunteer recruitment, and data management.
- On day of testing, participants were directed to a testing lane after site entry.
- An administrator viewed the lane-specific queue and pre-prepared test kits, linked to participants’ records.
- Medical personnel performed sample collection, which included finger prick with blood collection to run laboratory-based antibody testing and respiratory specimen collection for polymerase chain reaction (PCR).
-Results
-id="Par3"&gt;Using this 4-lane model, 1,840 participants were tested in 4 days.
- A median of 57 participants (IQR 47–67) were tested hourly.
- The fewest participants were tested on day 1 (n = 338 participants), an intentionally lower volume day, increasing to n = 571 participants on day 4. The number of testing teams was also increased to two per lane to allow simultaneous testing of multiple participants on days 2–4. Consistent staffing on all days helped optimize proficiency, and strong community partnership was essential from planning through execution.
-Conclusions
-id="Par4"&gt;High-volume ascertainment of SARS-CoV-2 prevalence by PCR and antibody testing was feasible when conducted in a community-led, drive-through model in a non-urban area.
-Supplementary Information
-The online version contains supplementary material available at 10.1186/s13690-021-00647-8.
-</t>
-  </si>
-  <si>
-    <t>[Ayesha%Appa%Ayesha.appa@ucsf.edu%1,   Gabriel%Chamie%NULL%1,   Aenor%Sawyer%NULL%1,   Kimberly%Baltzell%NULL%1,   Kathryn%Dippell%NULL%1,   Salu%Ribeiro%NULL%1,   Elias%Duarte%NULL%1,   Joanna%Vinden%NULL%1,   CLIAHUB%Consortium%NULL%1,   Jonathan%Kramer-Feldman%NULL%1,   Shahryar%Rahdari%NULL%1,   Doug%MacIntosh%NULL%1,   Katherine%Nicholson%NULL%1,   Jonathan%Im%NULL%1,   Diane%Havlir%NULL%1,   Bryan%Greenhouse%NULL%1]</t>
-  </si>
-  <si>
-    <t>In Taiwan, high-risk patients have been identified and tested for preventing community spread of COVID-19. Most sample collection was performed in emergency departments (EDs).
- Traditional sample collection requires substantial personal protective equipment (PPE), healthcare professionals, sanitation workers, and isolation space.
- To solve this problem, we established a multifunctional sample collection station (MSCS) for COVID-19 testing in front of our ED.
- The station is composed of a thick and clear acrylic board (2 cm), which completely separates the patient and medical personnel.
- Three pairs of gloves (length, 45 cm) are attached and fixed on the outside wall of the MSCS.
- The gloves are used to conduct sampling of throat/nasal swabs, sputum, and blood from patients.
- The gap between the board and the building is only 0.2 cm (sealed with silicone sealant).
- ED personnel communicate with patients using a small two-way broadcast system.
- Medical waste is put in specific trashcans installed in the table outside the MSCS.
- With full physical protection, the personnel conducting the sampling procedure need to wear only their N95 mask and gloves.
- After we activated the station, our PPE, sampling time, and sanitization resources were considerably conserved during the 4-week observation period.
- The MSCS obviously saved time and PPE.
- It elevated the efficiency and capacity of the ED for handling potential community infections of COVID-19.</t>
-  </si>
-  <si>
-    <t>[Po-Ting%Lin%NULL%1,   Ting-Yuan%Ni%NULL%1,   Tren-Yi%Chen%NULL%1,   Chih-Pei%Su%NULL%1,   Hsiao-Fen%Sun%NULL%1,   Mu-Kuan%Chen%NULL%1,   Chu-Chung%Chou%NULL%1,   Po-Yu%Wang%NULL%1,   Yan-Ren%Lin%H6213.lac@gmail.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Early in the pandemic, inadequate SARS-CoV-2 testing limited understanding of transmission.
- Chief among barriers to large-scale testing was unknown feasibility, particularly in non-urban areas.
- Our objective was to report methods of high-volume, comprehensive SARS-CoV-2 testing, offering one model to augment disease surveillance in a rural community.
-Methods
-A community-university partnership created an operational site used to test most residents of Bolinas, California regardless of symptoms in 4 days (April 20th – April 23rd, 2020).
- Prior to testing, key preparatory elements included community mobilization, pre-registration, volunteer recruitment, and data management.
- On day of testing, participants were directed to a testing lane after site entry.
- An administrator viewed the lane-specific queue and pre-prepared test kits, linked to participants’ records.
- Medical personnel performed sample collection, which included finger prick with blood collection to run laboratory-based antibody testing and respiratory specimen collection for polymerase chain reaction (PCR).
-Results
-id="Par3"&gt;Using this 4-lane model, 1,840 participants were tested in 4 days.
- A median of 57 participants (IQR 47–67) were tested hourly.
- The fewest participants were tested on day 1 (n = 338 participants), an intentionally lower volume day, increasing to n = 571 participants on day 4. The number of testing teams was also increased to two per lane to allow simultaneous testing of multiple participants on days 2–4. Consistent staffing on all days helped optimize proficiency, and strong community partnership was essential from planning through execution.
-Conclusions
-id="Par4"&gt;High-volume ascertainment of SARS-CoV-2 prevalence by PCR and antibody testing was feasible when conducted in a community-led, drive-through model in a non-urban area.
-Supplementary Information
-The online version contains supplementary material available at 10.1186/s13690-021-00647-8.
-</t>
-  </si>
-  <si>
-    <t>[Ayesha%Appa%Ayesha.appa@ucsf.edu%1,    Gabriel%Chamie%NULL%1,    Aenor%Sawyer%NULL%1,    Kimberly%Baltzell%NULL%1,    Kathryn%Dippell%NULL%1,    Salu%Ribeiro%NULL%1,    Elias%Duarte%NULL%1,    Joanna%Vinden%NULL%1,    CLIAHUB%Consortium%NULL%1,    Jonathan%Kramer-Feldman%NULL%1,    Shahryar%Rahdari%NULL%1,    Doug%MacIntosh%NULL%1,    Katherine%Nicholson%NULL%1,    Jonathan%Im%NULL%1,    Diane%Havlir%NULL%1,    Bryan%Greenhouse%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Early in the pandemic, inadequate SARS-CoV-2 testing limited understanding of transmission.
- Chief among barriers to large-scale testing was unknown feasibility, particularly in non-urban areas.
- Our objective was to report methods of high-volume, comprehensive SARS-CoV-2 testing, offering one model to augment disease surveillance in a rural community.
-Methods
-A community-university partnership created an operational site used to test most residents of Bolinas, California regardless of symptoms in 4 days (April 20th – April 23rd, 2020).
- Prior to testing, key preparatory elements included community mobilization, pre-registration, volunteer recruitment, and data management.
- On day of testing, participants were directed to a testing lane after site entry.
- An administrator viewed the lane-specific queue and pre-prepared test kits, linked to participants’ records.
- Medical personnel performed sample collection, which included finger prick with blood collection to run laboratory-based antibody testing and respiratory specimen collection for polymerase chain reaction (PCR).
-Results
-Using this 4-lane model, 1,840 participants were tested in 4 days.
- A median of 57 participants (IQR 47–67) were tested hourly.
- The fewest participants were tested on day 1 (n = 338 participants), an intentionally lower volume day, increasing to n = 571 participants on day 4. The number of testing teams was also increased to two per lane to allow simultaneous testing of multiple participants on days 2–4. Consistent staffing on all days helped optimize proficiency, and strong community partnership was essential from planning through execution.
-Conclusions
-id="Par4"&gt;High-volume ascertainment of SARS-CoV-2 prevalence by PCR and antibody testing was feasible when conducted in a community-led, drive-through model in a non-urban area.
-Supplementary Information
-The online version contains supplementary material available at 10.1186/s13690-021-00647-8.
-</t>
-  </si>
-  <si>
-    <t>[Ayesha%Appa%Ayesha.appa@ucsf.edu%1,     Gabriel%Chamie%NULL%1,     Aenor%Sawyer%NULL%1,     Kimberly%Baltzell%NULL%1,     Kathryn%Dippell%NULL%1,     Salu%Ribeiro%NULL%1,     Elias%Duarte%NULL%1,     Joanna%Vinden%NULL%1,     CLIAHUB%Consortium%NULL%1,     Jonathan%Kramer-Feldman%NULL%1,     Shahryar%Rahdari%NULL%1,     Doug%MacIntosh%NULL%1,     Katherine%Nicholson%NULL%1,     Jonathan%Im%NULL%1,     Diane%Havlir%NULL%1,     Bryan%Greenhouse%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Early in the pandemic, inadequate SARS-CoV-2 testing limited understanding of transmission.
- Chief among barriers to large-scale testing was unknown feasibility, particularly in non-urban areas.
- Our objective was to report methods of high-volume, comprehensive SARS-CoV-2 testing, offering one model to augment disease surveillance in a rural community.
-Methods
-A community-university partnership created an operational site used to test most residents of Bolinas, California regardless of symptoms in 4 days (April 20th – April 23rd, 2020).
- Prior to testing, key preparatory elements included community mobilization, pre-registration, volunteer recruitment, and data management.
- On day of testing, participants were directed to a testing lane after site entry.
- An administrator viewed the lane-specific queue and pre-prepared test kits, linked to participants’ records.
- Medical personnel performed sample collection, which included finger prick with blood collection to run laboratory-based antibody testing and respiratory specimen collection for polymerase chain reaction (PCR).
-Results
-Using this 4-lane model, 1,840 participants were tested in 4 days.
- A median of 57 participants (IQR 47–67) were tested hourly.
- The fewest participants were tested on day 1 (n = 338 participants), an intentionally lower volume day, increasing to n = 571 participants on day 4. The number of testing teams was also increased to two per lane to allow simultaneous testing of multiple participants on days 2–4. Consistent staffing on all days helped optimize proficiency, and strong community partnership was essential from planning through execution.
-Conclusions
-High-volume ascertainment of SARS-CoV-2 prevalence by PCR and antibody testing was feasible when conducted in a community-led, drive-through model in a non-urban area.
-Supplementary Information
-The online version contains supplementary material available at 10.1186/s13690-021-00647-8.
-</t>
-  </si>
-  <si>
-    <t>[Ayesha%Appa%Ayesha.appa@ucsf.edu%1,      Gabriel%Chamie%NULL%1,      Aenor%Sawyer%NULL%1,      Kimberly%Baltzell%NULL%1,      Kathryn%Dippell%NULL%1,      Salu%Ribeiro%NULL%1,      Elias%Duarte%NULL%1,      Joanna%Vinden%NULL%1,      CLIAHUB%Consortium%NULL%1,      Jonathan%Kramer-Feldman%NULL%1,      Shahryar%Rahdari%NULL%1,      Doug%MacIntosh%NULL%1,      Katherine%Nicholson%NULL%1,      Jonathan%Im%NULL%1,      Diane%Havlir%NULL%1,      Bryan%Greenhouse%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1075,10 +961,10 @@
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="F3" t="s">
         <v>45</v>
@@ -1387,10 +1273,10 @@
         <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="E15" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="F15" t="s">
         <v>100</v>

--- a/Covid_19_Dataset_and_References/References/63.xlsx
+++ b/Covid_19_Dataset_and_References/References/63.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="174">
   <si>
     <t>Doi</t>
   </si>
@@ -587,6 +587,75 @@
   </si>
   <si>
     <t>[Kate%Mark%NULL%1,  Katie%Steel%NULL%1,  Janet%Stevenson%NULL%1,  Christine%Evans%NULL%1,  Duncan%McCormick%NULL%1,  Lorna%Willocks%NULL%1,  Alison%McCallum%NULL%1,  Laura%Jones%NULL%1,  Ingolfur%Johannessen%NULL%1,  Kate%Templeton%NULL%1,  Oliver%Koch%NULL%1,  Claire%Mackintosh%NULL%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Craig%Brammer%NULL%1,   Stacy%Donohue%NULL%1,   Timothy%Elwell%NULL%1,   Eliza%Fishbein%NULL%1,   D'Ante%Forschino%NULL%1,   Dorothy%Horne%NULL%1,   Buffy%Lloyd-Krejci%NULL%1,   Jessica%Little%NULL%1,   Bistra%Nikiforova%NULL%1,   Elizabeth%Winterbauer%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Ayesha%Appa%Ayesha.appa@ucsf.edu%1,   Gabriel%Chamie%NULL%1,   Aenor%Sawyer%NULL%1,   Kimberly%Baltzell%NULL%1,   Kathryn%Dippell%NULL%1,   Salu%Ribeiro%NULL%1,   Elias%Duarte%NULL%1,   Joanna%Vinden%NULL%1,   CLIAHUB%Consortium%NULL%1,   Jonathan%Kramer-Feldman%NULL%1,   Shahryar%Rahdari%NULL%1,   Doug%MacIntosh%NULL%1,   Katherine%Nicholson%NULL%1,   Jonathan%Im%NULL%1,   Diane%Havlir%NULL%1,   Bryan%Greenhouse%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Min Cheol%Chang%NULL%1,   Wan-Seok%Seo%NULL%1,   Donghwi%Park%NULL%0,   Jian%Hur%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Marci L.%Drees%NULL%1,   Mia A.%Papas%NULL%1,   Terri E.%Corbo%NULL%1,   Kimberly D.%Williams%NULL%1,   Sharon T.%Kurfuerst%NULL%2,   Sharon T.%Kurfuerst%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Erin F.%Flynn%flynne@email.chop.edu%1,   Elizabeth%Kuhn%NULL%1,   Mohammed%Shaik%NULL%1,   Elizabeth%Tarr%NULL%1,   Nicole%Scattolini%NULL%1,   Allison%Ballantine%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Scott A.%Goldberg%NULL%1,   Robert A.%Bonacci%NULL%1,   Lucas C.%Carlson%NULL%1,   Charles T.%Pu%NULL%1,   Christine S.%Ritchie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%0,   Sadhu%Panda%NULL%2,   Sadhu%Panda%NULL%0,   Ebrahim%Khajeh%NULL%1,   Alexandra%Halalau%alexandra.halalau@beaumont.edu%2,   Alexandra%Halalau%alexandra.halalau@beaumont.edu%0,   Jeffrey%Ditkoff%NULL%2,   Jeffrey%Ditkoff%NULL%0,   Jessica%Hamilton%NULL%2,   Jessica%Hamilton%NULL%0,   Aryana%Sharrak%NULL%2,   Aryana%Sharrak%NULL%0,   Aimen%Vanood%NULL%2,   Aimen%Vanood%NULL%0,   Amr%Abbas%NULL%2,   Amr%Abbas%NULL%0,   James%Ziadeh%NULL%2,   James%Ziadeh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sang Il%Kim%NULL%1,   Ji Yong%Lee%NULL%2,   Ji Yong%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ki Tae%Kwon%NULL%1,   Jae-Hoon%Ko%NULL%2,   Jae-Hoon%Ko%NULL%0,   Heejun%Shin%NULL%2,   Heejun%Shin%NULL%0,   Minki%Sung%NULL%2,   Minki%Sung%NULL%0,   Jin Yong%Kim%NULL%0,   Jin Yong%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Elly%Lee%NULL%1,   Nurul Yaqeen%Mohd Esa%NULL%1,   Tong Ming%Wee%NULL%1,   Chun Ian%Soo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yong Shik%Kwon%NULL%1,   Sun Hyo%Park%NULL%2,   Sun Hyo%Park%NULL%0,   Hyun Jung%Kim%NULL%2,   Hyun Jung%Kim%NULL%0,   Ji Yeon%Lee%NULL%2,   Ji Yeon%Lee%NULL%0,   Mi-ri%Hyun%NULL%2,   Mi-ri%Hyun%NULL%0,   Hyun ah%Kim%NULL%2,   Hyun ah%Kim%NULL%0,   Jae Seok%Park%NULL%2,   Jae Seok%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po-Ting%Lin%NULL%1,   Ting-Yuan%Ni%NULL%1,   Tren-Yi%Chen%NULL%1,   Chih-Pei%Su%NULL%1,   Hsiao-Fen%Sun%NULL%1,   Mu-Kuan%Chen%NULL%1,   Chu-Chung%Chou%NULL%1,   Po-Yu%Wang%NULL%1,   Yan-Ren%Lin%H6213.lac@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[David A%Lindholm%david.a.lindholm4.mil@mail.mil%1,   John L%Kiley%NULL%2,   John L%Kiley%NULL%0,   Nathan K%Jansen%NULL%1,   Robert T%Hoard%NULL%1,   Matthew R%Bondaryk%NULL%1,   Elizabeth M%Stanley%NULL%1,   Gadiel R%Alvarado%NULL%1,   Ana E%Markelz%NULL%1,   Robert J%Cybulski%NULL%1,   Jason F%Okulicz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Charmaine Malenab%Manauis%NULL%1,   Marvin%Loh%marvin.loh@mohh.com.sg%1,   James%Kwan%NULL%1,   John%Chua Mingzhou%NULL%1,   Han Jie%Teo%NULL%1,   David%Teng Kuan Peng%NULL%1,   Shawn%Vasoo Sushilan%NULL%1,   Yee Sin%Leo%NULL%1,   Ang%Hou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rivkees%Scott A.%coreGivesNoEmail%1,  Roberson%Shamarial%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Eunhye%Seo%NULL%1,   Eunchan%Mun%NULL%2,   Eunchan%Mun%NULL%0,   Wonsool%Kim%NULL%2,   Wonsool%Kim%NULL%0,   Changhwan%Lee%NULL%2,   Changhwan%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aditya%Shah%shah.aditya@mayo.edu%1,   Douglas%Challener%NULL%1,   Aaron J.%Tande%NULL%1,   Maryam%Mahmood%NULL%1,   John C.%O’Horo%NULL%1,   Elie%Berbari%NULL%1,   Sarah J.%Crane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angie N.%Ton%NULL%1,   Tarang%Jethwa%NULL%1,   Karen%Waters%NULL%2,   Karen%Waters%NULL%0,   Leigh L.%Speicher%NULL%2,   Leigh L.%Speicher%NULL%0,   Dawn%Francis%NULL%2,   Dawn%Francis%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kate%Mark%NULL%1,   Katie%Steel%NULL%1,   Janet%Stevenson%NULL%1,   Christine%Evans%NULL%1,   Duncan%McCormick%NULL%1,   Lorna%Willocks%NULL%1,   Alison%McCallum%NULL%1,   Laura%Jones%NULL%1,   Ingolfur%Johannessen%NULL%1,   Kate%Templeton%NULL%1,   Oliver%Koch%NULL%1,   Claire%Mackintosh%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -923,6 +992,9 @@
       <c r="H1" t="s">
         <v>35</v>
       </c>
+      <c r="I1" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -938,7 +1010,7 @@
         <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -948,6 +1020,9 @@
       </c>
       <c r="H2" t="s">
         <v>41</v>
+      </c>
+      <c r="I2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="3">
@@ -964,7 +1039,7 @@
         <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="F3" t="s">
         <v>45</v>
@@ -974,6 +1049,9 @@
       </c>
       <c r="H3" t="s">
         <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="4">
@@ -990,7 +1068,7 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -1000,6 +1078,9 @@
       </c>
       <c r="H4" t="s">
         <v>51</v>
+      </c>
+      <c r="I4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="5">
@@ -1016,7 +1097,7 @@
         <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
@@ -1026,6 +1107,9 @@
       </c>
       <c r="H5" t="s">
         <v>56</v>
+      </c>
+      <c r="I5" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="6">
@@ -1042,7 +1126,7 @@
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
@@ -1052,6 +1136,9 @@
       </c>
       <c r="H6" t="s">
         <v>60</v>
+      </c>
+      <c r="I6" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="7">
@@ -1068,7 +1155,7 @@
         <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="F7" t="s">
         <v>64</v>
@@ -1078,6 +1165,9 @@
       </c>
       <c r="H7" t="s">
         <v>65</v>
+      </c>
+      <c r="I7" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="8">
@@ -1094,7 +1184,7 @@
         <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="F8" t="s">
         <v>69</v>
@@ -1104,6 +1194,9 @@
       </c>
       <c r="H8" t="s">
         <v>70</v>
+      </c>
+      <c r="I8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="9">
@@ -1131,6 +1224,9 @@
       <c r="H9" t="s">
         <v>75</v>
       </c>
+      <c r="I9" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -1146,7 +1242,7 @@
         <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="F10" t="s">
         <v>79</v>
@@ -1156,6 +1252,9 @@
       </c>
       <c r="H10" t="s">
         <v>80</v>
+      </c>
+      <c r="I10" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="11">
@@ -1183,6 +1282,9 @@
       <c r="H11" t="s">
         <v>81</v>
       </c>
+      <c r="I11" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -1198,7 +1300,7 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -1208,6 +1310,9 @@
       </c>
       <c r="H12" t="s">
         <v>86</v>
+      </c>
+      <c r="I12" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="13">
@@ -1224,7 +1329,7 @@
         <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="F13" t="s">
         <v>90</v>
@@ -1234,6 +1339,9 @@
       </c>
       <c r="H13" t="s">
         <v>91</v>
+      </c>
+      <c r="I13" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="14">
@@ -1250,7 +1358,7 @@
         <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="F14" t="s">
         <v>95</v>
@@ -1260,6 +1368,9 @@
       </c>
       <c r="H14" t="s">
         <v>96</v>
+      </c>
+      <c r="I14" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="15">
@@ -1276,7 +1387,7 @@
         <v>98</v>
       </c>
       <c r="E15" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="F15" t="s">
         <v>100</v>
@@ -1286,6 +1397,9 @@
       </c>
       <c r="H15" t="s">
         <v>101</v>
+      </c>
+      <c r="I15" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="16">
@@ -1302,7 +1416,7 @@
         <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="F16" t="s">
         <v>105</v>
@@ -1312,6 +1426,9 @@
       </c>
       <c r="H16" t="s">
         <v>106</v>
+      </c>
+      <c r="I16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="17">
@@ -1328,7 +1445,7 @@
         <v>108</v>
       </c>
       <c r="E17" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="F17" t="s">
         <v>110</v>
@@ -1338,6 +1455,9 @@
       </c>
       <c r="H17" t="s">
         <v>111</v>
+      </c>
+      <c r="I17" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="18">
@@ -1354,16 +1474,19 @@
         <v>144</v>
       </c>
       <c r="E18" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="H18" t="s">
         <v>81</v>
+      </c>
+      <c r="I18" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19">
@@ -1380,7 +1503,7 @@
         <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="F19" t="s">
         <v>115</v>
@@ -1390,6 +1513,9 @@
       </c>
       <c r="H19" t="s">
         <v>116</v>
+      </c>
+      <c r="I19" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="20">
@@ -1406,7 +1532,7 @@
         <v>118</v>
       </c>
       <c r="E20" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="F20" t="s">
         <v>120</v>
@@ -1416,6 +1542,9 @@
       </c>
       <c r="H20" t="s">
         <v>81</v>
+      </c>
+      <c r="I20" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="21">
@@ -1432,7 +1561,7 @@
         <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="F21" t="s">
         <v>123</v>
@@ -1442,6 +1571,9 @@
       </c>
       <c r="H21" t="s">
         <v>81</v>
+      </c>
+      <c r="I21" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="22">
@@ -1458,7 +1590,7 @@
         <v>125</v>
       </c>
       <c r="E22" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="F22" t="s">
         <v>127</v>
@@ -1468,6 +1600,9 @@
       </c>
       <c r="H22" t="s">
         <v>128</v>
+      </c>
+      <c r="I22" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/63.xlsx
+++ b/Covid_19_Dataset_and_References/References/63.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="250">
   <si>
     <t>Doi</t>
   </si>
@@ -656,6 +656,234 @@
   </si>
   <si>
     <t>[Kate%Mark%NULL%1,   Katie%Steel%NULL%1,   Janet%Stevenson%NULL%1,   Christine%Evans%NULL%1,   Duncan%McCormick%NULL%1,   Lorna%Willocks%NULL%1,   Alison%McCallum%NULL%1,   Laura%Jones%NULL%1,   Ingolfur%Johannessen%NULL%1,   Kate%Templeton%NULL%1,   Oliver%Koch%NULL%1,   Claire%Mackintosh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Craig%Brammer%NULL%1,    Stacy%Donohue%NULL%1,    Timothy%Elwell%NULL%1,    Eliza%Fishbein%NULL%1,    D'Ante%Forschino%NULL%1,    Dorothy%Horne%NULL%1,    Buffy%Lloyd-Krejci%NULL%1,    Jessica%Little%NULL%1,    Bistra%Nikiforova%NULL%1,    Elizabeth%Winterbauer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ayesha%Appa%Ayesha.appa@ucsf.edu%1,    Gabriel%Chamie%NULL%1,    Aenor%Sawyer%NULL%1,    Kimberly%Baltzell%NULL%1,    Kathryn%Dippell%NULL%1,    Salu%Ribeiro%NULL%1,    Elias%Duarte%NULL%1,    Joanna%Vinden%NULL%1,    CLIAHUB%Consortium%NULL%1,    Jonathan%Kramer-Feldman%NULL%1,    Shahryar%Rahdari%NULL%1,    Doug%MacIntosh%NULL%1,    Katherine%Nicholson%NULL%1,    Jonathan%Im%NULL%1,    Diane%Havlir%NULL%1,    Bryan%Greenhouse%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Min Cheol%Chang%NULL%1,    Wan-Seok%Seo%NULL%1,    Donghwi%Park%NULL%0,    Jian%Hur%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marci L.%Drees%NULL%1,    Mia A.%Papas%NULL%1,    Terri E.%Corbo%NULL%1,    Kimberly D.%Williams%NULL%1,    Sharon T.%Kurfuerst%NULL%2,    Sharon T.%Kurfuerst%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Erin F.%Flynn%flynne@email.chop.edu%1,    Elizabeth%Kuhn%NULL%1,    Mohammed%Shaik%NULL%1,    Elizabeth%Tarr%NULL%1,    Nicole%Scattolini%NULL%1,    Allison%Ballantine%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Scott A.%Goldberg%NULL%1,    Robert A.%Bonacci%NULL%1,    Lucas C.%Carlson%NULL%1,    Charles T.%Pu%NULL%1,    Christine S.%Ritchie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%0,    Sadhu%Panda%NULL%2,    Sadhu%Panda%NULL%0,    Ebrahim%Khajeh%NULL%1,    Alexandra%Halalau%alexandra.halalau@beaumont.edu%2,    Alexandra%Halalau%alexandra.halalau@beaumont.edu%0,    Jeffrey%Ditkoff%NULL%2,    Jeffrey%Ditkoff%NULL%0,    Jessica%Hamilton%NULL%2,    Jessica%Hamilton%NULL%0,    Aryana%Sharrak%NULL%2,    Aryana%Sharrak%NULL%0,    Aimen%Vanood%NULL%2,    Aimen%Vanood%NULL%0,    Amr%Abbas%NULL%2,    Amr%Abbas%NULL%0,    James%Ziadeh%NULL%2,    James%Ziadeh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sang Il%Kim%NULL%1,    Ji Yong%Lee%NULL%2,    Ji Yong%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ki Tae%Kwon%NULL%1,    Jae-Hoon%Ko%NULL%2,    Jae-Hoon%Ko%NULL%0,    Heejun%Shin%NULL%2,    Heejun%Shin%NULL%0,    Minki%Sung%NULL%2,    Minki%Sung%NULL%0,    Jin Yong%Kim%NULL%0,    Jin Yong%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Elly%Lee%NULL%1,    Nurul Yaqeen%Mohd Esa%NULL%1,    Tong Ming%Wee%NULL%1,    Chun Ian%Soo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yong Shik%Kwon%NULL%1,    Sun Hyo%Park%NULL%2,    Sun Hyo%Park%NULL%0,    Hyun Jung%Kim%NULL%2,    Hyun Jung%Kim%NULL%0,    Ji Yeon%Lee%NULL%2,    Ji Yeon%Lee%NULL%0,    Mi-ri%Hyun%NULL%2,    Mi-ri%Hyun%NULL%0,    Hyun ah%Kim%NULL%2,    Hyun ah%Kim%NULL%0,    Jae Seok%Park%NULL%2,    Jae Seok%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po-Ting%Lin%NULL%1,    Ting-Yuan%Ni%NULL%1,    Tren-Yi%Chen%NULL%1,    Chih-Pei%Su%NULL%1,    Hsiao-Fen%Sun%NULL%1,    Mu-Kuan%Chen%NULL%1,    Chu-Chung%Chou%NULL%1,    Po-Yu%Wang%NULL%1,    Yan-Ren%Lin%H6213.lac@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[David A%Lindholm%david.a.lindholm4.mil@mail.mil%1,    John L%Kiley%NULL%2,    John L%Kiley%NULL%0,    Nathan K%Jansen%NULL%1,    Robert T%Hoard%NULL%1,    Matthew R%Bondaryk%NULL%1,    Elizabeth M%Stanley%NULL%1,    Gadiel R%Alvarado%NULL%1,    Ana E%Markelz%NULL%1,    Robert J%Cybulski%NULL%1,    Jason F%Okulicz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Charmaine Malenab%Manauis%NULL%1,    Marvin%Loh%marvin.loh@mohh.com.sg%1,    James%Kwan%NULL%1,    John%Chua Mingzhou%NULL%1,    Han Jie%Teo%NULL%1,    David%Teng Kuan Peng%NULL%1,    Shawn%Vasoo Sushilan%NULL%1,    Yee Sin%Leo%NULL%1,    Ang%Hou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rivkees%Scott A.%coreGivesNoEmail%1,   Roberson%Shamarial%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Eunhye%Seo%NULL%1,    Eunchan%Mun%NULL%2,    Eunchan%Mun%NULL%0,    Wonsool%Kim%NULL%2,    Wonsool%Kim%NULL%0,    Changhwan%Lee%NULL%2,    Changhwan%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aditya%Shah%shah.aditya@mayo.edu%1,    Douglas%Challener%NULL%1,    Aaron J.%Tande%NULL%1,    Maryam%Mahmood%NULL%1,    John C.%O’Horo%NULL%1,    Elie%Berbari%NULL%1,    Sarah J.%Crane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angie N.%Ton%NULL%1,    Tarang%Jethwa%NULL%1,    Karen%Waters%NULL%2,    Karen%Waters%NULL%0,    Leigh L.%Speicher%NULL%2,    Leigh L.%Speicher%NULL%0,    Dawn%Francis%NULL%2,    Dawn%Francis%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kate%Mark%NULL%1,    Katie%Steel%NULL%1,    Janet%Stevenson%NULL%1,    Christine%Evans%NULL%1,    Duncan%McCormick%NULL%1,    Lorna%Willocks%NULL%1,    Alison%McCallum%NULL%1,    Laura%Jones%NULL%1,    Ingolfur%Johannessen%NULL%1,    Kate%Templeton%NULL%1,    Oliver%Koch%NULL%1,    Claire%Mackintosh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Craig%Brammer%NULL%1,     Stacy%Donohue%NULL%1,     Timothy%Elwell%NULL%1,     Eliza%Fishbein%NULL%1,     D'Ante%Forschino%NULL%1,     Dorothy%Horne%NULL%1,     Buffy%Lloyd-Krejci%NULL%1,     Jessica%Little%NULL%1,     Bistra%Nikiforova%NULL%1,     Elizabeth%Winterbauer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ayesha%Appa%Ayesha.appa@ucsf.edu%1,     Gabriel%Chamie%NULL%1,     Aenor%Sawyer%NULL%1,     Kimberly%Baltzell%NULL%1,     Kathryn%Dippell%NULL%1,     Salu%Ribeiro%NULL%1,     Elias%Duarte%NULL%1,     Joanna%Vinden%NULL%1,     CLIAHUB%Consortium%NULL%1,     Jonathan%Kramer-Feldman%NULL%1,     Shahryar%Rahdari%NULL%1,     Doug%MacIntosh%NULL%1,     Katherine%Nicholson%NULL%1,     Jonathan%Im%NULL%1,     Diane%Havlir%NULL%1,     Bryan%Greenhouse%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Min Cheol%Chang%NULL%1,     Wan-Seok%Seo%NULL%1,     Donghwi%Park%NULL%0,     Jian%Hur%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marci L.%Drees%NULL%1,     Mia A.%Papas%NULL%1,     Terri E.%Corbo%NULL%1,     Kimberly D.%Williams%NULL%1,     Sharon T.%Kurfuerst%NULL%2,     Sharon T.%Kurfuerst%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Erin F.%Flynn%flynne@email.chop.edu%1,     Elizabeth%Kuhn%NULL%1,     Mohammed%Shaik%NULL%1,     Elizabeth%Tarr%NULL%1,     Nicole%Scattolini%NULL%1,     Allison%Ballantine%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Scott A.%Goldberg%NULL%1,     Robert A.%Bonacci%NULL%1,     Lucas C.%Carlson%NULL%1,     Charles T.%Pu%NULL%1,     Christine S.%Ritchie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%0,     Sadhu%Panda%NULL%2,     Sadhu%Panda%NULL%0,     Ebrahim%Khajeh%NULL%1,     Alexandra%Halalau%alexandra.halalau@beaumont.edu%2,     Alexandra%Halalau%alexandra.halalau@beaumont.edu%0,     Jeffrey%Ditkoff%NULL%2,     Jeffrey%Ditkoff%NULL%0,     Jessica%Hamilton%NULL%2,     Jessica%Hamilton%NULL%0,     Aryana%Sharrak%NULL%2,     Aryana%Sharrak%NULL%0,     Aimen%Vanood%NULL%2,     Aimen%Vanood%NULL%0,     Amr%Abbas%NULL%2,     Amr%Abbas%NULL%0,     James%Ziadeh%NULL%2,     James%Ziadeh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sang Il%Kim%NULL%1,     Ji Yong%Lee%NULL%2,     Ji Yong%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ki Tae%Kwon%NULL%1,     Jae-Hoon%Ko%NULL%2,     Jae-Hoon%Ko%NULL%0,     Heejun%Shin%NULL%2,     Heejun%Shin%NULL%0,     Minki%Sung%NULL%2,     Minki%Sung%NULL%0,     Jin Yong%Kim%NULL%0,     Jin Yong%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Elly%Lee%NULL%1,     Nurul Yaqeen%Mohd Esa%NULL%1,     Tong Ming%Wee%NULL%1,     Chun Ian%Soo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yong Shik%Kwon%NULL%1,     Sun Hyo%Park%NULL%2,     Sun Hyo%Park%NULL%0,     Hyun Jung%Kim%NULL%2,     Hyun Jung%Kim%NULL%0,     Ji Yeon%Lee%NULL%2,     Ji Yeon%Lee%NULL%0,     Mi-ri%Hyun%NULL%2,     Mi-ri%Hyun%NULL%0,     Hyun ah%Kim%NULL%2,     Hyun ah%Kim%NULL%0,     Jae Seok%Park%NULL%2,     Jae Seok%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po-Ting%Lin%NULL%1,     Ting-Yuan%Ni%NULL%1,     Tren-Yi%Chen%NULL%1,     Chih-Pei%Su%NULL%1,     Hsiao-Fen%Sun%NULL%1,     Mu-Kuan%Chen%NULL%1,     Chu-Chung%Chou%NULL%1,     Po-Yu%Wang%NULL%1,     Yan-Ren%Lin%H6213.lac@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[David A%Lindholm%david.a.lindholm4.mil@mail.mil%1,     John L%Kiley%NULL%2,     John L%Kiley%NULL%0,     Nathan K%Jansen%NULL%1,     Robert T%Hoard%NULL%1,     Matthew R%Bondaryk%NULL%1,     Elizabeth M%Stanley%NULL%1,     Gadiel R%Alvarado%NULL%1,     Ana E%Markelz%NULL%1,     Robert J%Cybulski%NULL%1,     Jason F%Okulicz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Charmaine Malenab%Manauis%NULL%1,     Marvin%Loh%marvin.loh@mohh.com.sg%1,     James%Kwan%NULL%1,     John%Chua Mingzhou%NULL%1,     Han Jie%Teo%NULL%1,     David%Teng Kuan Peng%NULL%1,     Shawn%Vasoo Sushilan%NULL%1,     Yee Sin%Leo%NULL%1,     Ang%Hou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rivkees%Scott A.%coreGivesNoEmail%1,    Roberson%Shamarial%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Eunhye%Seo%NULL%1,     Eunchan%Mun%NULL%2,     Eunchan%Mun%NULL%0,     Wonsool%Kim%NULL%2,     Wonsool%Kim%NULL%0,     Changhwan%Lee%NULL%2,     Changhwan%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aditya%Shah%shah.aditya@mayo.edu%1,     Douglas%Challener%NULL%1,     Aaron J.%Tande%NULL%1,     Maryam%Mahmood%NULL%1,     John C.%O’Horo%NULL%1,     Elie%Berbari%NULL%1,     Sarah J.%Crane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angie N.%Ton%NULL%1,     Tarang%Jethwa%NULL%1,     Karen%Waters%NULL%2,     Karen%Waters%NULL%0,     Leigh L.%Speicher%NULL%2,     Leigh L.%Speicher%NULL%0,     Dawn%Francis%NULL%2,     Dawn%Francis%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kate%Mark%NULL%1,     Katie%Steel%NULL%1,     Janet%Stevenson%NULL%1,     Christine%Evans%NULL%1,     Duncan%McCormick%NULL%1,     Lorna%Willocks%NULL%1,     Alison%McCallum%NULL%1,     Laura%Jones%NULL%1,     Ingolfur%Johannessen%NULL%1,     Kate%Templeton%NULL%1,     Oliver%Koch%NULL%1,     Claire%Mackintosh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Craig%Brammer%NULL%1,      Stacy%Donohue%NULL%1,      Timothy%Elwell%NULL%1,      Eliza%Fishbein%NULL%1,      D'Ante%Forschino%NULL%1,      Dorothy%Horne%NULL%1,      Buffy%Lloyd-Krejci%NULL%1,      Jessica%Little%NULL%1,      Bistra%Nikiforova%NULL%1,      Elizabeth%Winterbauer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ayesha%Appa%Ayesha.appa@ucsf.edu%1,      Gabriel%Chamie%NULL%1,      Aenor%Sawyer%NULL%1,      Kimberly%Baltzell%NULL%1,      Kathryn%Dippell%NULL%1,      Salu%Ribeiro%NULL%1,      Elias%Duarte%NULL%1,      Joanna%Vinden%NULL%1,      CLIAHUB%Consortium%NULL%1,      Jonathan%Kramer-Feldman%NULL%1,      Shahryar%Rahdari%NULL%1,      Doug%MacIntosh%NULL%1,      Katherine%Nicholson%NULL%1,      Jonathan%Im%NULL%1,      Diane%Havlir%NULL%1,      Bryan%Greenhouse%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Min Cheol%Chang%NULL%1,      Wan-Seok%Seo%NULL%1,      Donghwi%Park%NULL%0,      Jian%Hur%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marci L.%Drees%NULL%1,      Mia A.%Papas%NULL%1,      Terri E.%Corbo%NULL%1,      Kimberly D.%Williams%NULL%1,      Sharon T.%Kurfuerst%NULL%2,      Sharon T.%Kurfuerst%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Erin F.%Flynn%flynne@email.chop.edu%1,      Elizabeth%Kuhn%NULL%1,      Mohammed%Shaik%NULL%1,      Elizabeth%Tarr%NULL%1,      Nicole%Scattolini%NULL%1,      Allison%Ballantine%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Scott A.%Goldberg%NULL%1,      Robert A.%Bonacci%NULL%1,      Lucas C.%Carlson%NULL%1,      Charles T.%Pu%NULL%1,      Christine S.%Ritchie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%0,      Sadhu%Panda%NULL%2,      Sadhu%Panda%NULL%0,      Ebrahim%Khajeh%NULL%1,      Alexandra%Halalau%alexandra.halalau@beaumont.edu%2,      Alexandra%Halalau%alexandra.halalau@beaumont.edu%0,      Jeffrey%Ditkoff%NULL%2,      Jeffrey%Ditkoff%NULL%0,      Jessica%Hamilton%NULL%2,      Jessica%Hamilton%NULL%0,      Aryana%Sharrak%NULL%2,      Aryana%Sharrak%NULL%0,      Aimen%Vanood%NULL%2,      Aimen%Vanood%NULL%0,      Amr%Abbas%NULL%2,      Amr%Abbas%NULL%0,      James%Ziadeh%NULL%2,      James%Ziadeh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sang Il%Kim%NULL%1,      Ji Yong%Lee%NULL%2,      Ji Yong%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ki Tae%Kwon%NULL%1,      Jae-Hoon%Ko%NULL%2,      Jae-Hoon%Ko%NULL%0,      Heejun%Shin%NULL%2,      Heejun%Shin%NULL%0,      Minki%Sung%NULL%2,      Minki%Sung%NULL%0,      Jin Yong%Kim%NULL%0,      Jin Yong%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Elly%Lee%NULL%1,      Nurul Yaqeen%Mohd Esa%NULL%1,      Tong Ming%Wee%NULL%1,      Chun Ian%Soo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yong Shik%Kwon%NULL%1,      Sun Hyo%Park%NULL%2,      Sun Hyo%Park%NULL%0,      Hyun Jung%Kim%NULL%2,      Hyun Jung%Kim%NULL%0,      Ji Yeon%Lee%NULL%2,      Ji Yeon%Lee%NULL%0,      Mi-ri%Hyun%NULL%2,      Mi-ri%Hyun%NULL%0,      Hyun ah%Kim%NULL%2,      Hyun ah%Kim%NULL%0,      Jae Seok%Park%NULL%2,      Jae Seok%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po-Ting%Lin%NULL%1,      Ting-Yuan%Ni%NULL%1,      Tren-Yi%Chen%NULL%1,      Chih-Pei%Su%NULL%1,      Hsiao-Fen%Sun%NULL%1,      Mu-Kuan%Chen%NULL%1,      Chu-Chung%Chou%NULL%1,      Po-Yu%Wang%NULL%1,      Yan-Ren%Lin%H6213.lac@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[David A%Lindholm%david.a.lindholm4.mil@mail.mil%1,      John L%Kiley%NULL%2,      John L%Kiley%NULL%0,      Nathan K%Jansen%NULL%1,      Robert T%Hoard%NULL%1,      Matthew R%Bondaryk%NULL%1,      Elizabeth M%Stanley%NULL%1,      Gadiel R%Alvarado%NULL%1,      Ana E%Markelz%NULL%1,      Robert J%Cybulski%NULL%1,      Jason F%Okulicz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Charmaine Malenab%Manauis%NULL%1,      Marvin%Loh%marvin.loh@mohh.com.sg%1,      James%Kwan%NULL%1,      John%Chua Mingzhou%NULL%1,      Han Jie%Teo%NULL%1,      David%Teng Kuan Peng%NULL%1,      Shawn%Vasoo Sushilan%NULL%1,      Yee Sin%Leo%NULL%1,      Ang%Hou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rivkees%Scott A.%coreGivesNoEmail%1,     Roberson%Shamarial%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Eunhye%Seo%NULL%1,      Eunchan%Mun%NULL%2,      Eunchan%Mun%NULL%0,      Wonsool%Kim%NULL%2,      Wonsool%Kim%NULL%0,      Changhwan%Lee%NULL%2,      Changhwan%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aditya%Shah%shah.aditya@mayo.edu%1,      Douglas%Challener%NULL%1,      Aaron J.%Tande%NULL%1,      Maryam%Mahmood%NULL%1,      John C.%O’Horo%NULL%1,      Elie%Berbari%NULL%1,      Sarah J.%Crane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angie N.%Ton%NULL%1,      Tarang%Jethwa%NULL%1,      Karen%Waters%NULL%2,      Karen%Waters%NULL%0,      Leigh L.%Speicher%NULL%2,      Leigh L.%Speicher%NULL%0,      Dawn%Francis%NULL%2,      Dawn%Francis%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kate%Mark%NULL%1,      Katie%Steel%NULL%1,      Janet%Stevenson%NULL%1,      Christine%Evans%NULL%1,      Duncan%McCormick%NULL%1,      Lorna%Willocks%NULL%1,      Alison%McCallum%NULL%1,      Laura%Jones%NULL%1,      Ingolfur%Johannessen%NULL%1,      Kate%Templeton%NULL%1,      Oliver%Koch%NULL%1,      Claire%Mackintosh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Craig%Brammer%NULL%1,       Stacy%Donohue%NULL%1,       Timothy%Elwell%NULL%1,       Eliza%Fishbein%NULL%1,       D'Ante%Forschino%NULL%1,       Dorothy%Horne%NULL%1,       Buffy%Lloyd-Krejci%NULL%1,       Jessica%Little%NULL%1,       Bistra%Nikiforova%NULL%1,       Elizabeth%Winterbauer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ayesha%Appa%Ayesha.appa@ucsf.edu%1,       Gabriel%Chamie%NULL%1,       Aenor%Sawyer%NULL%1,       Kimberly%Baltzell%NULL%1,       Kathryn%Dippell%NULL%1,       Salu%Ribeiro%NULL%1,       Elias%Duarte%NULL%1,       Joanna%Vinden%NULL%1,       CLIAHUB%Consortium%NULL%1,       Jonathan%Kramer-Feldman%NULL%1,       Shahryar%Rahdari%NULL%1,       Doug%MacIntosh%NULL%1,       Katherine%Nicholson%NULL%1,       Jonathan%Im%NULL%1,       Diane%Havlir%NULL%1,       Bryan%Greenhouse%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Min Cheol%Chang%NULL%1,       Wan-Seok%Seo%NULL%1,       Donghwi%Park%NULL%0,       Jian%Hur%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Marci L.%Drees%NULL%1,       Mia A.%Papas%NULL%1,       Terri E.%Corbo%NULL%1,       Kimberly D.%Williams%NULL%1,       Sharon T.%Kurfuerst%NULL%2,       Sharon T.%Kurfuerst%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Erin F.%Flynn%flynne@email.chop.edu%1,       Elizabeth%Kuhn%NULL%1,       Mohammed%Shaik%NULL%1,       Elizabeth%Tarr%NULL%1,       Nicole%Scattolini%NULL%1,       Allison%Ballantine%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Scott A.%Goldberg%NULL%1,       Robert A.%Bonacci%NULL%1,       Lucas C.%Carlson%NULL%1,       Charles T.%Pu%NULL%1,       Christine S.%Ritchie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%0,       Sadhu%Panda%NULL%2,       Sadhu%Panda%NULL%0,       Ebrahim%Khajeh%NULL%1,       Alexandra%Halalau%alexandra.halalau@beaumont.edu%2,       Alexandra%Halalau%alexandra.halalau@beaumont.edu%0,       Jeffrey%Ditkoff%NULL%2,       Jeffrey%Ditkoff%NULL%0,       Jessica%Hamilton%NULL%2,       Jessica%Hamilton%NULL%0,       Aryana%Sharrak%NULL%2,       Aryana%Sharrak%NULL%0,       Aimen%Vanood%NULL%2,       Aimen%Vanood%NULL%0,       Amr%Abbas%NULL%2,       Amr%Abbas%NULL%0,       James%Ziadeh%NULL%2,       James%Ziadeh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sang Il%Kim%NULL%1,       Ji Yong%Lee%NULL%2,       Ji Yong%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ki Tae%Kwon%NULL%1,       Jae-Hoon%Ko%NULL%2,       Jae-Hoon%Ko%NULL%0,       Heejun%Shin%NULL%2,       Heejun%Shin%NULL%0,       Minki%Sung%NULL%2,       Minki%Sung%NULL%0,       Jin Yong%Kim%NULL%0,       Jin Yong%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Elly%Lee%NULL%1,       Nurul Yaqeen%Mohd Esa%NULL%1,       Tong Ming%Wee%NULL%1,       Chun Ian%Soo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yong Shik%Kwon%NULL%1,       Sun Hyo%Park%NULL%2,       Sun Hyo%Park%NULL%0,       Hyun Jung%Kim%NULL%2,       Hyun Jung%Kim%NULL%0,       Ji Yeon%Lee%NULL%2,       Ji Yeon%Lee%NULL%0,       Mi-ri%Hyun%NULL%2,       Mi-ri%Hyun%NULL%0,       Hyun ah%Kim%NULL%2,       Hyun ah%Kim%NULL%0,       Jae Seok%Park%NULL%2,       Jae Seok%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po-Ting%Lin%NULL%1,       Ting-Yuan%Ni%NULL%1,       Tren-Yi%Chen%NULL%1,       Chih-Pei%Su%NULL%1,       Hsiao-Fen%Sun%NULL%1,       Mu-Kuan%Chen%NULL%1,       Chu-Chung%Chou%NULL%1,       Po-Yu%Wang%NULL%1,       Yan-Ren%Lin%H6213.lac@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[David A%Lindholm%david.a.lindholm4.mil@mail.mil%1,       John L%Kiley%NULL%2,       John L%Kiley%NULL%0,       Nathan K%Jansen%NULL%1,       Robert T%Hoard%NULL%1,       Matthew R%Bondaryk%NULL%1,       Elizabeth M%Stanley%NULL%1,       Gadiel R%Alvarado%NULL%1,       Ana E%Markelz%NULL%1,       Robert J%Cybulski%NULL%1,       Jason F%Okulicz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Charmaine Malenab%Manauis%NULL%1,       Marvin%Loh%marvin.loh@mohh.com.sg%1,       James%Kwan%NULL%1,       John%Chua Mingzhou%NULL%1,       Han Jie%Teo%NULL%1,       David%Teng Kuan Peng%NULL%1,       Shawn%Vasoo Sushilan%NULL%1,       Yee Sin%Leo%NULL%1,       Ang%Hou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rivkees%Scott A.%coreGivesNoEmail%1,      Roberson%Shamarial%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Eunhye%Seo%NULL%1,       Eunchan%Mun%NULL%2,       Eunchan%Mun%NULL%0,       Wonsool%Kim%NULL%2,       Wonsool%Kim%NULL%0,       Changhwan%Lee%NULL%2,       Changhwan%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aditya%Shah%shah.aditya@mayo.edu%1,       Douglas%Challener%NULL%1,       Aaron J.%Tande%NULL%1,       Maryam%Mahmood%NULL%1,       John C.%O’Horo%NULL%1,       Elie%Berbari%NULL%1,       Sarah J.%Crane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angie N.%Ton%NULL%1,       Tarang%Jethwa%NULL%1,       Karen%Waters%NULL%2,       Karen%Waters%NULL%0,       Leigh L.%Speicher%NULL%2,       Leigh L.%Speicher%NULL%0,       Dawn%Francis%NULL%2,       Dawn%Francis%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kate%Mark%NULL%1,       Katie%Steel%NULL%1,       Janet%Stevenson%NULL%1,       Christine%Evans%NULL%1,       Duncan%McCormick%NULL%1,       Lorna%Willocks%NULL%1,       Alison%McCallum%NULL%1,       Laura%Jones%NULL%1,       Ingolfur%Johannessen%NULL%1,       Kate%Templeton%NULL%1,       Oliver%Koch%NULL%1,       Claire%Mackintosh%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1238,7 @@
         <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>231</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -1039,7 +1267,7 @@
         <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>232</v>
       </c>
       <c r="F3" t="s">
         <v>45</v>
@@ -1068,7 +1296,7 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>156</v>
+        <v>233</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -1097,7 +1325,7 @@
         <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
+        <v>234</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
@@ -1126,7 +1354,7 @@
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>159</v>
+        <v>235</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
@@ -1155,7 +1383,7 @@
         <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>160</v>
+        <v>236</v>
       </c>
       <c r="F7" t="s">
         <v>64</v>
@@ -1184,7 +1412,7 @@
         <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>161</v>
+        <v>237</v>
       </c>
       <c r="F8" t="s">
         <v>69</v>
@@ -1242,7 +1470,7 @@
         <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>238</v>
       </c>
       <c r="F10" t="s">
         <v>79</v>
@@ -1300,7 +1528,7 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>163</v>
+        <v>239</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -1329,7 +1557,7 @@
         <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>164</v>
+        <v>240</v>
       </c>
       <c r="F13" t="s">
         <v>90</v>
@@ -1358,7 +1586,7 @@
         <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>165</v>
+        <v>241</v>
       </c>
       <c r="F14" t="s">
         <v>95</v>
@@ -1387,7 +1615,7 @@
         <v>98</v>
       </c>
       <c r="E15" t="s">
-        <v>166</v>
+        <v>242</v>
       </c>
       <c r="F15" t="s">
         <v>100</v>
@@ -1416,7 +1644,7 @@
         <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c r="F16" t="s">
         <v>105</v>
@@ -1445,7 +1673,7 @@
         <v>108</v>
       </c>
       <c r="E17" t="s">
-        <v>168</v>
+        <v>244</v>
       </c>
       <c r="F17" t="s">
         <v>110</v>
@@ -1474,13 +1702,13 @@
         <v>144</v>
       </c>
       <c r="E18" t="s">
-        <v>169</v>
+        <v>245</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="H18" t="s">
         <v>81</v>
@@ -1503,7 +1731,7 @@
         <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>170</v>
+        <v>246</v>
       </c>
       <c r="F19" t="s">
         <v>115</v>
@@ -1532,7 +1760,7 @@
         <v>118</v>
       </c>
       <c r="E20" t="s">
-        <v>171</v>
+        <v>247</v>
       </c>
       <c r="F20" t="s">
         <v>120</v>
@@ -1561,7 +1789,7 @@
         <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>172</v>
+        <v>248</v>
       </c>
       <c r="F21" t="s">
         <v>123</v>
@@ -1590,7 +1818,7 @@
         <v>125</v>
       </c>
       <c r="E22" t="s">
-        <v>173</v>
+        <v>249</v>
       </c>
       <c r="F22" t="s">
         <v>127</v>

--- a/Covid_19_Dataset_and_References/References/63.xlsx
+++ b/Covid_19_Dataset_and_References/References/63.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="293">
   <si>
     <t>Doi</t>
   </si>
@@ -884,6 +884,135 @@
   </si>
   <si>
     <t>[Kate%Mark%NULL%1,       Katie%Steel%NULL%1,       Janet%Stevenson%NULL%1,       Christine%Evans%NULL%1,       Duncan%McCormick%NULL%1,       Lorna%Willocks%NULL%1,       Alison%McCallum%NULL%1,       Laura%Jones%NULL%1,       Ingolfur%Johannessen%NULL%1,       Kate%Templeton%NULL%1,       Oliver%Koch%NULL%1,       Claire%Mackintosh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Craig%Brammer%NULL%1,        Stacy%Donohue%NULL%1,        Timothy%Elwell%NULL%1,        Eliza%Fishbein%NULL%1,        D'Ante%Forschino%NULL%1,        Dorothy%Horne%NULL%1,        Buffy%Lloyd-Krejci%NULL%1,        Jessica%Little%NULL%1,        Bistra%Nikiforova%NULL%1,        Elizabeth%Winterbauer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ayesha%Appa%Ayesha.appa@ucsf.edu%1,        Gabriel%Chamie%NULL%1,        Aenor%Sawyer%NULL%1,        Kimberly%Baltzell%NULL%1,        Kathryn%Dippell%NULL%1,        Salu%Ribeiro%NULL%1,        Elias%Duarte%NULL%1,        Joanna%Vinden%NULL%1,        CLIAHUB%Consortium%NULL%1,        Jonathan%Kramer-Feldman%NULL%1,        Shahryar%Rahdari%NULL%1,        Doug%MacIntosh%NULL%1,        Katherine%Nicholson%NULL%1,        Jonathan%Im%NULL%1,        Diane%Havlir%NULL%1,        Bryan%Greenhouse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min Cheol%Chang%NULL%1,        Wan-Seok%Seo%NULL%1,        Donghwi%Park%NULL%1,        Jian%Hur%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marci L.%Drees%NULL%1,        Mia A.%Papas%NULL%1,        Terri E.%Corbo%NULL%1,        Kimberly D.%Williams%NULL%1,        Sharon T.%Kurfuerst%NULL%2,        Sharon T.%Kurfuerst%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Erin F.%Flynn%flynne@email.chop.edu%1,        Elizabeth%Kuhn%NULL%1,        Mohammed%Shaik%NULL%1,        Elizabeth%Tarr%NULL%1,        Nicole%Scattolini%NULL%1,        Allison%Ballantine%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Scott A.%Goldberg%NULL%1,        Robert A.%Bonacci%NULL%1,        Lucas C.%Carlson%NULL%1,        Charles T.%Pu%NULL%1,        Christine S.%Ritchie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%0,        Sadhu%Panda%NULL%2,        Sadhu%Panda%NULL%0,        Ebrahim%Khajeh%NULL%1,        Alexandra%Halalau%alexandra.halalau@beaumont.edu%2,        Alexandra%Halalau%alexandra.halalau@beaumont.edu%0,        Jeffrey%Ditkoff%NULL%2,        Jeffrey%Ditkoff%NULL%0,        Jessica%Hamilton%NULL%2,        Jessica%Hamilton%NULL%0,        Aryana%Sharrak%NULL%2,        Aryana%Sharrak%NULL%0,        Aimen%Vanood%NULL%2,        Aimen%Vanood%NULL%0,        Amr%Abbas%NULL%2,        Amr%Abbas%NULL%0,        James%Ziadeh%NULL%2,        James%Ziadeh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sang Il%Kim%NULL%1,        Ji Yong%Lee%NULL%2,        Ji Yong%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>"Drive-through testing in COVID-19: experience from NHS Lothian"</t>
+  </si>
+  <si>
+    <t>[Katherine%Hill%xref no email%1, Robyn%Campbell%xref no email%1, Callum%Mutch%xref no email%1, Oliver%Koch%xref no email%1, Claire%Mackintosh%xref no email%1]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-05</t>
+  </si>
+  <si>
+    <t>[Ki Tae%Kwon%NULL%1,        Jae-Hoon%Ko%NULL%2,        Jae-Hoon%Ko%NULL%0,        Heejun%Shin%NULL%2,        Heejun%Shin%NULL%0,        Minki%Sung%NULL%2,        Minki%Sung%NULL%0,        Jin Yong%Kim%NULL%4,        Jin Yong%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Elly%Lee%NULL%1,        Nurul Yaqeen%Mohd Esa%NULL%1,        Tong Ming%Wee%NULL%1,        Chun Ian%Soo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yong Shik%Kwon%NULL%1,        Sun Hyo%Park%NULL%2,        Sun Hyo%Park%NULL%0,        Hyun Jung%Kim%NULL%2,        Hyun Jung%Kim%NULL%0,        Ji Yeon%Lee%NULL%0,        Ji Yeon%Lee%NULL%0,        Mi-ri%Hyun%NULL%2,        Mi-ri%Hyun%NULL%0,        Hyun ah%Kim%NULL%2,        Hyun ah%Kim%NULL%0,        Jae Seok%Park%NULL%0,        Jae Seok%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po-Ting%Lin%NULL%1,        Ting-Yuan%Ni%NULL%1,        Tren-Yi%Chen%NULL%1,        Chih-Pei%Su%NULL%1,        Hsiao-Fen%Sun%NULL%1,        Mu-Kuan%Chen%NULL%1,        Chu-Chung%Chou%NULL%1,        Po-Yu%Wang%NULL%1,        Yan-Ren%Lin%H6213.lac@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[David A%Lindholm%david.a.lindholm4.mil@mail.mil%1,        John L%Kiley%NULL%2,        John L%Kiley%NULL%0,        Nathan K%Jansen%NULL%1,        Robert T%Hoard%NULL%1,        Matthew R%Bondaryk%NULL%1,        Elizabeth M%Stanley%NULL%1,        Gadiel R%Alvarado%NULL%1,        Ana E%Markelz%NULL%1,        Robert J%Cybulski%NULL%1,        Jason F%Okulicz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Charmaine Malenab%Manauis%NULL%1,        Marvin%Loh%marvin.loh@mohh.com.sg%1,        James%Kwan%NULL%1,        John%Chua Mingzhou%NULL%1,        Han Jie%Teo%NULL%1,        David%Teng Kuan Peng%NULL%1,        Shawn%Vasoo Sushilan%NULL%1,        Yee Sin%Leo%NULL%1,        Ang%Hou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rivkees%Scott A.%coreGivesNoEmail%1,       Roberson%Shamarial%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Eunhye%Seo%NULL%1,        Eunchan%Mun%NULL%2,        Eunchan%Mun%NULL%0,        Wonsool%Kim%NULL%2,        Wonsool%Kim%NULL%0,        Changhwan%Lee%NULL%2,        Changhwan%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aditya%Shah%shah.aditya@mayo.edu%1,        Douglas%Challener%NULL%1,        Aaron J.%Tande%NULL%1,        Maryam%Mahmood%NULL%1,        John C.%O’Horo%NULL%1,        Elie%Berbari%NULL%1,        Sarah J.%Crane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angie N.%Ton%NULL%1,        Tarang%Jethwa%NULL%1,        Karen%Waters%NULL%2,        Karen%Waters%NULL%0,        Leigh L.%Speicher%NULL%2,        Leigh L.%Speicher%NULL%0,        Dawn%Francis%NULL%2,        Dawn%Francis%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kate%Mark%NULL%1,        Katie%Steel%NULL%1,        Janet%Stevenson%NULL%1,        Christine%Evans%NULL%1,        Duncan%McCormick%NULL%1,        Lorna%Willocks%NULL%1,        Alison%McCallum%NULL%1,        Laura%Jones%NULL%1,        Ingolfur%Johannessen%NULL%1,        Kate%Templeton%NULL%1,        Oliver%Koch%NULL%0,        Claire%Mackintosh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Craig%Brammer%NULL%1,         Stacy%Donohue%NULL%1,         Timothy%Elwell%NULL%1,         Eliza%Fishbein%NULL%1,         D'Ante%Forschino%NULL%1,         Dorothy%Horne%NULL%1,         Buffy%Lloyd-Krejci%NULL%1,         Jessica%Little%NULL%1,         Bistra%Nikiforova%NULL%1,         Elizabeth%Winterbauer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ayesha%Appa%Ayesha.appa@ucsf.edu%1,         Gabriel%Chamie%NULL%1,         Aenor%Sawyer%NULL%1,         Kimberly%Baltzell%NULL%1,         Kathryn%Dippell%NULL%1,         Salu%Ribeiro%NULL%1,         Elias%Duarte%NULL%1,         Joanna%Vinden%NULL%1,         CLIAHUB%Consortium%NULL%1,         Jonathan%Kramer-Feldman%NULL%1,         Shahryar%Rahdari%NULL%1,         Doug%MacIntosh%NULL%1,         Katherine%Nicholson%NULL%1,         Jonathan%Im%NULL%1,         Diane%Havlir%NULL%1,         Bryan%Greenhouse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min Cheol%Chang%NULL%1,         Wan-Seok%Seo%NULL%1,         Donghwi%Park%NULL%1,         Jian%Hur%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marci L.%Drees%NULL%1,         Mia A.%Papas%NULL%1,         Terri E.%Corbo%NULL%1,         Kimberly D.%Williams%NULL%1,         Sharon T.%Kurfuerst%NULL%2,         Sharon T.%Kurfuerst%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Erin F.%Flynn%flynne@email.chop.edu%1,         Elizabeth%Kuhn%NULL%1,         Mohammed%Shaik%NULL%1,         Elizabeth%Tarr%NULL%1,         Nicole%Scattolini%NULL%1,         Allison%Ballantine%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Scott A.%Goldberg%NULL%1,         Robert A.%Bonacci%NULL%1,         Lucas C.%Carlson%NULL%1,         Charles T.%Pu%NULL%1,         Christine S.%Ritchie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%0,         Sadhu%Panda%NULL%2,         Sadhu%Panda%NULL%0,         Ebrahim%Khajeh%NULL%1,         Alexandra%Halalau%alexandra.halalau@beaumont.edu%2,         Alexandra%Halalau%alexandra.halalau@beaumont.edu%0,         Jeffrey%Ditkoff%NULL%2,         Jeffrey%Ditkoff%NULL%0,         Jessica%Hamilton%NULL%2,         Jessica%Hamilton%NULL%0,         Aryana%Sharrak%NULL%2,         Aryana%Sharrak%NULL%0,         Aimen%Vanood%NULL%2,         Aimen%Vanood%NULL%0,         Amr%Abbas%NULL%2,         Amr%Abbas%NULL%0,         James%Ziadeh%NULL%2,         James%Ziadeh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sang Il%Kim%NULL%1,         Ji Yong%Lee%NULL%2,         Ji Yong%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Katherine%Hill%xref no email%1,  Robyn%Campbell%xref no email%1,  Callum%Mutch%xref no email%1,  Oliver%Koch%xref no email%1,  Claire%Mackintosh%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ki Tae%Kwon%NULL%1,         Jae-Hoon%Ko%NULL%2,         Jae-Hoon%Ko%NULL%0,         Heejun%Shin%NULL%2,         Heejun%Shin%NULL%0,         Minki%Sung%NULL%2,         Minki%Sung%NULL%0,         Jin Yong%Kim%NULL%4,         Jin Yong%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Elly%Lee%NULL%1,         Nurul Yaqeen%Mohd Esa%NULL%1,         Tong Ming%Wee%NULL%1,         Chun Ian%Soo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yong Shik%Kwon%NULL%1,         Sun Hyo%Park%NULL%2,         Sun Hyo%Park%NULL%0,         Hyun Jung%Kim%NULL%2,         Hyun Jung%Kim%NULL%0,         Ji Yeon%Lee%NULL%0,         Ji Yeon%Lee%NULL%0,         Mi-ri%Hyun%NULL%2,         Mi-ri%Hyun%NULL%0,         Hyun ah%Kim%NULL%2,         Hyun ah%Kim%NULL%0,         Jae Seok%Park%NULL%0,         Jae Seok%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po-Ting%Lin%NULL%1,         Ting-Yuan%Ni%NULL%1,         Tren-Yi%Chen%NULL%1,         Chih-Pei%Su%NULL%1,         Hsiao-Fen%Sun%NULL%1,         Mu-Kuan%Chen%NULL%1,         Chu-Chung%Chou%NULL%1,         Po-Yu%Wang%NULL%1,         Yan-Ren%Lin%H6213.lac@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[David A%Lindholm%david.a.lindholm4.mil@mail.mil%1,         John L%Kiley%NULL%2,         John L%Kiley%NULL%0,         Nathan K%Jansen%NULL%1,         Robert T%Hoard%NULL%1,         Matthew R%Bondaryk%NULL%1,         Elizabeth M%Stanley%NULL%1,         Gadiel R%Alvarado%NULL%1,         Ana E%Markelz%NULL%1,         Robert J%Cybulski%NULL%1,         Jason F%Okulicz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Charmaine Malenab%Manauis%NULL%1,         Marvin%Loh%marvin.loh@mohh.com.sg%1,         James%Kwan%NULL%1,         John%Chua Mingzhou%NULL%1,         Han Jie%Teo%NULL%1,         David%Teng Kuan Peng%NULL%1,         Shawn%Vasoo Sushilan%NULL%1,         Yee Sin%Leo%NULL%1,         Ang%Hou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rivkees%Scott A.%coreGivesNoEmail%1,        Roberson%Shamarial%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Eunhye%Seo%NULL%1,         Eunchan%Mun%NULL%2,         Eunchan%Mun%NULL%0,         Wonsool%Kim%NULL%2,         Wonsool%Kim%NULL%0,         Changhwan%Lee%NULL%2,         Changhwan%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aditya%Shah%shah.aditya@mayo.edu%1,         Douglas%Challener%NULL%1,         Aaron J.%Tande%NULL%1,         Maryam%Mahmood%NULL%1,         John C.%O’Horo%NULL%1,         Elie%Berbari%NULL%1,         Sarah J.%Crane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angie N.%Ton%NULL%1,         Tarang%Jethwa%NULL%1,         Karen%Waters%NULL%2,         Karen%Waters%NULL%0,         Leigh L.%Speicher%NULL%2,         Leigh L.%Speicher%NULL%0,         Dawn%Francis%NULL%2,         Dawn%Francis%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kate%Mark%NULL%1,         Katie%Steel%NULL%1,         Janet%Stevenson%NULL%1,         Christine%Evans%NULL%1,         Duncan%McCormick%NULL%1,         Lorna%Willocks%NULL%1,         Alison%McCallum%NULL%1,         Laura%Jones%NULL%1,         Ingolfur%Johannessen%NULL%1,         Kate%Templeton%NULL%1,         Oliver%Koch%NULL%0,         Claire%Mackintosh%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1367,7 @@
         <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -1267,7 +1396,7 @@
         <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="F3" t="s">
         <v>45</v>
@@ -1296,7 +1425,7 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -1325,7 +1454,7 @@
         <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>234</v>
+        <v>276</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
@@ -1354,7 +1483,7 @@
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>235</v>
+        <v>277</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
@@ -1383,7 +1512,7 @@
         <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>236</v>
+        <v>278</v>
       </c>
       <c r="F7" t="s">
         <v>64</v>
@@ -1412,7 +1541,7 @@
         <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>237</v>
+        <v>279</v>
       </c>
       <c r="F8" t="s">
         <v>69</v>
@@ -1470,7 +1599,7 @@
         <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>238</v>
+        <v>280</v>
       </c>
       <c r="F10" t="s">
         <v>79</v>
@@ -1493,22 +1622,22 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>258</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>281</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>260</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>261</v>
       </c>
       <c r="I11" t="s">
         <v>53</v>
@@ -1528,7 +1657,7 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>239</v>
+        <v>282</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -1557,7 +1686,7 @@
         <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>240</v>
+        <v>283</v>
       </c>
       <c r="F13" t="s">
         <v>90</v>
@@ -1586,7 +1715,7 @@
         <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="F14" t="s">
         <v>95</v>
@@ -1615,7 +1744,7 @@
         <v>98</v>
       </c>
       <c r="E15" t="s">
-        <v>242</v>
+        <v>285</v>
       </c>
       <c r="F15" t="s">
         <v>100</v>
@@ -1644,7 +1773,7 @@
         <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>243</v>
+        <v>286</v>
       </c>
       <c r="F16" t="s">
         <v>105</v>
@@ -1673,7 +1802,7 @@
         <v>108</v>
       </c>
       <c r="E17" t="s">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="F17" t="s">
         <v>110</v>
@@ -1702,7 +1831,7 @@
         <v>144</v>
       </c>
       <c r="E18" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="F18" t="s">
         <v>20</v>
@@ -1731,7 +1860,7 @@
         <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>246</v>
+        <v>289</v>
       </c>
       <c r="F19" t="s">
         <v>115</v>
@@ -1760,7 +1889,7 @@
         <v>118</v>
       </c>
       <c r="E20" t="s">
-        <v>247</v>
+        <v>290</v>
       </c>
       <c r="F20" t="s">
         <v>120</v>
@@ -1789,7 +1918,7 @@
         <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>248</v>
+        <v>291</v>
       </c>
       <c r="F21" t="s">
         <v>123</v>
@@ -1818,7 +1947,7 @@
         <v>125</v>
       </c>
       <c r="E22" t="s">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="F22" t="s">
         <v>127</v>

--- a/Covid_19_Dataset_and_References/References/63.xlsx
+++ b/Covid_19_Dataset_and_References/References/63.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="333">
   <si>
     <t>Doi</t>
   </si>
@@ -1013,6 +1013,126 @@
   </si>
   <si>
     <t>[Kate%Mark%NULL%1,         Katie%Steel%NULL%1,         Janet%Stevenson%NULL%1,         Christine%Evans%NULL%1,         Duncan%McCormick%NULL%1,         Lorna%Willocks%NULL%1,         Alison%McCallum%NULL%1,         Laura%Jones%NULL%1,         Ingolfur%Johannessen%NULL%1,         Kate%Templeton%NULL%1,         Oliver%Koch%NULL%0,         Claire%Mackintosh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Craig%Brammer%NULL%1,          Stacy%Donohue%NULL%1,          Timothy%Elwell%NULL%1,          Eliza%Fishbein%NULL%1,          D'Ante%Forschino%NULL%1,          Dorothy%Horne%NULL%1,          Buffy%Lloyd-Krejci%NULL%1,          Jessica%Little%NULL%1,          Bistra%Nikiforova%NULL%1,          Elizabeth%Winterbauer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ayesha%Appa%Ayesha.appa@ucsf.edu%1,          Gabriel%Chamie%NULL%1,          Aenor%Sawyer%NULL%1,          Kimberly%Baltzell%NULL%1,          Kathryn%Dippell%NULL%1,          Salu%Ribeiro%NULL%1,          Elias%Duarte%NULL%1,          Joanna%Vinden%NULL%1,          CLIAHUB%Consortium%NULL%1,          Jonathan%Kramer-Feldman%NULL%1,          Shahryar%Rahdari%NULL%1,          Doug%MacIntosh%NULL%1,          Katherine%Nicholson%NULL%1,          Jonathan%Im%NULL%1,          Diane%Havlir%NULL%1,          Bryan%Greenhouse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min Cheol%Chang%NULL%1,          Wan-Seok%Seo%NULL%1,          Donghwi%Park%NULL%1,          Jian%Hur%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marci L.%Drees%NULL%1,          Mia A.%Papas%NULL%1,          Terri E.%Corbo%NULL%1,          Kimberly D.%Williams%NULL%1,          Sharon T.%Kurfuerst%NULL%2,          Sharon T.%Kurfuerst%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Erin F.%Flynn%flynne@email.chop.edu%1,          Elizabeth%Kuhn%NULL%1,          Mohammed%Shaik%NULL%1,          Elizabeth%Tarr%NULL%1,          Nicole%Scattolini%NULL%1,          Allison%Ballantine%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Scott A.%Goldberg%NULL%1,          Robert A.%Bonacci%NULL%1,          Lucas C.%Carlson%NULL%1,          Charles T.%Pu%NULL%1,          Christine S.%Ritchie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%0,          Sadhu%Panda%NULL%2,          Sadhu%Panda%NULL%0,          Ebrahim%Khajeh%NULL%1,          Alexandra%Halalau%alexandra.halalau@beaumont.edu%2,          Alexandra%Halalau%alexandra.halalau@beaumont.edu%0,          Jeffrey%Ditkoff%NULL%2,          Jeffrey%Ditkoff%NULL%0,          Jessica%Hamilton%NULL%2,          Jessica%Hamilton%NULL%0,          Aryana%Sharrak%NULL%2,          Aryana%Sharrak%NULL%0,          Aimen%Vanood%NULL%2,          Aimen%Vanood%NULL%0,          Amr%Abbas%NULL%2,          Amr%Abbas%NULL%0,          James%Ziadeh%NULL%2,          James%Ziadeh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sang Il%Kim%NULL%1,          Ji Yong%Lee%NULL%2,          Ji Yong%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Katherine%Hill%xref no email%1,   Robyn%Campbell%xref no email%1,   Callum%Mutch%xref no email%1,   Oliver%Koch%xref no email%1,   Claire%Mackintosh%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ki Tae%Kwon%NULL%1,          Jae-Hoon%Ko%NULL%2,          Jae-Hoon%Ko%NULL%0,          Heejun%Shin%NULL%2,          Heejun%Shin%NULL%0,          Minki%Sung%NULL%2,          Minki%Sung%NULL%0,          Jin Yong%Kim%NULL%4,          Jin Yong%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Elly%Lee%NULL%1,          Nurul Yaqeen%Mohd Esa%NULL%1,          Tong Ming%Wee%NULL%1,          Chun Ian%Soo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yong Shik%Kwon%NULL%1,          Sun Hyo%Park%NULL%2,          Sun Hyo%Park%NULL%0,          Hyun Jung%Kim%NULL%2,          Hyun Jung%Kim%NULL%0,          Ji Yeon%Lee%NULL%0,          Ji Yeon%Lee%NULL%0,          Mi-ri%Hyun%NULL%2,          Mi-ri%Hyun%NULL%0,          Hyun ah%Kim%NULL%2,          Hyun ah%Kim%NULL%0,          Jae Seok%Park%NULL%0,          Jae Seok%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po-Ting%Lin%NULL%1,          Ting-Yuan%Ni%NULL%1,          Tren-Yi%Chen%NULL%1,          Chih-Pei%Su%NULL%1,          Hsiao-Fen%Sun%NULL%1,          Mu-Kuan%Chen%NULL%1,          Chu-Chung%Chou%NULL%1,          Po-Yu%Wang%NULL%1,          Yan-Ren%Lin%H6213.lac@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[David A%Lindholm%david.a.lindholm4.mil@mail.mil%1,          John L%Kiley%NULL%2,          John L%Kiley%NULL%0,          Nathan K%Jansen%NULL%1,          Robert T%Hoard%NULL%1,          Matthew R%Bondaryk%NULL%1,          Elizabeth M%Stanley%NULL%1,          Gadiel R%Alvarado%NULL%1,          Ana E%Markelz%NULL%1,          Robert J%Cybulski%NULL%1,          Jason F%Okulicz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Charmaine Malenab%Manauis%NULL%1,          Marvin%Loh%marvin.loh@mohh.com.sg%1,          James%Kwan%NULL%1,          John%Chua Mingzhou%NULL%1,          Han Jie%Teo%NULL%1,          David%Teng Kuan Peng%NULL%1,          Shawn%Vasoo Sushilan%NULL%1,          Yee Sin%Leo%NULL%1,          Ang%Hou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rivkees%Scott A.%coreGivesNoEmail%1,         Roberson%Shamarial%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Eunhye%Seo%NULL%1,          Eunchan%Mun%NULL%2,          Eunchan%Mun%NULL%0,          Wonsool%Kim%NULL%2,          Wonsool%Kim%NULL%0,          Changhwan%Lee%NULL%2,          Changhwan%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aditya%Shah%shah.aditya@mayo.edu%1,          Douglas%Challener%NULL%1,          Aaron J.%Tande%NULL%1,          Maryam%Mahmood%NULL%1,          John C.%O’Horo%NULL%1,          Elie%Berbari%NULL%1,          Sarah J.%Crane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angie N.%Ton%NULL%1,          Tarang%Jethwa%NULL%1,          Karen%Waters%NULL%2,          Karen%Waters%NULL%0,          Leigh L.%Speicher%NULL%2,          Leigh L.%Speicher%NULL%0,          Dawn%Francis%NULL%2,          Dawn%Francis%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kate%Mark%NULL%1,          Katie%Steel%NULL%1,          Janet%Stevenson%NULL%1,          Christine%Evans%NULL%1,          Duncan%McCormick%NULL%1,          Lorna%Willocks%NULL%1,          Alison%McCallum%NULL%1,          Laura%Jones%NULL%1,          Ingolfur%Johannessen%NULL%1,          Kate%Templeton%NULL%1,          Oliver%Koch%NULL%0,          Claire%Mackintosh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Craig%Brammer%NULL%1,           Stacy%Donohue%NULL%1,           Timothy%Elwell%NULL%1,           Eliza%Fishbein%NULL%1,           D'Ante%Forschino%NULL%1,           Dorothy%Horne%NULL%1,           Buffy%Lloyd-Krejci%NULL%1,           Jessica%Little%NULL%1,           Bistra%Nikiforova%NULL%1,           Elizabeth%Winterbauer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ayesha%Appa%Ayesha.appa@ucsf.edu%1,           Gabriel%Chamie%NULL%1,           Aenor%Sawyer%NULL%1,           Kimberly%Baltzell%NULL%1,           Kathryn%Dippell%NULL%1,           Salu%Ribeiro%NULL%1,           Elias%Duarte%NULL%1,           Joanna%Vinden%NULL%1,           CLIAHUB%Consortium%NULL%1,           Jonathan%Kramer-Feldman%NULL%1,           Shahryar%Rahdari%NULL%1,           Doug%MacIntosh%NULL%1,           Katherine%Nicholson%NULL%1,           Jonathan%Im%NULL%1,           Diane%Havlir%NULL%1,           Bryan%Greenhouse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min Cheol%Chang%NULL%1,           Wan-Seok%Seo%NULL%1,           Donghwi%Park%NULL%1,           Jian%Hur%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marci L.%Drees%NULL%1,           Mia A.%Papas%NULL%1,           Terri E.%Corbo%NULL%1,           Kimberly D.%Williams%NULL%1,           Sharon T.%Kurfuerst%NULL%2,           Sharon T.%Kurfuerst%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Erin F.%Flynn%flynne@email.chop.edu%1,           Elizabeth%Kuhn%NULL%1,           Mohammed%Shaik%NULL%1,           Elizabeth%Tarr%NULL%1,           Nicole%Scattolini%NULL%1,           Allison%Ballantine%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Scott A.%Goldberg%NULL%1,           Robert A.%Bonacci%NULL%1,           Lucas C.%Carlson%NULL%1,           Charles T.%Pu%NULL%1,           Christine S.%Ritchie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%0,           Sadhu%Panda%NULL%2,           Sadhu%Panda%NULL%0,           Ebrahim%Khajeh%NULL%1,           Alexandra%Halalau%alexandra.halalau@beaumont.edu%2,           Alexandra%Halalau%alexandra.halalau@beaumont.edu%0,           Jeffrey%Ditkoff%NULL%2,           Jeffrey%Ditkoff%NULL%0,           Jessica%Hamilton%NULL%2,           Jessica%Hamilton%NULL%0,           Aryana%Sharrak%NULL%2,           Aryana%Sharrak%NULL%0,           Aimen%Vanood%NULL%2,           Aimen%Vanood%NULL%0,           Amr%Abbas%NULL%2,           Amr%Abbas%NULL%0,           James%Ziadeh%NULL%2,           James%Ziadeh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sang Il%Kim%NULL%1,           Ji Yong%Lee%NULL%2,           Ji Yong%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Katherine%Hill%xref no email%1,    Robyn%Campbell%xref no email%1,    Callum%Mutch%xref no email%1,    Oliver%Koch%xref no email%1,    Claire%Mackintosh%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ki Tae%Kwon%NULL%1,           Jae-Hoon%Ko%NULL%2,           Jae-Hoon%Ko%NULL%0,           Heejun%Shin%NULL%2,           Heejun%Shin%NULL%0,           Minki%Sung%NULL%2,           Minki%Sung%NULL%0,           Jin Yong%Kim%NULL%4,           Jin Yong%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Elly%Lee%NULL%1,           Nurul Yaqeen%Mohd Esa%NULL%1,           Tong Ming%Wee%NULL%1,           Chun Ian%Soo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yong Shik%Kwon%NULL%1,           Sun Hyo%Park%NULL%2,           Sun Hyo%Park%NULL%0,           Hyun Jung%Kim%NULL%2,           Hyun Jung%Kim%NULL%0,           Ji Yeon%Lee%NULL%0,           Ji Yeon%Lee%NULL%0,           Mi-ri%Hyun%NULL%2,           Mi-ri%Hyun%NULL%0,           Hyun ah%Kim%NULL%2,           Hyun ah%Kim%NULL%0,           Jae Seok%Park%NULL%0,           Jae Seok%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po-Ting%Lin%NULL%1,           Ting-Yuan%Ni%NULL%1,           Tren-Yi%Chen%NULL%1,           Chih-Pei%Su%NULL%1,           Hsiao-Fen%Sun%NULL%1,           Mu-Kuan%Chen%NULL%1,           Chu-Chung%Chou%NULL%1,           Po-Yu%Wang%NULL%1,           Yan-Ren%Lin%H6213.lac@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[David A%Lindholm%david.a.lindholm4.mil@mail.mil%1,           John L%Kiley%NULL%2,           John L%Kiley%NULL%0,           Nathan K%Jansen%NULL%1,           Robert T%Hoard%NULL%1,           Matthew R%Bondaryk%NULL%1,           Elizabeth M%Stanley%NULL%1,           Gadiel R%Alvarado%NULL%1,           Ana E%Markelz%NULL%1,           Robert J%Cybulski%NULL%1,           Jason F%Okulicz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Charmaine Malenab%Manauis%NULL%1,           Marvin%Loh%marvin.loh@mohh.com.sg%1,           James%Kwan%NULL%1,           John%Chua Mingzhou%NULL%1,           Han Jie%Teo%NULL%1,           David%Teng Kuan Peng%NULL%1,           Shawn%Vasoo Sushilan%NULL%1,           Yee Sin%Leo%NULL%1,           Ang%Hou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rivkees%Scott A.%coreGivesNoEmail%1,          Roberson%Shamarial%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Eunhye%Seo%NULL%1,           Eunchan%Mun%NULL%2,           Eunchan%Mun%NULL%0,           Wonsool%Kim%NULL%2,           Wonsool%Kim%NULL%0,           Changhwan%Lee%NULL%2,           Changhwan%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aditya%Shah%shah.aditya@mayo.edu%1,           Douglas%Challener%NULL%1,           Aaron J.%Tande%NULL%1,           Maryam%Mahmood%NULL%1,           John C.%O’Horo%NULL%1,           Elie%Berbari%NULL%1,           Sarah J.%Crane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angie N.%Ton%NULL%1,           Tarang%Jethwa%NULL%1,           Karen%Waters%NULL%2,           Karen%Waters%NULL%0,           Leigh L.%Speicher%NULL%2,           Leigh L.%Speicher%NULL%0,           Dawn%Francis%NULL%2,           Dawn%Francis%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kate%Mark%NULL%1,           Katie%Steel%NULL%1,           Janet%Stevenson%NULL%1,           Christine%Evans%NULL%1,           Duncan%McCormick%NULL%1,           Lorna%Willocks%NULL%1,           Alison%McCallum%NULL%1,           Laura%Jones%NULL%1,           Ingolfur%Johannessen%NULL%1,           Kate%Templeton%NULL%1,           Oliver%Koch%NULL%0,           Claire%Mackintosh%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1367,7 +1487,7 @@
         <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -1396,7 +1516,7 @@
         <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="F3" t="s">
         <v>45</v>
@@ -1425,7 +1545,7 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -1454,7 +1574,7 @@
         <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
@@ -1483,7 +1603,7 @@
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>277</v>
+        <v>317</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
@@ -1512,7 +1632,7 @@
         <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="F7" t="s">
         <v>64</v>
@@ -1541,7 +1661,7 @@
         <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="F8" t="s">
         <v>69</v>
@@ -1599,7 +1719,7 @@
         <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="F10" t="s">
         <v>79</v>
@@ -1628,7 +1748,7 @@
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1657,7 +1777,7 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -1686,7 +1806,7 @@
         <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="F13" t="s">
         <v>90</v>
@@ -1715,7 +1835,7 @@
         <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="F14" t="s">
         <v>95</v>
@@ -1744,7 +1864,7 @@
         <v>98</v>
       </c>
       <c r="E15" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
       <c r="F15" t="s">
         <v>100</v>
@@ -1773,7 +1893,7 @@
         <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="F16" t="s">
         <v>105</v>
@@ -1802,7 +1922,7 @@
         <v>108</v>
       </c>
       <c r="E17" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="F17" t="s">
         <v>110</v>
@@ -1831,7 +1951,7 @@
         <v>144</v>
       </c>
       <c r="E18" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="F18" t="s">
         <v>20</v>
@@ -1860,7 +1980,7 @@
         <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>289</v>
+        <v>329</v>
       </c>
       <c r="F19" t="s">
         <v>115</v>
@@ -1889,7 +2009,7 @@
         <v>118</v>
       </c>
       <c r="E20" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="F20" t="s">
         <v>120</v>
@@ -1918,7 +2038,7 @@
         <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="F21" t="s">
         <v>123</v>
@@ -1947,7 +2067,7 @@
         <v>125</v>
       </c>
       <c r="E22" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="F22" t="s">
         <v>127</v>

--- a/Covid_19_Dataset_and_References/References/63.xlsx
+++ b/Covid_19_Dataset_and_References/References/63.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="375">
   <si>
     <t>Doi</t>
   </si>
@@ -1133,6 +1133,162 @@
   </si>
   <si>
     <t>[Kate%Mark%NULL%1,           Katie%Steel%NULL%1,           Janet%Stevenson%NULL%1,           Christine%Evans%NULL%1,           Duncan%McCormick%NULL%1,           Lorna%Willocks%NULL%1,           Alison%McCallum%NULL%1,           Laura%Jones%NULL%1,           Ingolfur%Johannessen%NULL%1,           Kate%Templeton%NULL%1,           Oliver%Koch%NULL%0,           Claire%Mackintosh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Craig%Brammer%NULL%1,            Stacy%Donohue%NULL%1,            Timothy%Elwell%NULL%1,            Eliza%Fishbein%NULL%1,            D'Ante%Forschino%NULL%1,            Dorothy%Horne%NULL%1,            Buffy%Lloyd-Krejci%NULL%1,            Jessica%Little%NULL%1,            Bistra%Nikiforova%NULL%1,            Elizabeth%Winterbauer%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Early in the pandemic, inadequate SARS-CoV-2 testing limited understanding of transmission.
+ Chief among barriers to large-scale testing was unknown feasibility, particularly in non-urban areas.
+ Our objective was to report methods of high-volume, comprehensive SARS-CoV-2 testing, offering one model to augment disease surveillance in a rural community.
+Methods
+A community-university partnership created an operational site used to test most residents of Bolinas, California regardless of symptoms in 4 days (April 20th – April 23rd, 2020).
+ Prior to testing, key preparatory elements included community mobilization, pre-registration, volunteer recruitment, and data management.
+ On day of testing, participants were directed to a testing lane after site entry.
+ An administrator viewed the lane-specific queue and pre-prepared test kits, linked to participants’ records.
+ Medical personnel performed sample collection, which included finger prick with blood collection to run laboratory-based antibody testing and respiratory specimen collection for polymerase chain reaction (PCR).
+Results
+Using this 4-lane model, 1,840 participants were tested in 4 days.
+ A median of 57 participants (IQR 47–67) were tested hourly.
+ The fewest participants were tested on day 1 (n = 338 participants), an intentionally lower volume day, increasing to n = 571 participants on day 4. The number of testing teams was also increased to two per lane to allow simultaneous testing of multiple participants on days 2–4. Consistent staffing on all days helped optimize proficiency, and strong community partnership was essential from planning through execution.
+Conclusions
+High-volume ascertainment of SARS-CoV-2 prevalence by PCR and antibody testing was feasible when conducted in a community-led, drive-through model in a non-urban area.
+Supplementary Information
+The online version contains supplementary material available at 10.1186/s13690-021-00647-8.
+</t>
+  </si>
+  <si>
+    <t>[Ayesha%Appa%Ayesha.appa@ucsf.edu%1,            Gabriel%Chamie%NULL%1,            Aenor%Sawyer%NULL%1,            Kimberly%Baltzell%NULL%1,            Kathryn%Dippell%NULL%1,            Salu%Ribeiro%NULL%1,            Elias%Duarte%NULL%1,            Joanna%Vinden%NULL%1,            CLIAHUB%Consortium%NULL%1,            Jonathan%Kramer-Feldman%NULL%1,            Shahryar%Rahdari%NULL%1,            Doug%MacIntosh%NULL%1,            Katherine%Nicholson%NULL%1,            Jonathan%Im%NULL%1,            Diane%Havlir%NULL%1,            Bryan%Greenhouse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min Cheol%Chang%NULL%1,            Wan-Seok%Seo%NULL%1,            Donghwi%Park%NULL%1,            Jian%Hur%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marci L.%Drees%NULL%1,            Mia A.%Papas%NULL%1,            Terri E.%Corbo%NULL%1,            Kimberly D.%Williams%NULL%1,            Sharon T.%Kurfuerst%NULL%2,            Sharon T.%Kurfuerst%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Erin F.%Flynn%flynne@email.chop.edu%1,            Elizabeth%Kuhn%NULL%1,            Mohammed%Shaik%NULL%1,            Elizabeth%Tarr%NULL%1,            Nicole%Scattolini%NULL%1,            Allison%Ballantine%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Scott A.%Goldberg%NULL%1,            Robert A.%Bonacci%NULL%1,            Lucas C.%Carlson%NULL%1,            Charles T.%Pu%NULL%1,            Christine S.%Ritchie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%0,            Sadhu%Panda%NULL%2,            Sadhu%Panda%NULL%0,            Ebrahim%Khajeh%NULL%1,            Alexandra%Halalau%alexandra.halalau@beaumont.edu%2,            Alexandra%Halalau%alexandra.halalau@beaumont.edu%0,            Jeffrey%Ditkoff%NULL%2,            Jeffrey%Ditkoff%NULL%0,            Jessica%Hamilton%NULL%2,            Jessica%Hamilton%NULL%0,            Aryana%Sharrak%NULL%2,            Aryana%Sharrak%NULL%0,            Aimen%Vanood%NULL%2,            Aimen%Vanood%NULL%0,            Amr%Abbas%NULL%2,            Amr%Abbas%NULL%0,            James%Ziadeh%NULL%2,            James%Ziadeh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sang Il%Kim%NULL%1,            Ji Yong%Lee%NULL%2,            Ji Yong%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Katherine%Hill%xref no email%1,     Robyn%Campbell%xref no email%1,     Callum%Mutch%xref no email%1,     Oliver%Koch%xref no email%1,     Claire%Mackintosh%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ki Tae%Kwon%NULL%1,            Jae-Hoon%Ko%NULL%2,            Jae-Hoon%Ko%NULL%0,            Heejun%Shin%NULL%2,            Heejun%Shin%NULL%0,            Minki%Sung%NULL%2,            Minki%Sung%NULL%0,            Jin Yong%Kim%NULL%4,            Jin Yong%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Elly%Lee%NULL%1,            Nurul Yaqeen%Mohd Esa%NULL%1,            Tong Ming%Wee%NULL%1,            Chun Ian%Soo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yong Shik%Kwon%NULL%1,            Sun Hyo%Park%NULL%2,            Sun Hyo%Park%NULL%0,            Hyun Jung%Kim%NULL%2,            Hyun Jung%Kim%NULL%0,            Ji Yeon%Lee%NULL%0,            Ji Yeon%Lee%NULL%0,            Mi-ri%Hyun%NULL%2,            Mi-ri%Hyun%NULL%0,            Hyun ah%Kim%NULL%2,            Hyun ah%Kim%NULL%0,            Jae Seok%Park%NULL%0,            Jae Seok%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>In Taiwan, high-risk patients have been identified and tested for preventing community spread of COVID-19. Most sample collection was performed in emergency departments (EDs).
+ Traditional sample collection requires substantial personal protective equipment (PPE), healthcare professionals, sanitation workers, and isolation space.
+ To solve this problem, we established a multifunctional sample collection station (MSCS) for COVID-19 testing in front of our ED.
+ The station is composed of a thick and clear acrylic board (2 cm), which completely separates the patient and medical personnel.
+ Three pairs of gloves (length, 45 cm) are attached and fixed on the outside wall of the MSCS.
+ The gloves are used to conduct sampling of throat/nasal swabs, sputum, and blood from patients.
+ The gap between the board and the building is only 0.2 cm (sealed with silicone sealant).
+ ED personnel communicate with patients using a small two-way broadcast system.
+ Medical waste is put in specific trashcans installed in the table outside the MSCS.
+ With full physical protection, the personnel conducting the sampling procedure need to wear only their N95 mask and gloves.
+ After we activated the station, our PPE, sampling time, and sanitization resources were considerably conserved during the 4-week observation period.
+ The MSCS obviously saved time and PPE.
+ It elevated the efficiency and capacity of the ED for handling potential community infections of COVID-19.</t>
+  </si>
+  <si>
+    <t>[Po-Ting%Lin%NULL%1,            Ting-Yuan%Ni%NULL%1,            Tren-Yi%Chen%NULL%1,            Chih-Pei%Su%NULL%1,            Hsiao-Fen%Sun%NULL%1,            Mu-Kuan%Chen%NULL%1,            Chu-Chung%Chou%NULL%1,            Po-Yu%Wang%NULL%1,            Yan-Ren%Lin%H6213.lac@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[David A%Lindholm%david.a.lindholm4.mil@mail.mil%1,            John L%Kiley%NULL%2,            John L%Kiley%NULL%0,            Nathan K%Jansen%NULL%1,            Robert T%Hoard%NULL%1,            Matthew R%Bondaryk%NULL%1,            Elizabeth M%Stanley%NULL%1,            Gadiel R%Alvarado%NULL%1,            Ana E%Markelz%NULL%1,            Robert J%Cybulski%NULL%1,            Jason F%Okulicz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Charmaine Malenab%Manauis%NULL%1,            Marvin%Loh%marvin.loh@mohh.com.sg%1,            James%Kwan%NULL%1,            John%Chua Mingzhou%NULL%1,            Han Jie%Teo%NULL%1,            David%Teng Kuan Peng%NULL%1,            Shawn%Vasoo Sushilan%NULL%1,            Yee Sin%Leo%NULL%1,            Ang%Hou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rivkees%Scott A.%coreGivesNoEmail%1,           Roberson%Shamarial%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Eunhye%Seo%NULL%1,            Eunchan%Mun%NULL%2,            Eunchan%Mun%NULL%0,            Wonsool%Kim%NULL%2,            Wonsool%Kim%NULL%0,            Changhwan%Lee%NULL%2,            Changhwan%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aditya%Shah%shah.aditya@mayo.edu%1,            Douglas%Challener%NULL%1,            Aaron J.%Tande%NULL%1,            Maryam%Mahmood%NULL%1,            John C.%O’Horo%NULL%1,            Elie%Berbari%NULL%1,            Sarah J.%Crane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angie N.%Ton%NULL%1,            Tarang%Jethwa%NULL%1,            Karen%Waters%NULL%2,            Karen%Waters%NULL%0,            Leigh L.%Speicher%NULL%2,            Leigh L.%Speicher%NULL%0,            Dawn%Francis%NULL%2,            Dawn%Francis%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kate%Mark%NULL%1,            Katie%Steel%NULL%1,            Janet%Stevenson%NULL%1,            Christine%Evans%NULL%1,            Duncan%McCormick%NULL%1,            Lorna%Willocks%NULL%1,            Alison%McCallum%NULL%1,            Laura%Jones%NULL%1,            Ingolfur%Johannessen%NULL%1,            Kate%Templeton%NULL%1,            Oliver%Koch%NULL%0,            Claire%Mackintosh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Craig%Brammer%NULL%1,             Stacy%Donohue%NULL%1,             Timothy%Elwell%NULL%1,             Eliza%Fishbein%NULL%1,             D'Ante%Forschino%NULL%1,             Dorothy%Horne%NULL%1,             Buffy%Lloyd-Krejci%NULL%1,             Jessica%Little%NULL%1,             Bistra%Nikiforova%NULL%1,             Elizabeth%Winterbauer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ayesha%Appa%Ayesha.appa@ucsf.edu%1,             Gabriel%Chamie%NULL%1,             Aenor%Sawyer%NULL%1,             Kimberly%Baltzell%NULL%1,             Kathryn%Dippell%NULL%1,             Salu%Ribeiro%NULL%1,             Elias%Duarte%NULL%1,             Joanna%Vinden%NULL%1,             CLIAHUB%Consortium%NULL%1,             Jonathan%Kramer-Feldman%NULL%1,             Shahryar%Rahdari%NULL%1,             Doug%MacIntosh%NULL%1,             Katherine%Nicholson%NULL%1,             Jonathan%Im%NULL%1,             Diane%Havlir%NULL%1,             Bryan%Greenhouse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min Cheol%Chang%NULL%1,             Wan-Seok%Seo%NULL%1,             Donghwi%Park%NULL%1,             Jian%Hur%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marci L.%Drees%NULL%1,             Mia A.%Papas%NULL%1,             Terri E.%Corbo%NULL%1,             Kimberly D.%Williams%NULL%1,             Sharon T.%Kurfuerst%NULL%2,             Sharon T.%Kurfuerst%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Erin F.%Flynn%flynne@email.chop.edu%1,             Elizabeth%Kuhn%NULL%1,             Mohammed%Shaik%NULL%1,             Elizabeth%Tarr%NULL%1,             Nicole%Scattolini%NULL%1,             Allison%Ballantine%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Scott A.%Goldberg%NULL%1,             Robert A.%Bonacci%NULL%1,             Lucas C.%Carlson%NULL%1,             Charles T.%Pu%NULL%1,             Christine S.%Ritchie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%0,             Sadhu%Panda%NULL%2,             Sadhu%Panda%NULL%0,             Ebrahim%Khajeh%NULL%1,             Alexandra%Halalau%alexandra.halalau@beaumont.edu%2,             Alexandra%Halalau%alexandra.halalau@beaumont.edu%0,             Jeffrey%Ditkoff%NULL%2,             Jeffrey%Ditkoff%NULL%0,             Jessica%Hamilton%NULL%2,             Jessica%Hamilton%NULL%0,             Aryana%Sharrak%NULL%2,             Aryana%Sharrak%NULL%0,             Aimen%Vanood%NULL%2,             Aimen%Vanood%NULL%0,             Amr%Abbas%NULL%2,             Amr%Abbas%NULL%0,             James%Ziadeh%NULL%2,             James%Ziadeh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sang Il%Kim%NULL%1,             Ji Yong%Lee%NULL%2,             Ji Yong%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Katherine%Hill%xref no email%1,      Robyn%Campbell%xref no email%1,      Callum%Mutch%xref no email%1,      Oliver%Koch%xref no email%1,      Claire%Mackintosh%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ki Tae%Kwon%NULL%1,             Jae-Hoon%Ko%NULL%2,             Jae-Hoon%Ko%NULL%0,             Heejun%Shin%NULL%2,             Heejun%Shin%NULL%0,             Minki%Sung%NULL%2,             Minki%Sung%NULL%0,             Jin Yong%Kim%NULL%4,             Jin Yong%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Elly%Lee%NULL%1,             Nurul Yaqeen%Mohd Esa%NULL%1,             Tong Ming%Wee%NULL%1,             Chun Ian%Soo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yong Shik%Kwon%NULL%1,             Sun Hyo%Park%NULL%2,             Sun Hyo%Park%NULL%0,             Hyun Jung%Kim%NULL%2,             Hyun Jung%Kim%NULL%0,             Ji Yeon%Lee%NULL%0,             Ji Yeon%Lee%NULL%0,             Mi-ri%Hyun%NULL%2,             Mi-ri%Hyun%NULL%0,             Hyun ah%Kim%NULL%2,             Hyun ah%Kim%NULL%0,             Jae Seok%Park%NULL%0,             Jae Seok%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po-Ting%Lin%NULL%1,             Ting-Yuan%Ni%NULL%1,             Tren-Yi%Chen%NULL%1,             Chih-Pei%Su%NULL%1,             Hsiao-Fen%Sun%NULL%1,             Mu-Kuan%Chen%NULL%1,             Chu-Chung%Chou%NULL%1,             Po-Yu%Wang%NULL%1,             Yan-Ren%Lin%H6213.lac@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[David A%Lindholm%david.a.lindholm4.mil@mail.mil%1,             John L%Kiley%NULL%2,             John L%Kiley%NULL%0,             Nathan K%Jansen%NULL%1,             Robert T%Hoard%NULL%1,             Matthew R%Bondaryk%NULL%1,             Elizabeth M%Stanley%NULL%1,             Gadiel R%Alvarado%NULL%1,             Ana E%Markelz%NULL%1,             Robert J%Cybulski%NULL%1,             Jason F%Okulicz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Charmaine Malenab%Manauis%NULL%1,             Marvin%Loh%marvin.loh@mohh.com.sg%1,             James%Kwan%NULL%1,             John%Chua Mingzhou%NULL%1,             Han Jie%Teo%NULL%1,             David%Teng Kuan Peng%NULL%1,             Shawn%Vasoo Sushilan%NULL%1,             Yee Sin%Leo%NULL%1,             Ang%Hou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rivkees%Scott A.%coreGivesNoEmail%1,            Roberson%Shamarial%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Eunhye%Seo%NULL%1,             Eunchan%Mun%NULL%2,             Eunchan%Mun%NULL%0,             Wonsool%Kim%NULL%2,             Wonsool%Kim%NULL%0,             Changhwan%Lee%NULL%2,             Changhwan%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aditya%Shah%shah.aditya@mayo.edu%1,             Douglas%Challener%NULL%1,             Aaron J.%Tande%NULL%1,             Maryam%Mahmood%NULL%1,             John C.%O’Horo%NULL%1,             Elie%Berbari%NULL%1,             Sarah J.%Crane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angie N.%Ton%NULL%1,             Tarang%Jethwa%NULL%1,             Karen%Waters%NULL%2,             Karen%Waters%NULL%0,             Leigh L.%Speicher%NULL%2,             Leigh L.%Speicher%NULL%0,             Dawn%Francis%NULL%2,             Dawn%Francis%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kate%Mark%NULL%1,             Katie%Steel%NULL%1,             Janet%Stevenson%NULL%1,             Christine%Evans%NULL%1,             Duncan%McCormick%NULL%1,             Lorna%Willocks%NULL%1,             Alison%McCallum%NULL%1,             Laura%Jones%NULL%1,             Ingolfur%Johannessen%NULL%1,             Kate%Templeton%NULL%1,             Oliver%Koch%NULL%0,             Claire%Mackintosh%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1487,7 +1643,7 @@
         <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -1513,10 +1669,10 @@
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>334</v>
       </c>
       <c r="E3" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="F3" t="s">
         <v>45</v>
@@ -1545,7 +1701,7 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>315</v>
+        <v>357</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -1574,7 +1730,7 @@
         <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
@@ -1603,7 +1759,7 @@
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
@@ -1632,7 +1788,7 @@
         <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="F7" t="s">
         <v>64</v>
@@ -1661,7 +1817,7 @@
         <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="F8" t="s">
         <v>69</v>
@@ -1719,7 +1875,7 @@
         <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="F10" t="s">
         <v>79</v>
@@ -1748,7 +1904,7 @@
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1777,7 +1933,7 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>322</v>
+        <v>364</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -1806,7 +1962,7 @@
         <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="F13" t="s">
         <v>90</v>
@@ -1835,7 +1991,7 @@
         <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="F14" t="s">
         <v>95</v>
@@ -1861,10 +2017,10 @@
         <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>346</v>
       </c>
       <c r="E15" t="s">
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="F15" t="s">
         <v>100</v>
@@ -1893,7 +2049,7 @@
         <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
       <c r="F16" t="s">
         <v>105</v>
@@ -1922,7 +2078,7 @@
         <v>108</v>
       </c>
       <c r="E17" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="F17" t="s">
         <v>110</v>
@@ -1951,7 +2107,7 @@
         <v>144</v>
       </c>
       <c r="E18" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="F18" t="s">
         <v>20</v>
@@ -1980,7 +2136,7 @@
         <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="F19" t="s">
         <v>115</v>
@@ -2009,7 +2165,7 @@
         <v>118</v>
       </c>
       <c r="E20" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="F20" t="s">
         <v>120</v>
@@ -2038,7 +2194,7 @@
         <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="F21" t="s">
         <v>123</v>
@@ -2067,7 +2223,7 @@
         <v>125</v>
       </c>
       <c r="E22" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="F22" t="s">
         <v>127</v>

--- a/Covid_19_Dataset_and_References/References/63.xlsx
+++ b/Covid_19_Dataset_and_References/References/63.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="395">
   <si>
     <t>Doi</t>
   </si>
@@ -1289,6 +1289,66 @@
   </si>
   <si>
     <t>[Kate%Mark%NULL%1,             Katie%Steel%NULL%1,             Janet%Stevenson%NULL%1,             Christine%Evans%NULL%1,             Duncan%McCormick%NULL%1,             Lorna%Willocks%NULL%1,             Alison%McCallum%NULL%1,             Laura%Jones%NULL%1,             Ingolfur%Johannessen%NULL%1,             Kate%Templeton%NULL%1,             Oliver%Koch%NULL%0,             Claire%Mackintosh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Craig%Brammer%NULL%1,              Stacy%Donohue%NULL%1,              Timothy%Elwell%NULL%1,              Eliza%Fishbein%NULL%1,              D'Ante%Forschino%NULL%1,              Dorothy%Horne%NULL%1,              Buffy%Lloyd-Krejci%NULL%1,              Jessica%Little%NULL%1,              Bistra%Nikiforova%NULL%1,              Elizabeth%Winterbauer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ayesha%Appa%Ayesha.appa@ucsf.edu%1,              Gabriel%Chamie%NULL%1,              Aenor%Sawyer%NULL%1,              Kimberly%Baltzell%NULL%1,              Kathryn%Dippell%NULL%1,              Salu%Ribeiro%NULL%1,              Elias%Duarte%NULL%1,              Joanna%Vinden%NULL%1,              CLIAHUB%Consortium%NULL%1,              Jonathan%Kramer-Feldman%NULL%1,              Shahryar%Rahdari%NULL%1,              Doug%MacIntosh%NULL%1,              Katherine%Nicholson%NULL%1,              Jonathan%Im%NULL%1,              Diane%Havlir%NULL%1,              Bryan%Greenhouse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min Cheol%Chang%NULL%1,              Wan-Seok%Seo%NULL%1,              Donghwi%Park%NULL%1,              Jian%Hur%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marci L.%Drees%NULL%1,              Mia A.%Papas%NULL%1,              Terri E.%Corbo%NULL%1,              Kimberly D.%Williams%NULL%1,              Sharon T.%Kurfuerst%NULL%2,              Sharon T.%Kurfuerst%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Erin F.%Flynn%flynne@email.chop.edu%1,              Elizabeth%Kuhn%NULL%1,              Mohammed%Shaik%NULL%1,              Elizabeth%Tarr%NULL%1,              Nicole%Scattolini%NULL%1,              Allison%Ballantine%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Scott A.%Goldberg%NULL%1,              Robert A.%Bonacci%NULL%1,              Lucas C.%Carlson%NULL%1,              Charles T.%Pu%NULL%1,              Christine S.%Ritchie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%0,              Sadhu%Panda%NULL%2,              Sadhu%Panda%NULL%0,              Ebrahim%Khajeh%NULL%1,              Alexandra%Halalau%alexandra.halalau@beaumont.edu%2,              Alexandra%Halalau%alexandra.halalau@beaumont.edu%0,              Jeffrey%Ditkoff%NULL%2,              Jeffrey%Ditkoff%NULL%0,              Jessica%Hamilton%NULL%2,              Jessica%Hamilton%NULL%0,              Aryana%Sharrak%NULL%2,              Aryana%Sharrak%NULL%0,              Aimen%Vanood%NULL%2,              Aimen%Vanood%NULL%0,              Amr%Abbas%NULL%2,              Amr%Abbas%NULL%0,              James%Ziadeh%NULL%2,              James%Ziadeh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sang Il%Kim%NULL%1,              Ji Yong%Lee%NULL%2,              Ji Yong%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Katherine%Hill%xref no email%1,       Robyn%Campbell%xref no email%1,       Callum%Mutch%xref no email%1,       Oliver%Koch%xref no email%1,       Claire%Mackintosh%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ki Tae%Kwon%NULL%1,              Jae-Hoon%Ko%NULL%2,              Jae-Hoon%Ko%NULL%0,              Heejun%Shin%NULL%2,              Heejun%Shin%NULL%0,              Minki%Sung%NULL%2,              Minki%Sung%NULL%0,              Jin Yong%Kim%NULL%4,              Jin Yong%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Elly%Lee%NULL%1,              Nurul Yaqeen%Mohd Esa%NULL%1,              Tong Ming%Wee%NULL%1,              Chun Ian%Soo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yong Shik%Kwon%NULL%1,              Sun Hyo%Park%NULL%2,              Sun Hyo%Park%NULL%0,              Hyun Jung%Kim%NULL%2,              Hyun Jung%Kim%NULL%0,              Ji Yeon%Lee%NULL%0,              Ji Yeon%Lee%NULL%0,              Mi-ri%Hyun%NULL%2,              Mi-ri%Hyun%NULL%0,              Hyun ah%Kim%NULL%2,              Hyun ah%Kim%NULL%0,              Jae Seok%Park%NULL%0,              Jae Seok%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po-Ting%Lin%NULL%1,              Ting-Yuan%Ni%NULL%1,              Tren-Yi%Chen%NULL%1,              Chih-Pei%Su%NULL%1,              Hsiao-Fen%Sun%NULL%1,              Mu-Kuan%Chen%NULL%1,              Chu-Chung%Chou%NULL%1,              Po-Yu%Wang%NULL%1,              Yan-Ren%Lin%H6213.lac@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[David A%Lindholm%david.a.lindholm4.mil@mail.mil%1,              John L%Kiley%NULL%2,              John L%Kiley%NULL%0,              Nathan K%Jansen%NULL%1,              Robert T%Hoard%NULL%1,              Matthew R%Bondaryk%NULL%1,              Elizabeth M%Stanley%NULL%1,              Gadiel R%Alvarado%NULL%1,              Ana E%Markelz%NULL%1,              Robert J%Cybulski%NULL%1,              Jason F%Okulicz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Charmaine Malenab%Manauis%NULL%1,              Marvin%Loh%marvin.loh@mohh.com.sg%1,              James%Kwan%NULL%1,              John%Chua Mingzhou%NULL%1,              Han Jie%Teo%NULL%1,              David%Teng Kuan Peng%NULL%1,              Shawn%Vasoo Sushilan%NULL%1,              Yee Sin%Leo%NULL%1,              Ang%Hou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rivkees%Scott A.%coreGivesNoEmail%1,             Roberson%Shamarial%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Eunhye%Seo%NULL%1,              Eunchan%Mun%NULL%2,              Eunchan%Mun%NULL%0,              Wonsool%Kim%NULL%2,              Wonsool%Kim%NULL%0,              Changhwan%Lee%NULL%2,              Changhwan%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aditya%Shah%shah.aditya@mayo.edu%1,              Douglas%Challener%NULL%1,              Aaron J.%Tande%NULL%1,              Maryam%Mahmood%NULL%1,              John C.%O’Horo%NULL%1,              Elie%Berbari%NULL%1,              Sarah J.%Crane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angie N.%Ton%NULL%1,              Tarang%Jethwa%NULL%1,              Karen%Waters%NULL%2,              Karen%Waters%NULL%0,              Leigh L.%Speicher%NULL%2,              Leigh L.%Speicher%NULL%0,              Dawn%Francis%NULL%2,              Dawn%Francis%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kate%Mark%NULL%1,              Katie%Steel%NULL%1,              Janet%Stevenson%NULL%1,              Christine%Evans%NULL%1,              Duncan%McCormick%NULL%1,              Lorna%Willocks%NULL%1,              Alison%McCallum%NULL%1,              Laura%Jones%NULL%1,              Ingolfur%Johannessen%NULL%1,              Kate%Templeton%NULL%1,              Oliver%Koch%NULL%0,              Claire%Mackintosh%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1643,7 +1703,7 @@
         <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -1672,7 +1732,7 @@
         <v>334</v>
       </c>
       <c r="E3" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="F3" t="s">
         <v>45</v>
@@ -1701,7 +1761,7 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -1730,7 +1790,7 @@
         <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
@@ -1759,7 +1819,7 @@
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
@@ -1788,7 +1848,7 @@
         <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="F7" t="s">
         <v>64</v>
@@ -1817,7 +1877,7 @@
         <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="F8" t="s">
         <v>69</v>
@@ -1875,7 +1935,7 @@
         <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="F10" t="s">
         <v>79</v>
@@ -1904,7 +1964,7 @@
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1933,7 +1993,7 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -1962,7 +2022,7 @@
         <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="F13" t="s">
         <v>90</v>
@@ -1991,7 +2051,7 @@
         <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="F14" t="s">
         <v>95</v>
@@ -2020,7 +2080,7 @@
         <v>346</v>
       </c>
       <c r="E15" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="F15" t="s">
         <v>100</v>
@@ -2049,7 +2109,7 @@
         <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="F16" t="s">
         <v>105</v>
@@ -2078,7 +2138,7 @@
         <v>108</v>
       </c>
       <c r="E17" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="F17" t="s">
         <v>110</v>
@@ -2107,7 +2167,7 @@
         <v>144</v>
       </c>
       <c r="E18" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="F18" t="s">
         <v>20</v>
@@ -2136,7 +2196,7 @@
         <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="F19" t="s">
         <v>115</v>
@@ -2165,7 +2225,7 @@
         <v>118</v>
       </c>
       <c r="E20" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="F20" t="s">
         <v>120</v>
@@ -2194,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="F21" t="s">
         <v>123</v>
@@ -2223,7 +2283,7 @@
         <v>125</v>
       </c>
       <c r="E22" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="F22" t="s">
         <v>127</v>

--- a/Covid_19_Dataset_and_References/References/63.xlsx
+++ b/Covid_19_Dataset_and_References/References/63.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2467" uniqueCount="415">
   <si>
     <t>Doi</t>
   </si>
@@ -1349,6 +1349,66 @@
   </si>
   <si>
     <t>[Kate%Mark%NULL%1,              Katie%Steel%NULL%1,              Janet%Stevenson%NULL%1,              Christine%Evans%NULL%1,              Duncan%McCormick%NULL%1,              Lorna%Willocks%NULL%1,              Alison%McCallum%NULL%1,              Laura%Jones%NULL%1,              Ingolfur%Johannessen%NULL%1,              Kate%Templeton%NULL%1,              Oliver%Koch%NULL%0,              Claire%Mackintosh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Craig%Brammer%NULL%1,               Stacy%Donohue%NULL%1,               Timothy%Elwell%NULL%1,               Eliza%Fishbein%NULL%1,               D'Ante%Forschino%NULL%1,               Dorothy%Horne%NULL%1,               Buffy%Lloyd-Krejci%NULL%1,               Jessica%Little%NULL%1,               Bistra%Nikiforova%NULL%1,               Elizabeth%Winterbauer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ayesha%Appa%Ayesha.appa@ucsf.edu%1,               Gabriel%Chamie%NULL%1,               Aenor%Sawyer%NULL%1,               Kimberly%Baltzell%NULL%1,               Kathryn%Dippell%NULL%1,               Salu%Ribeiro%NULL%1,               Elias%Duarte%NULL%1,               Joanna%Vinden%NULL%1,               CLIAHUB%Consortium%NULL%1,               Jonathan%Kramer-Feldman%NULL%1,               Shahryar%Rahdari%NULL%1,               Doug%MacIntosh%NULL%1,               Katherine%Nicholson%NULL%1,               Jonathan%Im%NULL%1,               Diane%Havlir%NULL%1,               Bryan%Greenhouse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min Cheol%Chang%NULL%1,               Wan-Seok%Seo%NULL%1,               Donghwi%Park%NULL%1,               Jian%Hur%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marci L.%Drees%NULL%1,               Mia A.%Papas%NULL%1,               Terri E.%Corbo%NULL%1,               Kimberly D.%Williams%NULL%1,               Sharon T.%Kurfuerst%NULL%2,               Sharon T.%Kurfuerst%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Erin F.%Flynn%flynne@email.chop.edu%1,               Elizabeth%Kuhn%NULL%1,               Mohammed%Shaik%NULL%1,               Elizabeth%Tarr%NULL%1,               Nicole%Scattolini%NULL%1,               Allison%Ballantine%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Scott A.%Goldberg%NULL%1,               Robert A.%Bonacci%NULL%1,               Lucas C.%Carlson%NULL%1,               Charles T.%Pu%NULL%1,               Christine S.%Ritchie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%0,               Sadhu%Panda%NULL%2,               Sadhu%Panda%NULL%0,               Ebrahim%Khajeh%NULL%1,               Alexandra%Halalau%alexandra.halalau@beaumont.edu%2,               Alexandra%Halalau%alexandra.halalau@beaumont.edu%0,               Jeffrey%Ditkoff%NULL%2,               Jeffrey%Ditkoff%NULL%0,               Jessica%Hamilton%NULL%2,               Jessica%Hamilton%NULL%0,               Aryana%Sharrak%NULL%2,               Aryana%Sharrak%NULL%0,               Aimen%Vanood%NULL%2,               Aimen%Vanood%NULL%0,               Amr%Abbas%NULL%2,               Amr%Abbas%NULL%0,               James%Ziadeh%NULL%2,               James%Ziadeh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sang Il%Kim%NULL%1,               Ji Yong%Lee%NULL%2,               Ji Yong%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Katherine%Hill%xref no email%1,        Robyn%Campbell%xref no email%1,        Callum%Mutch%xref no email%1,        Oliver%Koch%xref no email%1,        Claire%Mackintosh%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ki Tae%Kwon%NULL%1,               Jae-Hoon%Ko%NULL%2,               Jae-Hoon%Ko%NULL%0,               Heejun%Shin%NULL%2,               Heejun%Shin%NULL%0,               Minki%Sung%NULL%2,               Minki%Sung%NULL%0,               Jin Yong%Kim%NULL%4,               Jin Yong%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Elly%Lee%NULL%1,               Nurul Yaqeen%Mohd Esa%NULL%1,               Tong Ming%Wee%NULL%1,               Chun Ian%Soo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yong Shik%Kwon%NULL%1,               Sun Hyo%Park%NULL%2,               Sun Hyo%Park%NULL%0,               Hyun Jung%Kim%NULL%2,               Hyun Jung%Kim%NULL%0,               Ji Yeon%Lee%NULL%0,               Ji Yeon%Lee%NULL%0,               Mi-ri%Hyun%NULL%2,               Mi-ri%Hyun%NULL%0,               Hyun ah%Kim%NULL%2,               Hyun ah%Kim%NULL%0,               Jae Seok%Park%NULL%0,               Jae Seok%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po-Ting%Lin%NULL%1,               Ting-Yuan%Ni%NULL%1,               Tren-Yi%Chen%NULL%1,               Chih-Pei%Su%NULL%1,               Hsiao-Fen%Sun%NULL%1,               Mu-Kuan%Chen%NULL%1,               Chu-Chung%Chou%NULL%1,               Po-Yu%Wang%NULL%1,               Yan-Ren%Lin%H6213.lac@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[David A%Lindholm%david.a.lindholm4.mil@mail.mil%1,               John L%Kiley%NULL%2,               John L%Kiley%NULL%0,               Nathan K%Jansen%NULL%1,               Robert T%Hoard%NULL%1,               Matthew R%Bondaryk%NULL%1,               Elizabeth M%Stanley%NULL%1,               Gadiel R%Alvarado%NULL%1,               Ana E%Markelz%NULL%1,               Robert J%Cybulski%NULL%1,               Jason F%Okulicz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Charmaine Malenab%Manauis%NULL%1,               Marvin%Loh%marvin.loh@mohh.com.sg%1,               James%Kwan%NULL%1,               John%Chua Mingzhou%NULL%1,               Han Jie%Teo%NULL%1,               David%Teng Kuan Peng%NULL%1,               Shawn%Vasoo Sushilan%NULL%1,               Yee Sin%Leo%NULL%1,               Ang%Hou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rivkees%Scott A.%coreGivesNoEmail%1,              Roberson%Shamarial%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Eunhye%Seo%NULL%1,               Eunchan%Mun%NULL%2,               Eunchan%Mun%NULL%0,               Wonsool%Kim%NULL%2,               Wonsool%Kim%NULL%0,               Changhwan%Lee%NULL%2,               Changhwan%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aditya%Shah%shah.aditya@mayo.edu%1,               Douglas%Challener%NULL%1,               Aaron J.%Tande%NULL%1,               Maryam%Mahmood%NULL%1,               John C.%O’Horo%NULL%1,               Elie%Berbari%NULL%1,               Sarah J.%Crane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angie N.%Ton%NULL%1,               Tarang%Jethwa%NULL%1,               Karen%Waters%NULL%2,               Karen%Waters%NULL%0,               Leigh L.%Speicher%NULL%2,               Leigh L.%Speicher%NULL%0,               Dawn%Francis%NULL%2,               Dawn%Francis%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kate%Mark%NULL%1,               Katie%Steel%NULL%1,               Janet%Stevenson%NULL%1,               Christine%Evans%NULL%1,               Duncan%McCormick%NULL%1,               Lorna%Willocks%NULL%1,               Alison%McCallum%NULL%1,               Laura%Jones%NULL%1,               Ingolfur%Johannessen%NULL%1,               Kate%Templeton%NULL%1,               Oliver%Koch%NULL%0,               Claire%Mackintosh%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1703,7 +1763,7 @@
         <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -1732,7 +1792,7 @@
         <v>334</v>
       </c>
       <c r="E3" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="F3" t="s">
         <v>45</v>
@@ -1761,7 +1821,7 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -1790,7 +1850,7 @@
         <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
@@ -1819,7 +1879,7 @@
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
@@ -1848,7 +1908,7 @@
         <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="F7" t="s">
         <v>64</v>
@@ -1877,7 +1937,7 @@
         <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="F8" t="s">
         <v>69</v>
@@ -1935,7 +1995,7 @@
         <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="F10" t="s">
         <v>79</v>
@@ -1964,7 +2024,7 @@
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1993,7 +2053,7 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -2022,7 +2082,7 @@
         <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="F13" t="s">
         <v>90</v>
@@ -2051,7 +2111,7 @@
         <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="F14" t="s">
         <v>95</v>
@@ -2080,7 +2140,7 @@
         <v>346</v>
       </c>
       <c r="E15" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="F15" t="s">
         <v>100</v>
@@ -2109,7 +2169,7 @@
         <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="F16" t="s">
         <v>105</v>
@@ -2138,7 +2198,7 @@
         <v>108</v>
       </c>
       <c r="E17" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="F17" t="s">
         <v>110</v>
@@ -2167,7 +2227,7 @@
         <v>144</v>
       </c>
       <c r="E18" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="F18" t="s">
         <v>20</v>
@@ -2196,7 +2256,7 @@
         <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="F19" t="s">
         <v>115</v>
@@ -2225,7 +2285,7 @@
         <v>118</v>
       </c>
       <c r="E20" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="F20" t="s">
         <v>120</v>
@@ -2254,7 +2314,7 @@
         <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="F21" t="s">
         <v>123</v>
@@ -2283,7 +2343,7 @@
         <v>125</v>
       </c>
       <c r="E22" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="F22" t="s">
         <v>127</v>

--- a/Covid_19_Dataset_and_References/References/63.xlsx
+++ b/Covid_19_Dataset_and_References/References/63.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2467" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2775" uniqueCount="455">
   <si>
     <t>Doi</t>
   </si>
@@ -1409,6 +1409,126 @@
   </si>
   <si>
     <t>[Kate%Mark%NULL%1,               Katie%Steel%NULL%1,               Janet%Stevenson%NULL%1,               Christine%Evans%NULL%1,               Duncan%McCormick%NULL%1,               Lorna%Willocks%NULL%1,               Alison%McCallum%NULL%1,               Laura%Jones%NULL%1,               Ingolfur%Johannessen%NULL%1,               Kate%Templeton%NULL%1,               Oliver%Koch%NULL%0,               Claire%Mackintosh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Craig%Brammer%NULL%1,                Stacy%Donohue%NULL%1,                Timothy%Elwell%NULL%1,                Eliza%Fishbein%NULL%1,                D'Ante%Forschino%NULL%1,                Dorothy%Horne%NULL%1,                Buffy%Lloyd-Krejci%NULL%1,                Jessica%Little%NULL%1,                Bistra%Nikiforova%NULL%1,                Elizabeth%Winterbauer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ayesha%Appa%Ayesha.appa@ucsf.edu%1,                Gabriel%Chamie%NULL%1,                Aenor%Sawyer%NULL%1,                Kimberly%Baltzell%NULL%1,                Kathryn%Dippell%NULL%1,                Salu%Ribeiro%NULL%1,                Elias%Duarte%NULL%1,                Joanna%Vinden%NULL%1,                CLIAHUB%Consortium%NULL%1,                Jonathan%Kramer-Feldman%NULL%1,                Shahryar%Rahdari%NULL%1,                Doug%MacIntosh%NULL%1,                Katherine%Nicholson%NULL%1,                Jonathan%Im%NULL%1,                Diane%Havlir%NULL%1,                Bryan%Greenhouse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min Cheol%Chang%NULL%1,                Wan-Seok%Seo%NULL%1,                Donghwi%Park%NULL%1,                Jian%Hur%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marci L.%Drees%NULL%1,                Mia A.%Papas%NULL%1,                Terri E.%Corbo%NULL%1,                Kimberly D.%Williams%NULL%1,                Sharon T.%Kurfuerst%NULL%2,                Sharon T.%Kurfuerst%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Erin F.%Flynn%flynne@email.chop.edu%1,                Elizabeth%Kuhn%NULL%1,                Mohammed%Shaik%NULL%1,                Elizabeth%Tarr%NULL%1,                Nicole%Scattolini%NULL%1,                Allison%Ballantine%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Scott A.%Goldberg%NULL%1,                Robert A.%Bonacci%NULL%1,                Lucas C.%Carlson%NULL%1,                Charles T.%Pu%NULL%1,                Christine S.%Ritchie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%0,                Sadhu%Panda%NULL%2,                Sadhu%Panda%NULL%0,                Ebrahim%Khajeh%NULL%1,                Alexandra%Halalau%alexandra.halalau@beaumont.edu%2,                Alexandra%Halalau%alexandra.halalau@beaumont.edu%0,                Jeffrey%Ditkoff%NULL%2,                Jeffrey%Ditkoff%NULL%0,                Jessica%Hamilton%NULL%2,                Jessica%Hamilton%NULL%0,                Aryana%Sharrak%NULL%2,                Aryana%Sharrak%NULL%0,                Aimen%Vanood%NULL%2,                Aimen%Vanood%NULL%0,                Amr%Abbas%NULL%2,                Amr%Abbas%NULL%0,                James%Ziadeh%NULL%2,                James%Ziadeh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sang Il%Kim%NULL%1,                Ji Yong%Lee%NULL%2,                Ji Yong%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Katherine%Hill%xref no email%1,         Robyn%Campbell%xref no email%1,         Callum%Mutch%xref no email%1,         Oliver%Koch%xref no email%1,         Claire%Mackintosh%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ki Tae%Kwon%NULL%1,                Jae-Hoon%Ko%NULL%2,                Jae-Hoon%Ko%NULL%0,                Heejun%Shin%NULL%2,                Heejun%Shin%NULL%0,                Minki%Sung%NULL%2,                Minki%Sung%NULL%0,                Jin Yong%Kim%NULL%4,                Jin Yong%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Elly%Lee%NULL%1,                Nurul Yaqeen%Mohd Esa%NULL%1,                Tong Ming%Wee%NULL%1,                Chun Ian%Soo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yong Shik%Kwon%NULL%1,                Sun Hyo%Park%NULL%2,                Sun Hyo%Park%NULL%0,                Hyun Jung%Kim%NULL%2,                Hyun Jung%Kim%NULL%0,                Ji Yeon%Lee%NULL%0,                Ji Yeon%Lee%NULL%0,                Mi-ri%Hyun%NULL%2,                Mi-ri%Hyun%NULL%0,                Hyun ah%Kim%NULL%2,                Hyun ah%Kim%NULL%0,                Jae Seok%Park%NULL%0,                Jae Seok%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po-Ting%Lin%NULL%1,                Ting-Yuan%Ni%NULL%1,                Tren-Yi%Chen%NULL%1,                Chih-Pei%Su%NULL%1,                Hsiao-Fen%Sun%NULL%1,                Mu-Kuan%Chen%NULL%1,                Chu-Chung%Chou%NULL%1,                Po-Yu%Wang%NULL%1,                Yan-Ren%Lin%H6213.lac@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[David A%Lindholm%david.a.lindholm4.mil@mail.mil%1,                John L%Kiley%NULL%2,                John L%Kiley%NULL%0,                Nathan K%Jansen%NULL%1,                Robert T%Hoard%NULL%1,                Matthew R%Bondaryk%NULL%1,                Elizabeth M%Stanley%NULL%1,                Gadiel R%Alvarado%NULL%1,                Ana E%Markelz%NULL%1,                Robert J%Cybulski%NULL%1,                Jason F%Okulicz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Charmaine Malenab%Manauis%NULL%1,                Marvin%Loh%marvin.loh@mohh.com.sg%1,                James%Kwan%NULL%1,                John%Chua Mingzhou%NULL%1,                Han Jie%Teo%NULL%1,                David%Teng Kuan Peng%NULL%1,                Shawn%Vasoo Sushilan%NULL%1,                Yee Sin%Leo%NULL%1,                Ang%Hou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rivkees%Scott A.%coreGivesNoEmail%1,               Roberson%Shamarial%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Eunhye%Seo%NULL%1,                Eunchan%Mun%NULL%2,                Eunchan%Mun%NULL%0,                Wonsool%Kim%NULL%2,                Wonsool%Kim%NULL%0,                Changhwan%Lee%NULL%2,                Changhwan%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aditya%Shah%shah.aditya@mayo.edu%1,                Douglas%Challener%NULL%1,                Aaron J.%Tande%NULL%1,                Maryam%Mahmood%NULL%1,                John C.%O’Horo%NULL%1,                Elie%Berbari%NULL%1,                Sarah J.%Crane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angie N.%Ton%NULL%1,                Tarang%Jethwa%NULL%1,                Karen%Waters%NULL%2,                Karen%Waters%NULL%0,                Leigh L.%Speicher%NULL%2,                Leigh L.%Speicher%NULL%0,                Dawn%Francis%NULL%2,                Dawn%Francis%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kate%Mark%NULL%1,                Katie%Steel%NULL%1,                Janet%Stevenson%NULL%1,                Christine%Evans%NULL%1,                Duncan%McCormick%NULL%1,                Lorna%Willocks%NULL%1,                Alison%McCallum%NULL%1,                Laura%Jones%NULL%1,                Ingolfur%Johannessen%NULL%1,                Kate%Templeton%NULL%1,                Oliver%Koch%NULL%0,                Claire%Mackintosh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Craig%Brammer%NULL%1,                 Stacy%Donohue%NULL%1,                 Timothy%Elwell%NULL%1,                 Eliza%Fishbein%NULL%1,                 D'Ante%Forschino%NULL%1,                 Dorothy%Horne%NULL%1,                 Buffy%Lloyd-Krejci%NULL%1,                 Jessica%Little%NULL%1,                 Bistra%Nikiforova%NULL%1,                 Elizabeth%Winterbauer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ayesha%Appa%Ayesha.appa@ucsf.edu%1,                 Gabriel%Chamie%NULL%1,                 Aenor%Sawyer%NULL%1,                 Kimberly%Baltzell%NULL%1,                 Kathryn%Dippell%NULL%1,                 Salu%Ribeiro%NULL%1,                 Elias%Duarte%NULL%1,                 Joanna%Vinden%NULL%1,                 CLIAHUB%Consortium%NULL%1,                 Jonathan%Kramer-Feldman%NULL%1,                 Shahryar%Rahdari%NULL%1,                 Doug%MacIntosh%NULL%1,                 Katherine%Nicholson%NULL%1,                 Jonathan%Im%NULL%1,                 Diane%Havlir%NULL%1,                 Bryan%Greenhouse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min Cheol%Chang%NULL%1,                 Wan-Seok%Seo%NULL%1,                 Donghwi%Park%NULL%1,                 Jian%Hur%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marci L.%Drees%NULL%1,                 Mia A.%Papas%NULL%1,                 Terri E.%Corbo%NULL%1,                 Kimberly D.%Williams%NULL%1,                 Sharon T.%Kurfuerst%NULL%2,                 Sharon T.%Kurfuerst%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Erin F.%Flynn%flynne@email.chop.edu%1,                 Elizabeth%Kuhn%NULL%1,                 Mohammed%Shaik%NULL%1,                 Elizabeth%Tarr%NULL%1,                 Nicole%Scattolini%NULL%1,                 Allison%Ballantine%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Scott A.%Goldberg%NULL%1,                 Robert A.%Bonacci%NULL%1,                 Lucas C.%Carlson%NULL%1,                 Charles T.%Pu%NULL%1,                 Christine S.%Ritchie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%0,                 Sadhu%Panda%NULL%2,                 Sadhu%Panda%NULL%0,                 Ebrahim%Khajeh%NULL%1,                 Alexandra%Halalau%alexandra.halalau@beaumont.edu%2,                 Alexandra%Halalau%alexandra.halalau@beaumont.edu%0,                 Jeffrey%Ditkoff%NULL%2,                 Jeffrey%Ditkoff%NULL%0,                 Jessica%Hamilton%NULL%2,                 Jessica%Hamilton%NULL%0,                 Aryana%Sharrak%NULL%2,                 Aryana%Sharrak%NULL%0,                 Aimen%Vanood%NULL%2,                 Aimen%Vanood%NULL%0,                 Amr%Abbas%NULL%2,                 Amr%Abbas%NULL%0,                 James%Ziadeh%NULL%2,                 James%Ziadeh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sang Il%Kim%NULL%1,                 Ji Yong%Lee%NULL%2,                 Ji Yong%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Katherine%Hill%xref no email%1,          Robyn%Campbell%xref no email%1,          Callum%Mutch%xref no email%1,          Oliver%Koch%xref no email%1,          Claire%Mackintosh%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ki Tae%Kwon%NULL%1,                 Jae-Hoon%Ko%NULL%2,                 Jae-Hoon%Ko%NULL%0,                 Heejun%Shin%NULL%2,                 Heejun%Shin%NULL%0,                 Minki%Sung%NULL%2,                 Minki%Sung%NULL%0,                 Jin Yong%Kim%NULL%4,                 Jin Yong%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Elly%Lee%NULL%1,                 Nurul Yaqeen%Mohd Esa%NULL%1,                 Tong Ming%Wee%NULL%1,                 Chun Ian%Soo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yong Shik%Kwon%NULL%1,                 Sun Hyo%Park%NULL%2,                 Sun Hyo%Park%NULL%0,                 Hyun Jung%Kim%NULL%2,                 Hyun Jung%Kim%NULL%0,                 Ji Yeon%Lee%NULL%0,                 Ji Yeon%Lee%NULL%0,                 Mi-ri%Hyun%NULL%2,                 Mi-ri%Hyun%NULL%0,                 Hyun ah%Kim%NULL%2,                 Hyun ah%Kim%NULL%0,                 Jae Seok%Park%NULL%0,                 Jae Seok%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po-Ting%Lin%NULL%1,                 Ting-Yuan%Ni%NULL%1,                 Tren-Yi%Chen%NULL%1,                 Chih-Pei%Su%NULL%1,                 Hsiao-Fen%Sun%NULL%1,                 Mu-Kuan%Chen%NULL%1,                 Chu-Chung%Chou%NULL%1,                 Po-Yu%Wang%NULL%1,                 Yan-Ren%Lin%H6213.lac@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[David A%Lindholm%david.a.lindholm4.mil@mail.mil%1,                 John L%Kiley%NULL%2,                 John L%Kiley%NULL%0,                 Nathan K%Jansen%NULL%1,                 Robert T%Hoard%NULL%1,                 Matthew R%Bondaryk%NULL%1,                 Elizabeth M%Stanley%NULL%1,                 Gadiel R%Alvarado%NULL%1,                 Ana E%Markelz%NULL%1,                 Robert J%Cybulski%NULL%1,                 Jason F%Okulicz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Charmaine Malenab%Manauis%NULL%1,                 Marvin%Loh%marvin.loh@mohh.com.sg%1,                 James%Kwan%NULL%1,                 John%Chua Mingzhou%NULL%1,                 Han Jie%Teo%NULL%1,                 David%Teng Kuan Peng%NULL%1,                 Shawn%Vasoo Sushilan%NULL%1,                 Yee Sin%Leo%NULL%1,                 Ang%Hou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rivkees%Scott A.%coreGivesNoEmail%1,                Roberson%Shamarial%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Eunhye%Seo%NULL%1,                 Eunchan%Mun%NULL%2,                 Eunchan%Mun%NULL%0,                 Wonsool%Kim%NULL%2,                 Wonsool%Kim%NULL%0,                 Changhwan%Lee%NULL%2,                 Changhwan%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aditya%Shah%shah.aditya@mayo.edu%1,                 Douglas%Challener%NULL%1,                 Aaron J.%Tande%NULL%1,                 Maryam%Mahmood%NULL%1,                 John C.%O’Horo%NULL%1,                 Elie%Berbari%NULL%1,                 Sarah J.%Crane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angie N.%Ton%NULL%1,                 Tarang%Jethwa%NULL%1,                 Karen%Waters%NULL%2,                 Karen%Waters%NULL%0,                 Leigh L.%Speicher%NULL%2,                 Leigh L.%Speicher%NULL%0,                 Dawn%Francis%NULL%2,                 Dawn%Francis%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kate%Mark%NULL%1,                 Katie%Steel%NULL%1,                 Janet%Stevenson%NULL%1,                 Christine%Evans%NULL%1,                 Duncan%McCormick%NULL%1,                 Lorna%Willocks%NULL%1,                 Alison%McCallum%NULL%1,                 Laura%Jones%NULL%1,                 Ingolfur%Johannessen%NULL%1,                 Kate%Templeton%NULL%1,                 Oliver%Koch%NULL%0,                 Claire%Mackintosh%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1763,7 +1883,7 @@
         <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>395</v>
+        <v>435</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -1792,7 +1912,7 @@
         <v>334</v>
       </c>
       <c r="E3" t="s">
-        <v>396</v>
+        <v>436</v>
       </c>
       <c r="F3" t="s">
         <v>45</v>
@@ -1821,7 +1941,7 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>397</v>
+        <v>437</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -1850,7 +1970,7 @@
         <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>398</v>
+        <v>438</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
@@ -1879,7 +1999,7 @@
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>399</v>
+        <v>439</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
@@ -1908,7 +2028,7 @@
         <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="F7" t="s">
         <v>64</v>
@@ -1937,7 +2057,7 @@
         <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>401</v>
+        <v>441</v>
       </c>
       <c r="F8" t="s">
         <v>69</v>
@@ -1995,7 +2115,7 @@
         <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>402</v>
+        <v>442</v>
       </c>
       <c r="F10" t="s">
         <v>79</v>
@@ -2024,7 +2144,7 @@
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>403</v>
+        <v>443</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -2053,7 +2173,7 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -2082,7 +2202,7 @@
         <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>405</v>
+        <v>445</v>
       </c>
       <c r="F13" t="s">
         <v>90</v>
@@ -2111,7 +2231,7 @@
         <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>406</v>
+        <v>446</v>
       </c>
       <c r="F14" t="s">
         <v>95</v>
@@ -2140,7 +2260,7 @@
         <v>346</v>
       </c>
       <c r="E15" t="s">
-        <v>407</v>
+        <v>447</v>
       </c>
       <c r="F15" t="s">
         <v>100</v>
@@ -2169,7 +2289,7 @@
         <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>408</v>
+        <v>448</v>
       </c>
       <c r="F16" t="s">
         <v>105</v>
@@ -2198,7 +2318,7 @@
         <v>108</v>
       </c>
       <c r="E17" t="s">
-        <v>409</v>
+        <v>449</v>
       </c>
       <c r="F17" t="s">
         <v>110</v>
@@ -2227,7 +2347,7 @@
         <v>144</v>
       </c>
       <c r="E18" t="s">
-        <v>410</v>
+        <v>450</v>
       </c>
       <c r="F18" t="s">
         <v>20</v>
@@ -2256,7 +2376,7 @@
         <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>411</v>
+        <v>451</v>
       </c>
       <c r="F19" t="s">
         <v>115</v>
@@ -2285,7 +2405,7 @@
         <v>118</v>
       </c>
       <c r="E20" t="s">
-        <v>412</v>
+        <v>452</v>
       </c>
       <c r="F20" t="s">
         <v>120</v>
@@ -2314,7 +2434,7 @@
         <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>413</v>
+        <v>453</v>
       </c>
       <c r="F21" t="s">
         <v>123</v>
@@ -2343,7 +2463,7 @@
         <v>125</v>
       </c>
       <c r="E22" t="s">
-        <v>414</v>
+        <v>454</v>
       </c>
       <c r="F22" t="s">
         <v>127</v>

--- a/Covid_19_Dataset_and_References/References/63.xlsx
+++ b/Covid_19_Dataset_and_References/References/63.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2775" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2929" uniqueCount="475">
   <si>
     <t>Doi</t>
   </si>
@@ -1529,6 +1529,66 @@
   </si>
   <si>
     <t>[Kate%Mark%NULL%1,                 Katie%Steel%NULL%1,                 Janet%Stevenson%NULL%1,                 Christine%Evans%NULL%1,                 Duncan%McCormick%NULL%1,                 Lorna%Willocks%NULL%1,                 Alison%McCallum%NULL%1,                 Laura%Jones%NULL%1,                 Ingolfur%Johannessen%NULL%1,                 Kate%Templeton%NULL%1,                 Oliver%Koch%NULL%0,                 Claire%Mackintosh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Craig%Brammer%NULL%1,                  Stacy%Donohue%NULL%1,                  Timothy%Elwell%NULL%1,                  Eliza%Fishbein%NULL%1,                  D'Ante%Forschino%NULL%1,                  Dorothy%Horne%NULL%1,                  Buffy%Lloyd-Krejci%NULL%1,                  Jessica%Little%NULL%1,                  Bistra%Nikiforova%NULL%1,                  Elizabeth%Winterbauer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ayesha%Appa%Ayesha.appa@ucsf.edu%1,                  Gabriel%Chamie%NULL%1,                  Aenor%Sawyer%NULL%1,                  Kimberly%Baltzell%NULL%1,                  Kathryn%Dippell%NULL%1,                  Salu%Ribeiro%NULL%1,                  Elias%Duarte%NULL%1,                  Joanna%Vinden%NULL%1,                  CLIAHUB%Consortium%NULL%1,                  Jonathan%Kramer-Feldman%NULL%1,                  Shahryar%Rahdari%NULL%1,                  Doug%MacIntosh%NULL%1,                  Katherine%Nicholson%NULL%1,                  Jonathan%Im%NULL%1,                  Diane%Havlir%NULL%1,                  Bryan%Greenhouse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min Cheol%Chang%NULL%1,                  Wan-Seok%Seo%NULL%1,                  Donghwi%Park%NULL%1,                  Jian%Hur%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marci L.%Drees%NULL%1,                  Mia A.%Papas%NULL%1,                  Terri E.%Corbo%NULL%1,                  Kimberly D.%Williams%NULL%1,                  Sharon T.%Kurfuerst%NULL%2,                  Sharon T.%Kurfuerst%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Erin F.%Flynn%flynne@email.chop.edu%1,                  Elizabeth%Kuhn%NULL%1,                  Mohammed%Shaik%NULL%1,                  Elizabeth%Tarr%NULL%1,                  Nicole%Scattolini%NULL%1,                  Allison%Ballantine%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Scott A.%Goldberg%NULL%1,                  Robert A.%Bonacci%NULL%1,                  Lucas C.%Carlson%NULL%1,                  Charles T.%Pu%NULL%1,                  Christine S.%Ritchie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%0,                  Sadhu%Panda%NULL%2,                  Sadhu%Panda%NULL%0,                  Ebrahim%Khajeh%NULL%1,                  Alexandra%Halalau%alexandra.halalau@beaumont.edu%2,                  Alexandra%Halalau%alexandra.halalau@beaumont.edu%0,                  Jeffrey%Ditkoff%NULL%2,                  Jeffrey%Ditkoff%NULL%0,                  Jessica%Hamilton%NULL%2,                  Jessica%Hamilton%NULL%0,                  Aryana%Sharrak%NULL%2,                  Aryana%Sharrak%NULL%0,                  Aimen%Vanood%NULL%2,                  Aimen%Vanood%NULL%0,                  Amr%Abbas%NULL%2,                  Amr%Abbas%NULL%0,                  James%Ziadeh%NULL%2,                  James%Ziadeh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sang Il%Kim%NULL%1,                  Ji Yong%Lee%NULL%2,                  Ji Yong%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Katherine%Hill%xref no email%1,           Robyn%Campbell%xref no email%1,           Callum%Mutch%xref no email%1,           Oliver%Koch%xref no email%1,           Claire%Mackintosh%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ki Tae%Kwon%NULL%1,                  Jae-Hoon%Ko%NULL%2,                  Jae-Hoon%Ko%NULL%0,                  Heejun%Shin%NULL%2,                  Heejun%Shin%NULL%0,                  Minki%Sung%NULL%2,                  Minki%Sung%NULL%0,                  Jin Yong%Kim%NULL%4,                  Jin Yong%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Elly%Lee%NULL%1,                  Nurul Yaqeen%Mohd Esa%NULL%1,                  Tong Ming%Wee%NULL%1,                  Chun Ian%Soo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yong Shik%Kwon%NULL%1,                  Sun Hyo%Park%NULL%2,                  Sun Hyo%Park%NULL%0,                  Hyun Jung%Kim%NULL%2,                  Hyun Jung%Kim%NULL%0,                  Ji Yeon%Lee%NULL%0,                  Ji Yeon%Lee%NULL%0,                  Mi-ri%Hyun%NULL%2,                  Mi-ri%Hyun%NULL%0,                  Hyun ah%Kim%NULL%2,                  Hyun ah%Kim%NULL%0,                  Jae Seok%Park%NULL%0,                  Jae Seok%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po-Ting%Lin%NULL%1,                  Ting-Yuan%Ni%NULL%1,                  Tren-Yi%Chen%NULL%1,                  Chih-Pei%Su%NULL%1,                  Hsiao-Fen%Sun%NULL%1,                  Mu-Kuan%Chen%NULL%1,                  Chu-Chung%Chou%NULL%1,                  Po-Yu%Wang%NULL%1,                  Yan-Ren%Lin%H6213.lac@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[David A%Lindholm%david.a.lindholm4.mil@mail.mil%1,                  John L%Kiley%NULL%2,                  John L%Kiley%NULL%0,                  Nathan K%Jansen%NULL%1,                  Robert T%Hoard%NULL%1,                  Matthew R%Bondaryk%NULL%1,                  Elizabeth M%Stanley%NULL%1,                  Gadiel R%Alvarado%NULL%1,                  Ana E%Markelz%NULL%1,                  Robert J%Cybulski%NULL%1,                  Jason F%Okulicz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Charmaine Malenab%Manauis%NULL%1,                  Marvin%Loh%marvin.loh@mohh.com.sg%1,                  James%Kwan%NULL%1,                  John%Chua Mingzhou%NULL%1,                  Han Jie%Teo%NULL%1,                  David%Teng Kuan Peng%NULL%1,                  Shawn%Vasoo Sushilan%NULL%1,                  Yee Sin%Leo%NULL%1,                  Ang%Hou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rivkees%Scott A.%coreGivesNoEmail%1,                 Roberson%Shamarial%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Eunhye%Seo%NULL%1,                  Eunchan%Mun%NULL%2,                  Eunchan%Mun%NULL%0,                  Wonsool%Kim%NULL%2,                  Wonsool%Kim%NULL%0,                  Changhwan%Lee%NULL%2,                  Changhwan%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aditya%Shah%shah.aditya@mayo.edu%1,                  Douglas%Challener%NULL%1,                  Aaron J.%Tande%NULL%1,                  Maryam%Mahmood%NULL%1,                  John C.%O’Horo%NULL%1,                  Elie%Berbari%NULL%1,                  Sarah J.%Crane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angie N.%Ton%NULL%1,                  Tarang%Jethwa%NULL%1,                  Karen%Waters%NULL%2,                  Karen%Waters%NULL%0,                  Leigh L.%Speicher%NULL%2,                  Leigh L.%Speicher%NULL%0,                  Dawn%Francis%NULL%2,                  Dawn%Francis%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kate%Mark%NULL%1,                  Katie%Steel%NULL%1,                  Janet%Stevenson%NULL%1,                  Christine%Evans%NULL%1,                  Duncan%McCormick%NULL%1,                  Lorna%Willocks%NULL%1,                  Alison%McCallum%NULL%1,                  Laura%Jones%NULL%1,                  Ingolfur%Johannessen%NULL%1,                  Kate%Templeton%NULL%1,                  Oliver%Koch%NULL%0,                  Claire%Mackintosh%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1883,7 +1943,7 @@
         <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -1912,7 +1972,7 @@
         <v>334</v>
       </c>
       <c r="E3" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="F3" t="s">
         <v>45</v>
@@ -1941,7 +2001,7 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -1970,7 +2030,7 @@
         <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
@@ -1999,7 +2059,7 @@
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
@@ -2028,7 +2088,7 @@
         <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="F7" t="s">
         <v>64</v>
@@ -2057,7 +2117,7 @@
         <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="F8" t="s">
         <v>69</v>
@@ -2115,7 +2175,7 @@
         <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="F10" t="s">
         <v>79</v>
@@ -2144,7 +2204,7 @@
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -2173,7 +2233,7 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -2202,7 +2262,7 @@
         <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="F13" t="s">
         <v>90</v>
@@ -2231,7 +2291,7 @@
         <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="F14" t="s">
         <v>95</v>
@@ -2260,7 +2320,7 @@
         <v>346</v>
       </c>
       <c r="E15" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="F15" t="s">
         <v>100</v>
@@ -2289,7 +2349,7 @@
         <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="F16" t="s">
         <v>105</v>
@@ -2318,7 +2378,7 @@
         <v>108</v>
       </c>
       <c r="E17" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="F17" t="s">
         <v>110</v>
@@ -2347,7 +2407,7 @@
         <v>144</v>
       </c>
       <c r="E18" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="F18" t="s">
         <v>20</v>
@@ -2376,7 +2436,7 @@
         <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="F19" t="s">
         <v>115</v>
@@ -2405,7 +2465,7 @@
         <v>118</v>
       </c>
       <c r="E20" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="F20" t="s">
         <v>120</v>
@@ -2434,7 +2494,7 @@
         <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="F21" t="s">
         <v>123</v>
@@ -2463,7 +2523,7 @@
         <v>125</v>
       </c>
       <c r="E22" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="F22" t="s">
         <v>127</v>

--- a/Covid_19_Dataset_and_References/References/63.xlsx
+++ b/Covid_19_Dataset_and_References/References/63.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2929" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3083" uniqueCount="499">
   <si>
     <t>Doi</t>
   </si>
@@ -1589,6 +1589,78 @@
   </si>
   <si>
     <t>[Kate%Mark%NULL%1,                  Katie%Steel%NULL%1,                  Janet%Stevenson%NULL%1,                  Christine%Evans%NULL%1,                  Duncan%McCormick%NULL%1,                  Lorna%Willocks%NULL%1,                  Alison%McCallum%NULL%1,                  Laura%Jones%NULL%1,                  Ingolfur%Johannessen%NULL%1,                  Kate%Templeton%NULL%1,                  Oliver%Koch%NULL%0,                  Claire%Mackintosh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Craig%Brammer%NULL%1,                   Stacy%Donohue%NULL%1,                   Timothy%Elwell%NULL%1,                   Eliza%Fishbein%NULL%1,                   D'Ante%Forschino%NULL%1,                   Dorothy%Horne%NULL%1,                   Buffy%Lloyd-Krejci%NULL%1,                   Jessica%Little%NULL%1,                   Bistra%Nikiforova%NULL%1,                   Elizabeth%Winterbauer%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Ayesha%Appa%Ayesha.appa@ucsf.edu%1,                   Gabriel%Chamie%NULL%1,                   Aenor%Sawyer%NULL%1,                   Kimberly%Baltzell%NULL%1,                   Kathryn%Dippell%NULL%1,                   Salu%Ribeiro%NULL%1,                   Elias%Duarte%NULL%1,                   Joanna%Vinden%NULL%1,                   CLIAHUB%Consortium%NULL%1,                   Jonathan%Kramer-Feldman%NULL%1,                   Shahryar%Rahdari%NULL%1,                   Doug%MacIntosh%NULL%1,                   Katherine%Nicholson%NULL%1,                   Jonathan%Im%NULL%1,                   Diane%Havlir%NULL%1,                   Bryan%Greenhouse%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Min Cheol%Chang%NULL%1,                   Wan-Seok%Seo%NULL%1,                   Donghwi%Park%NULL%1,                   Jian%Hur%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Marci L.%Drees%NULL%1,                   Mia A.%Papas%NULL%1,                   Terri E.%Corbo%NULL%1,                   Kimberly D.%Williams%NULL%1,                   Sharon T.%Kurfuerst%NULL%2,                   Sharon T.%Kurfuerst%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Erin F.%Flynn%flynne@email.chop.edu%1,                   Elizabeth%Kuhn%NULL%1,                   Mohammed%Shaik%NULL%1,                   Elizabeth%Tarr%NULL%1,                   Nicole%Scattolini%NULL%1,                   Allison%Ballantine%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Scott A.%Goldberg%NULL%1,                   Robert A.%Bonacci%NULL%1,                   Lucas C.%Carlson%NULL%1,                   Charles T.%Pu%NULL%1,                   Christine S.%Ritchie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%0,                   Sadhu%Panda%NULL%2,                   Sadhu%Panda%NULL%0,                   Ebrahim%Khajeh%NULL%1,                   Alexandra%Halalau%alexandra.halalau@beaumont.edu%2,                   Alexandra%Halalau%alexandra.halalau@beaumont.edu%0,                   Jeffrey%Ditkoff%NULL%2,                   Jeffrey%Ditkoff%NULL%0,                   Jessica%Hamilton%NULL%2,                   Jessica%Hamilton%NULL%0,                   Aryana%Sharrak%NULL%2,                   Aryana%Sharrak%NULL%0,                   Aimen%Vanood%NULL%2,                   Aimen%Vanood%NULL%0,                   Amr%Abbas%NULL%2,                   Amr%Abbas%NULL%0,                   James%Ziadeh%NULL%2,                   James%Ziadeh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sang Il%Kim%NULL%1,                   Ji Yong%Lee%NULL%2,                   Ji Yong%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Katherine%Hill%xref no email%1,            Robyn%Campbell%xref no email%1,            Callum%Mutch%xref no email%1,            Oliver%Koch%xref no email%1,            Claire%Mackintosh%xref no email%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Ki Tae%Kwon%NULL%1,                   Jae-Hoon%Ko%NULL%2,                   Jae-Hoon%Ko%NULL%0,                   Heejun%Shin%NULL%2,                   Heejun%Shin%NULL%0,                   Minki%Sung%NULL%2,                   Minki%Sung%NULL%0,                   Jin Yong%Kim%NULL%4,                   Jin Yong%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Elly%Lee%NULL%1,                   Nurul Yaqeen%Mohd Esa%NULL%1,                   Tong Ming%Wee%NULL%1,                   Chun Ian%Soo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yong Shik%Kwon%NULL%1,                   Sun Hyo%Park%NULL%2,                   Sun Hyo%Park%NULL%0,                   Hyun Jung%Kim%NULL%2,                   Hyun Jung%Kim%NULL%0,                   Ji Yeon%Lee%NULL%0,                   Ji Yeon%Lee%NULL%0,                   Mi-ri%Hyun%NULL%2,                   Mi-ri%Hyun%NULL%0,                   Hyun ah%Kim%NULL%2,                   Hyun ah%Kim%NULL%0,                   Jae Seok%Park%NULL%0,                   Jae Seok%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po-Ting%Lin%NULL%1,                   Ting-Yuan%Ni%NULL%1,                   Tren-Yi%Chen%NULL%1,                   Chih-Pei%Su%NULL%1,                   Hsiao-Fen%Sun%NULL%1,                   Mu-Kuan%Chen%NULL%1,                   Chu-Chung%Chou%NULL%1,                   Po-Yu%Wang%NULL%1,                   Yan-Ren%Lin%H6213.lac@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[David A%Lindholm%david.a.lindholm4.mil@mail.mil%1,                   John L%Kiley%NULL%2,                   John L%Kiley%NULL%0,                   Nathan K%Jansen%NULL%1,                   Robert T%Hoard%NULL%1,                   Matthew R%Bondaryk%NULL%1,                   Elizabeth M%Stanley%NULL%1,                   Gadiel R%Alvarado%NULL%1,                   Ana E%Markelz%NULL%1,                   Robert J%Cybulski%NULL%1,                   Jason F%Okulicz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Charmaine Malenab%Manauis%NULL%1,                   Marvin%Loh%marvin.loh@mohh.com.sg%1,                   James%Kwan%NULL%1,                   John%Chua Mingzhou%NULL%1,                   Han Jie%Teo%NULL%1,                   David%Teng Kuan Peng%NULL%1,                   Shawn%Vasoo Sushilan%NULL%1,                   Yee Sin%Leo%NULL%1,                   Ang%Hou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rivkees%Scott A.%coreGivesNoEmail%1,                  Roberson%Shamarial%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Eunhye%Seo%NULL%1,                   Eunchan%Mun%NULL%2,                   Eunchan%Mun%NULL%0,                   Wonsool%Kim%NULL%2,                   Wonsool%Kim%NULL%0,                   Changhwan%Lee%NULL%2,                   Changhwan%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aditya%Shah%shah.aditya@mayo.edu%1,                   Douglas%Challener%NULL%1,                   Aaron J.%Tande%NULL%1,                   Maryam%Mahmood%NULL%1,                   John C.%O’Horo%NULL%1,                   Elie%Berbari%NULL%1,                   Sarah J.%Crane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angie N.%Ton%NULL%1,                   Tarang%Jethwa%NULL%1,                   Karen%Waters%NULL%2,                   Karen%Waters%NULL%0,                   Leigh L.%Speicher%NULL%2,                   Leigh L.%Speicher%NULL%0,                   Dawn%Francis%NULL%2,                   Dawn%Francis%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kate%Mark%NULL%1,                   Katie%Steel%NULL%1,                   Janet%Stevenson%NULL%1,                   Christine%Evans%NULL%1,                   Duncan%McCormick%NULL%1,                   Lorna%Willocks%NULL%1,                   Alison%McCallum%NULL%1,                   Laura%Jones%NULL%1,                   Ingolfur%Johannessen%NULL%1,                   Kate%Templeton%NULL%1,                   Oliver%Koch%NULL%0,                   Claire%Mackintosh%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1943,7 +2015,7 @@
         <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -1955,7 +2027,7 @@
         <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>153</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3">
@@ -1972,7 +2044,7 @@
         <v>334</v>
       </c>
       <c r="E3" t="s">
-        <v>456</v>
+        <v>477</v>
       </c>
       <c r="F3" t="s">
         <v>45</v>
@@ -1984,7 +2056,7 @@
         <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>155</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4">
@@ -2001,7 +2073,7 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -2013,7 +2085,7 @@
         <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>157</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5">
@@ -2030,7 +2102,7 @@
         <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
@@ -2042,7 +2114,7 @@
         <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>157</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6">
@@ -2059,7 +2131,7 @@
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
@@ -2071,7 +2143,7 @@
         <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>153</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7">
@@ -2088,7 +2160,7 @@
         <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="F7" t="s">
         <v>64</v>
@@ -2100,7 +2172,7 @@
         <v>65</v>
       </c>
       <c r="I7" t="s">
-        <v>157</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8">
@@ -2117,7 +2189,7 @@
         <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>461</v>
+        <v>484</v>
       </c>
       <c r="F8" t="s">
         <v>69</v>
@@ -2129,7 +2201,7 @@
         <v>70</v>
       </c>
       <c r="I8" t="s">
-        <v>157</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9">
@@ -2158,7 +2230,7 @@
         <v>75</v>
       </c>
       <c r="I9" t="s">
-        <v>157</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10">
@@ -2175,7 +2247,7 @@
         <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
       <c r="F10" t="s">
         <v>79</v>
@@ -2187,7 +2259,7 @@
         <v>80</v>
       </c>
       <c r="I10" t="s">
-        <v>157</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11">
@@ -2204,7 +2276,7 @@
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -2216,7 +2288,7 @@
         <v>261</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>487</v>
       </c>
     </row>
     <row r="12">
@@ -2233,7 +2305,7 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -2245,7 +2317,7 @@
         <v>86</v>
       </c>
       <c r="I12" t="s">
-        <v>157</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13">
@@ -2262,7 +2334,7 @@
         <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>465</v>
+        <v>489</v>
       </c>
       <c r="F13" t="s">
         <v>90</v>
@@ -2274,7 +2346,7 @@
         <v>91</v>
       </c>
       <c r="I13" t="s">
-        <v>153</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14">
@@ -2291,7 +2363,7 @@
         <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>466</v>
+        <v>490</v>
       </c>
       <c r="F14" t="s">
         <v>95</v>
@@ -2303,7 +2375,7 @@
         <v>96</v>
       </c>
       <c r="I14" t="s">
-        <v>157</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15">
@@ -2320,7 +2392,7 @@
         <v>346</v>
       </c>
       <c r="E15" t="s">
-        <v>467</v>
+        <v>491</v>
       </c>
       <c r="F15" t="s">
         <v>100</v>
@@ -2332,7 +2404,7 @@
         <v>101</v>
       </c>
       <c r="I15" t="s">
-        <v>155</v>
+        <v>478</v>
       </c>
     </row>
     <row r="16">
@@ -2349,7 +2421,7 @@
         <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="F16" t="s">
         <v>105</v>
@@ -2361,7 +2433,7 @@
         <v>106</v>
       </c>
       <c r="I16" t="s">
-        <v>157</v>
+        <v>480</v>
       </c>
     </row>
     <row r="17">
@@ -2378,7 +2450,7 @@
         <v>108</v>
       </c>
       <c r="E17" t="s">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="F17" t="s">
         <v>110</v>
@@ -2390,7 +2462,7 @@
         <v>111</v>
       </c>
       <c r="I17" t="s">
-        <v>157</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18">
@@ -2407,7 +2479,7 @@
         <v>144</v>
       </c>
       <c r="E18" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="F18" t="s">
         <v>20</v>
@@ -2419,7 +2491,7 @@
         <v>81</v>
       </c>
       <c r="I18" t="s">
-        <v>53</v>
+        <v>487</v>
       </c>
     </row>
     <row r="19">
@@ -2436,7 +2508,7 @@
         <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="F19" t="s">
         <v>115</v>
@@ -2448,7 +2520,7 @@
         <v>116</v>
       </c>
       <c r="I19" t="s">
-        <v>157</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20">
@@ -2465,7 +2537,7 @@
         <v>118</v>
       </c>
       <c r="E20" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="F20" t="s">
         <v>120</v>
@@ -2477,7 +2549,7 @@
         <v>81</v>
       </c>
       <c r="I20" t="s">
-        <v>153</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21">
@@ -2494,7 +2566,7 @@
         <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="F21" t="s">
         <v>123</v>
@@ -2506,7 +2578,7 @@
         <v>81</v>
       </c>
       <c r="I21" t="s">
-        <v>153</v>
+        <v>476</v>
       </c>
     </row>
     <row r="22">
@@ -2523,7 +2595,7 @@
         <v>125</v>
       </c>
       <c r="E22" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="F22" t="s">
         <v>127</v>
@@ -2535,7 +2607,7 @@
         <v>128</v>
       </c>
       <c r="I22" t="s">
-        <v>157</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/63.xlsx
+++ b/Covid_19_Dataset_and_References/References/63.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3083" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3237" uniqueCount="519">
   <si>
     <t>Doi</t>
   </si>
@@ -1661,6 +1661,66 @@
   </si>
   <si>
     <t>[Kate%Mark%NULL%1,                   Katie%Steel%NULL%1,                   Janet%Stevenson%NULL%1,                   Christine%Evans%NULL%1,                   Duncan%McCormick%NULL%1,                   Lorna%Willocks%NULL%1,                   Alison%McCallum%NULL%1,                   Laura%Jones%NULL%1,                   Ingolfur%Johannessen%NULL%1,                   Kate%Templeton%NULL%1,                   Oliver%Koch%NULL%0,                   Claire%Mackintosh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Craig%Brammer%NULL%1,                    Stacy%Donohue%NULL%1,                    Timothy%Elwell%NULL%1,                    Eliza%Fishbein%NULL%1,                    D'Ante%Forschino%NULL%1,                    Dorothy%Horne%NULL%1,                    Buffy%Lloyd-Krejci%NULL%1,                    Jessica%Little%NULL%1,                    Bistra%Nikiforova%NULL%1,                    Elizabeth%Winterbauer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ayesha%Appa%Ayesha.appa@ucsf.edu%1,                    Gabriel%Chamie%NULL%1,                    Aenor%Sawyer%NULL%1,                    Kimberly%Baltzell%NULL%1,                    Kathryn%Dippell%NULL%1,                    Salu%Ribeiro%NULL%1,                    Elias%Duarte%NULL%1,                    Joanna%Vinden%NULL%1,                    CLIAHUB%Consortium%NULL%1,                    Jonathan%Kramer-Feldman%NULL%1,                    Shahryar%Rahdari%NULL%1,                    Doug%MacIntosh%NULL%1,                    Katherine%Nicholson%NULL%1,                    Jonathan%Im%NULL%1,                    Diane%Havlir%NULL%1,                    Bryan%Greenhouse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min Cheol%Chang%NULL%1,                    Wan-Seok%Seo%NULL%1,                    Donghwi%Park%NULL%1,                    Jian%Hur%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marci L.%Drees%NULL%1,                    Mia A.%Papas%NULL%1,                    Terri E.%Corbo%NULL%1,                    Kimberly D.%Williams%NULL%1,                    Sharon T.%Kurfuerst%NULL%2,                    Sharon T.%Kurfuerst%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Erin F.%Flynn%flynne@email.chop.edu%1,                    Elizabeth%Kuhn%NULL%1,                    Mohammed%Shaik%NULL%1,                    Elizabeth%Tarr%NULL%1,                    Nicole%Scattolini%NULL%1,                    Allison%Ballantine%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Scott A.%Goldberg%NULL%1,                    Robert A.%Bonacci%NULL%1,                    Lucas C.%Carlson%NULL%1,                    Charles T.%Pu%NULL%1,                    Christine S.%Ritchie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%0,                    Sadhu%Panda%NULL%2,                    Sadhu%Panda%NULL%0,                    Ebrahim%Khajeh%NULL%1,                    Alexandra%Halalau%alexandra.halalau@beaumont.edu%2,                    Alexandra%Halalau%alexandra.halalau@beaumont.edu%0,                    Jeffrey%Ditkoff%NULL%2,                    Jeffrey%Ditkoff%NULL%0,                    Jessica%Hamilton%NULL%2,                    Jessica%Hamilton%NULL%0,                    Aryana%Sharrak%NULL%2,                    Aryana%Sharrak%NULL%0,                    Aimen%Vanood%NULL%2,                    Aimen%Vanood%NULL%0,                    Amr%Abbas%NULL%2,                    Amr%Abbas%NULL%0,                    James%Ziadeh%NULL%2,                    James%Ziadeh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sang Il%Kim%NULL%1,                    Ji Yong%Lee%NULL%2,                    Ji Yong%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Katherine%Hill%xref no email%1,             Robyn%Campbell%xref no email%1,             Callum%Mutch%xref no email%1,             Oliver%Koch%xref no email%1,             Claire%Mackintosh%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ki Tae%Kwon%NULL%1,                    Jae-Hoon%Ko%NULL%2,                    Jae-Hoon%Ko%NULL%0,                    Heejun%Shin%NULL%2,                    Heejun%Shin%NULL%0,                    Minki%Sung%NULL%2,                    Minki%Sung%NULL%0,                    Jin Yong%Kim%NULL%4,                    Jin Yong%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Elly%Lee%NULL%1,                    Nurul Yaqeen%Mohd Esa%NULL%1,                    Tong Ming%Wee%NULL%1,                    Chun Ian%Soo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yong Shik%Kwon%NULL%1,                    Sun Hyo%Park%NULL%2,                    Sun Hyo%Park%NULL%0,                    Hyun Jung%Kim%NULL%2,                    Hyun Jung%Kim%NULL%0,                    Ji Yeon%Lee%NULL%0,                    Ji Yeon%Lee%NULL%0,                    Mi-ri%Hyun%NULL%2,                    Mi-ri%Hyun%NULL%0,                    Hyun ah%Kim%NULL%2,                    Hyun ah%Kim%NULL%0,                    Jae Seok%Park%NULL%0,                    Jae Seok%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po-Ting%Lin%NULL%1,                    Ting-Yuan%Ni%NULL%1,                    Tren-Yi%Chen%NULL%1,                    Chih-Pei%Su%NULL%1,                    Hsiao-Fen%Sun%NULL%1,                    Mu-Kuan%Chen%NULL%1,                    Chu-Chung%Chou%NULL%1,                    Po-Yu%Wang%NULL%1,                    Yan-Ren%Lin%H6213.lac@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[David A%Lindholm%david.a.lindholm4.mil@mail.mil%1,                    John L%Kiley%NULL%2,                    John L%Kiley%NULL%0,                    Nathan K%Jansen%NULL%1,                    Robert T%Hoard%NULL%1,                    Matthew R%Bondaryk%NULL%1,                    Elizabeth M%Stanley%NULL%1,                    Gadiel R%Alvarado%NULL%1,                    Ana E%Markelz%NULL%1,                    Robert J%Cybulski%NULL%1,                    Jason F%Okulicz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Charmaine Malenab%Manauis%NULL%1,                    Marvin%Loh%marvin.loh@mohh.com.sg%1,                    James%Kwan%NULL%1,                    John%Chua Mingzhou%NULL%1,                    Han Jie%Teo%NULL%1,                    David%Teng Kuan Peng%NULL%1,                    Shawn%Vasoo Sushilan%NULL%1,                    Yee Sin%Leo%NULL%1,                    Ang%Hou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rivkees%Scott A.%coreGivesNoEmail%1,                   Roberson%Shamarial%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Eunhye%Seo%NULL%1,                    Eunchan%Mun%NULL%2,                    Eunchan%Mun%NULL%0,                    Wonsool%Kim%NULL%2,                    Wonsool%Kim%NULL%0,                    Changhwan%Lee%NULL%2,                    Changhwan%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aditya%Shah%shah.aditya@mayo.edu%1,                    Douglas%Challener%NULL%1,                    Aaron J.%Tande%NULL%1,                    Maryam%Mahmood%NULL%1,                    John C.%O’Horo%NULL%1,                    Elie%Berbari%NULL%1,                    Sarah J.%Crane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angie N.%Ton%NULL%1,                    Tarang%Jethwa%NULL%1,                    Karen%Waters%NULL%2,                    Karen%Waters%NULL%0,                    Leigh L.%Speicher%NULL%2,                    Leigh L.%Speicher%NULL%0,                    Dawn%Francis%NULL%2,                    Dawn%Francis%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kate%Mark%NULL%1,                    Katie%Steel%NULL%1,                    Janet%Stevenson%NULL%1,                    Christine%Evans%NULL%1,                    Duncan%McCormick%NULL%1,                    Lorna%Willocks%NULL%1,                    Alison%McCallum%NULL%1,                    Laura%Jones%NULL%1,                    Ingolfur%Johannessen%NULL%1,                    Kate%Templeton%NULL%1,                    Oliver%Koch%NULL%0,                    Claire%Mackintosh%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2015,7 +2075,7 @@
         <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -2044,7 +2104,7 @@
         <v>334</v>
       </c>
       <c r="E3" t="s">
-        <v>477</v>
+        <v>500</v>
       </c>
       <c r="F3" t="s">
         <v>45</v>
@@ -2073,7 +2133,7 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -2102,7 +2162,7 @@
         <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
@@ -2131,7 +2191,7 @@
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
@@ -2160,7 +2220,7 @@
         <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>483</v>
+        <v>504</v>
       </c>
       <c r="F7" t="s">
         <v>64</v>
@@ -2189,7 +2249,7 @@
         <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="F8" t="s">
         <v>69</v>
@@ -2247,7 +2307,7 @@
         <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>485</v>
+        <v>506</v>
       </c>
       <c r="F10" t="s">
         <v>79</v>
@@ -2276,7 +2336,7 @@
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -2305,7 +2365,7 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -2334,7 +2394,7 @@
         <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="F13" t="s">
         <v>90</v>
@@ -2363,7 +2423,7 @@
         <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="F14" t="s">
         <v>95</v>
@@ -2392,7 +2452,7 @@
         <v>346</v>
       </c>
       <c r="E15" t="s">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="F15" t="s">
         <v>100</v>
@@ -2421,7 +2481,7 @@
         <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="F16" t="s">
         <v>105</v>
@@ -2450,7 +2510,7 @@
         <v>108</v>
       </c>
       <c r="E17" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="F17" t="s">
         <v>110</v>
@@ -2479,7 +2539,7 @@
         <v>144</v>
       </c>
       <c r="E18" t="s">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="F18" t="s">
         <v>20</v>
@@ -2508,7 +2568,7 @@
         <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="F19" t="s">
         <v>115</v>
@@ -2537,7 +2597,7 @@
         <v>118</v>
       </c>
       <c r="E20" t="s">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="F20" t="s">
         <v>120</v>
@@ -2566,7 +2626,7 @@
         <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="F21" t="s">
         <v>123</v>
@@ -2595,7 +2655,7 @@
         <v>125</v>
       </c>
       <c r="E22" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="F22" t="s">
         <v>127</v>

--- a/Covid_19_Dataset_and_References/References/63.xlsx
+++ b/Covid_19_Dataset_and_References/References/63.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3237" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4117" uniqueCount="617">
   <si>
     <t>Doi</t>
   </si>
@@ -1721,6 +1721,300 @@
   </si>
   <si>
     <t>[Kate%Mark%NULL%1,                    Katie%Steel%NULL%1,                    Janet%Stevenson%NULL%1,                    Christine%Evans%NULL%1,                    Duncan%McCormick%NULL%1,                    Lorna%Willocks%NULL%1,                    Alison%McCallum%NULL%1,                    Laura%Jones%NULL%1,                    Ingolfur%Johannessen%NULL%1,                    Kate%Templeton%NULL%1,                    Oliver%Koch%NULL%0,                    Claire%Mackintosh%NULL%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Craig%Brammer%NULL%1,                     Stacy%Donohue%NULL%1,                     Timothy%Elwell%NULL%1,                     Eliza%Fishbein%NULL%1,                     D'Ante%Forschino%NULL%1,                     Dorothy%Horne%NULL%1,                     Buffy%Lloyd-Krejci%NULL%1,                     Jessica%Little%NULL%1,                     Bistra%Nikiforova%NULL%1,                     Elizabeth%Winterbauer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ayesha%Appa%Ayesha.appa@ucsf.edu%1,                     Gabriel%Chamie%NULL%1,                     Aenor%Sawyer%NULL%1,                     Kimberly%Baltzell%NULL%1,                     Kathryn%Dippell%NULL%1,                     Salu%Ribeiro%NULL%1,                     Elias%Duarte%NULL%1,                     Joanna%Vinden%NULL%1,                     CLIAHUB%Consortium%NULL%1,                     Jonathan%Kramer-Feldman%NULL%1,                     Shahryar%Rahdari%NULL%1,                     Doug%MacIntosh%NULL%1,                     Katherine%Nicholson%NULL%1,                     Jonathan%Im%NULL%1,                     Diane%Havlir%NULL%1,                     Bryan%Greenhouse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min Cheol%Chang%NULL%1,                     Wan-Seok%Seo%NULL%1,                     Donghwi%Park%NULL%1,                     Jian%Hur%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marci L.%Drees%NULL%1,                     Mia A.%Papas%NULL%1,                     Terri E.%Corbo%NULL%1,                     Kimberly D.%Williams%NULL%1,                     Sharon T.%Kurfuerst%NULL%2,                     Sharon T.%Kurfuerst%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Erin F.%Flynn%flynne@email.chop.edu%1,                     Elizabeth%Kuhn%NULL%1,                     Mohammed%Shaik%NULL%1,                     Elizabeth%Tarr%NULL%1,                     Nicole%Scattolini%NULL%1,                     Allison%Ballantine%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Scott A.%Goldberg%NULL%1,                     Robert A.%Bonacci%NULL%1,                     Lucas C.%Carlson%NULL%1,                     Charles T.%Pu%NULL%1,                     Christine S.%Ritchie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%0,                     Sadhu%Panda%NULL%2,                     Sadhu%Panda%NULL%0,                     Ebrahim%Khajeh%NULL%1,                     Alexandra%Halalau%alexandra.halalau@beaumont.edu%2,                     Alexandra%Halalau%alexandra.halalau@beaumont.edu%0,                     Jeffrey%Ditkoff%NULL%2,                     Jeffrey%Ditkoff%NULL%0,                     Jessica%Hamilton%NULL%2,                     Jessica%Hamilton%NULL%0,                     Aryana%Sharrak%NULL%2,                     Aryana%Sharrak%NULL%0,                     Aimen%Vanood%NULL%2,                     Aimen%Vanood%NULL%0,                     Amr%Abbas%NULL%2,                     Amr%Abbas%NULL%0,                     James%Ziadeh%NULL%2,                     James%Ziadeh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sang Il%Kim%NULL%1,                     Ji Yong%Lee%NULL%2,                     Ji Yong%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Katherine%Hill%xref no email%0, Robyn%Campbell%xref no email%1, Callum%Mutch%xref no email%1, Oliver%Koch%xref no email%1, Claire%Mackintosh%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Royal College of Physicians</t>
+  </si>
+  <si>
+    <t>[Ki Tae%Kwon%NULL%1,                     Jae-Hoon%Ko%NULL%2,                     Jae-Hoon%Ko%NULL%0,                     Heejun%Shin%NULL%2,                     Heejun%Shin%NULL%0,                     Minki%Sung%NULL%2,                     Minki%Sung%NULL%0,                     Jin Yong%Kim%NULL%4,                     Jin Yong%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Elly%Lee%NULL%1,                     Nurul Yaqeen%Mohd Esa%NULL%1,                     Tong Ming%Wee%NULL%1,                     Chun Ian%Soo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yong Shik%Kwon%NULL%1,                     Sun Hyo%Park%NULL%2,                     Sun Hyo%Park%NULL%0,                     Hyun Jung%Kim%NULL%2,                     Hyun Jung%Kim%NULL%0,                     Ji Yeon%Lee%NULL%0,                     Ji Yeon%Lee%NULL%0,                     Mi-ri%Hyun%NULL%2,                     Mi-ri%Hyun%NULL%0,                     Hyun ah%Kim%NULL%2,                     Hyun ah%Kim%NULL%0,                     Jae Seok%Park%NULL%0,                     Jae Seok%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po-Ting%Lin%NULL%1,                     Ting-Yuan%Ni%NULL%1,                     Tren-Yi%Chen%NULL%1,                     Chih-Pei%Su%NULL%1,                     Hsiao-Fen%Sun%NULL%1,                     Mu-Kuan%Chen%NULL%1,                     Chu-Chung%Chou%NULL%1,                     Po-Yu%Wang%NULL%1,                     Yan-Ren%Lin%H6213.lac@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[David A%Lindholm%david.a.lindholm4.mil@mail.mil%1,                     John L%Kiley%NULL%2,                     John L%Kiley%NULL%0,                     Nathan K%Jansen%NULL%1,                     Robert T%Hoard%NULL%1,                     Matthew R%Bondaryk%NULL%1,                     Elizabeth M%Stanley%NULL%1,                     Gadiel R%Alvarado%NULL%1,                     Ana E%Markelz%NULL%1,                     Robert J%Cybulski%NULL%1,                     Jason F%Okulicz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Charmaine Malenab%Manauis%NULL%1,                     Marvin%Loh%marvin.loh@mohh.com.sg%1,                     James%Kwan%NULL%1,                     John%Chua Mingzhou%NULL%1,                     Han Jie%Teo%NULL%1,                     David%Teng Kuan Peng%NULL%1,                     Shawn%Vasoo Sushilan%NULL%1,                     Yee Sin%Leo%NULL%1,                     Ang%Hou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rivkees%Scott A.%coreGivesNoEmail%1,                    Roberson%Shamarial%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Eunhye%Seo%NULL%1,                     Eunchan%Mun%NULL%2,                     Eunchan%Mun%NULL%0,                     Wonsool%Kim%NULL%2,                     Wonsool%Kim%NULL%0,                     Changhwan%Lee%NULL%2,                     Changhwan%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aditya%Shah%shah.aditya@mayo.edu%1,                     Douglas%Challener%NULL%1,                     Aaron J.%Tande%NULL%1,                     Maryam%Mahmood%NULL%1,                     John C.%O’Horo%NULL%1,                     Elie%Berbari%NULL%1,                     Sarah J.%Crane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angie N.%Ton%NULL%1,                     Tarang%Jethwa%NULL%1,                     Karen%Waters%NULL%2,                     Karen%Waters%NULL%0,                     Leigh L.%Speicher%NULL%2,                     Leigh L.%Speicher%NULL%0,                     Dawn%Francis%NULL%2,                     Dawn%Francis%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kate%Mark%NULL%1,                     Katie%Steel%NULL%1,                     Janet%Stevenson%NULL%1,                     Christine%Evans%NULL%1,                     Duncan%McCormick%NULL%1,                     Lorna%Willocks%NULL%1,                     Alison%McCallum%NULL%1,                     Laura%Jones%NULL%1,                     Ingolfur%Johannessen%NULL%1,                     Kate%Templeton%NULL%1,                     Oliver%Koch%NULL%0,                     Claire%Mackintosh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Craig%Brammer%NULL%1,                      Stacy%Donohue%NULL%1,                      Timothy%Elwell%NULL%1,                      Eliza%Fishbein%NULL%1,                      D'Ante%Forschino%NULL%1,                      Dorothy%Horne%NULL%1,                      Buffy%Lloyd-Krejci%NULL%1,                      Jessica%Little%NULL%1,                      Bistra%Nikiforova%NULL%1,                      Elizabeth%Winterbauer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ayesha%Appa%Ayesha.appa@ucsf.edu%1,                      Gabriel%Chamie%NULL%1,                      Aenor%Sawyer%NULL%1,                      Kimberly%Baltzell%NULL%1,                      Kathryn%Dippell%NULL%1,                      Salu%Ribeiro%NULL%1,                      Elias%Duarte%NULL%1,                      Joanna%Vinden%NULL%1,                      CLIAHUB%Consortium%NULL%1,                      Jonathan%Kramer-Feldman%NULL%1,                      Shahryar%Rahdari%NULL%1,                      Doug%MacIntosh%NULL%1,                      Katherine%Nicholson%NULL%1,                      Jonathan%Im%NULL%1,                      Diane%Havlir%NULL%1,                      Bryan%Greenhouse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min Cheol%Chang%NULL%1,                      Wan-Seok%Seo%NULL%1,                      Donghwi%Park%NULL%1,                      Jian%Hur%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marci L.%Drees%NULL%1,                      Mia A.%Papas%NULL%1,                      Terri E.%Corbo%NULL%1,                      Kimberly D.%Williams%NULL%1,                      Sharon T.%Kurfuerst%NULL%2,                      Sharon T.%Kurfuerst%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Erin F.%Flynn%flynne@email.chop.edu%1,                      Elizabeth%Kuhn%NULL%1,                      Mohammed%Shaik%NULL%1,                      Elizabeth%Tarr%NULL%1,                      Nicole%Scattolini%NULL%1,                      Allison%Ballantine%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Scott A.%Goldberg%NULL%1,                      Robert A.%Bonacci%NULL%1,                      Lucas C.%Carlson%NULL%1,                      Charles T.%Pu%NULL%1,                      Christine S.%Ritchie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%0,                      Sadhu%Panda%NULL%2,                      Sadhu%Panda%NULL%0,                      Ebrahim%Khajeh%NULL%1,                      Alexandra%Halalau%alexandra.halalau@beaumont.edu%2,                      Alexandra%Halalau%alexandra.halalau@beaumont.edu%0,                      Jeffrey%Ditkoff%NULL%2,                      Jeffrey%Ditkoff%NULL%0,                      Jessica%Hamilton%NULL%2,                      Jessica%Hamilton%NULL%0,                      Aryana%Sharrak%NULL%2,                      Aryana%Sharrak%NULL%0,                      Aimen%Vanood%NULL%2,                      Aimen%Vanood%NULL%0,                      Amr%Abbas%NULL%2,                      Amr%Abbas%NULL%0,                      James%Ziadeh%NULL%2,                      James%Ziadeh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sang Il%Kim%NULL%1,                      Ji Yong%Lee%NULL%2,                      Ji Yong%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ki Tae%Kwon%NULL%1,                      Jae-Hoon%Ko%NULL%2,                      Jae-Hoon%Ko%NULL%0,                      Heejun%Shin%NULL%2,                      Heejun%Shin%NULL%0,                      Minki%Sung%NULL%2,                      Minki%Sung%NULL%0,                      Jin Yong%Kim%NULL%4,                      Jin Yong%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Elly%Lee%NULL%1,                      Nurul Yaqeen%Mohd Esa%NULL%1,                      Tong Ming%Wee%NULL%1,                      Chun Ian%Soo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yong Shik%Kwon%NULL%1,                      Sun Hyo%Park%NULL%2,                      Sun Hyo%Park%NULL%0,                      Hyun Jung%Kim%NULL%2,                      Hyun Jung%Kim%NULL%0,                      Ji Yeon%Lee%NULL%0,                      Ji Yeon%Lee%NULL%0,                      Mi-ri%Hyun%NULL%2,                      Mi-ri%Hyun%NULL%0,                      Hyun ah%Kim%NULL%2,                      Hyun ah%Kim%NULL%0,                      Jae Seok%Park%NULL%0,                      Jae Seok%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po-Ting%Lin%NULL%1,                      Ting-Yuan%Ni%NULL%1,                      Tren-Yi%Chen%NULL%1,                      Chih-Pei%Su%NULL%1,                      Hsiao-Fen%Sun%NULL%1,                      Mu-Kuan%Chen%NULL%1,                      Chu-Chung%Chou%NULL%1,                      Po-Yu%Wang%NULL%1,                      Yan-Ren%Lin%H6213.lac@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[David A%Lindholm%david.a.lindholm4.mil@mail.mil%1,                      John L%Kiley%NULL%2,                      John L%Kiley%NULL%0,                      Nathan K%Jansen%NULL%1,                      Robert T%Hoard%NULL%1,                      Matthew R%Bondaryk%NULL%1,                      Elizabeth M%Stanley%NULL%1,                      Gadiel R%Alvarado%NULL%1,                      Ana E%Markelz%NULL%1,                      Robert J%Cybulski%NULL%1,                      Jason F%Okulicz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Charmaine Malenab%Manauis%NULL%1,                      Marvin%Loh%marvin.loh@mohh.com.sg%1,                      James%Kwan%NULL%1,                      John%Chua Mingzhou%NULL%1,                      Han Jie%Teo%NULL%1,                      David%Teng Kuan Peng%NULL%1,                      Shawn%Vasoo Sushilan%NULL%1,                      Yee Sin%Leo%NULL%1,                      Ang%Hou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rivkees%Scott A.%coreGivesNoEmail%1,                     Roberson%Shamarial%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Eunhye%Seo%NULL%1,                      Eunchan%Mun%NULL%2,                      Eunchan%Mun%NULL%0,                      Wonsool%Kim%NULL%2,                      Wonsool%Kim%NULL%0,                      Changhwan%Lee%NULL%2,                      Changhwan%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aditya%Shah%shah.aditya@mayo.edu%1,                      Douglas%Challener%NULL%1,                      Aaron J.%Tande%NULL%1,                      Maryam%Mahmood%NULL%1,                      John C.%O’Horo%NULL%1,                      Elie%Berbari%NULL%1,                      Sarah J.%Crane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angie N.%Ton%NULL%1,                      Tarang%Jethwa%NULL%1,                      Karen%Waters%NULL%2,                      Karen%Waters%NULL%0,                      Leigh L.%Speicher%NULL%2,                      Leigh L.%Speicher%NULL%0,                      Dawn%Francis%NULL%2,                      Dawn%Francis%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kate%Mark%NULL%1,                      Katie%Steel%NULL%1,                      Janet%Stevenson%NULL%1,                      Christine%Evans%NULL%1,                      Duncan%McCormick%NULL%1,                      Lorna%Willocks%NULL%1,                      Alison%McCallum%NULL%1,                      Laura%Jones%NULL%1,                      Ingolfur%Johannessen%NULL%1,                      Kate%Templeton%NULL%1,                      Oliver%Koch%NULL%0,                      Claire%Mackintosh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Craig%Brammer%NULL%1,                       Stacy%Donohue%NULL%1,                       Timothy%Elwell%NULL%1,                       Eliza%Fishbein%NULL%1,                       D'Ante%Forschino%NULL%1,                       Dorothy%Horne%NULL%1,                       Buffy%Lloyd-Krejci%NULL%1,                       Jessica%Little%NULL%1,                       Bistra%Nikiforova%NULL%1,                       Elizabeth%Winterbauer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ayesha%Appa%Ayesha.appa@ucsf.edu%1,                       Gabriel%Chamie%NULL%1,                       Aenor%Sawyer%NULL%1,                       Kimberly%Baltzell%NULL%1,                       Kathryn%Dippell%NULL%1,                       Salu%Ribeiro%NULL%1,                       Elias%Duarte%NULL%1,                       Joanna%Vinden%NULL%1,                       CLIAHUB%Consortium%NULL%1,                       Jonathan%Kramer-Feldman%NULL%1,                       Shahryar%Rahdari%NULL%1,                       Doug%MacIntosh%NULL%1,                       Katherine%Nicholson%NULL%1,                       Jonathan%Im%NULL%1,                       Diane%Havlir%NULL%1,                       Bryan%Greenhouse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min Cheol%Chang%NULL%1,                       Wan-Seok%Seo%NULL%1,                       Donghwi%Park%NULL%1,                       Jian%Hur%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marci L.%Drees%NULL%1,                       Mia A.%Papas%NULL%1,                       Terri E.%Corbo%NULL%1,                       Kimberly D.%Williams%NULL%1,                       Sharon T.%Kurfuerst%NULL%2,                       Sharon T.%Kurfuerst%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Erin F.%Flynn%flynne@email.chop.edu%1,                       Elizabeth%Kuhn%NULL%1,                       Mohammed%Shaik%NULL%1,                       Elizabeth%Tarr%NULL%1,                       Nicole%Scattolini%NULL%1,                       Allison%Ballantine%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Scott A.%Goldberg%NULL%1,                       Robert A.%Bonacci%NULL%1,                       Lucas C.%Carlson%NULL%1,                       Charles T.%Pu%NULL%1,                       Christine S.%Ritchie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%0,                       Sadhu%Panda%NULL%2,                       Sadhu%Panda%NULL%0,                       Ebrahim%Khajeh%NULL%1,                       Alexandra%Halalau%alexandra.halalau@beaumont.edu%2,                       Alexandra%Halalau%alexandra.halalau@beaumont.edu%0,                       Jeffrey%Ditkoff%NULL%2,                       Jeffrey%Ditkoff%NULL%0,                       Jessica%Hamilton%NULL%2,                       Jessica%Hamilton%NULL%0,                       Aryana%Sharrak%NULL%2,                       Aryana%Sharrak%NULL%0,                       Aimen%Vanood%NULL%2,                       Aimen%Vanood%NULL%0,                       Amr%Abbas%NULL%2,                       Amr%Abbas%NULL%0,                       James%Ziadeh%NULL%2,                       James%Ziadeh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sang Il%Kim%NULL%1,                       Ji Yong%Lee%NULL%2,                       Ji Yong%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ki Tae%Kwon%NULL%1,                       Jae-Hoon%Ko%NULL%2,                       Jae-Hoon%Ko%NULL%0,                       Heejun%Shin%NULL%2,                       Heejun%Shin%NULL%0,                       Minki%Sung%NULL%2,                       Minki%Sung%NULL%0,                       Jin Yong%Kim%NULL%4,                       Jin Yong%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Elly%Lee%NULL%1,                       Nurul Yaqeen%Mohd Esa%NULL%1,                       Tong Ming%Wee%NULL%1,                       Chun Ian%Soo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yong Shik%Kwon%NULL%1,                       Sun Hyo%Park%NULL%2,                       Sun Hyo%Park%NULL%0,                       Hyun Jung%Kim%NULL%2,                       Hyun Jung%Kim%NULL%0,                       Ji Yeon%Lee%NULL%0,                       Ji Yeon%Lee%NULL%0,                       Mi-ri%Hyun%NULL%2,                       Mi-ri%Hyun%NULL%0,                       Hyun ah%Kim%NULL%2,                       Hyun ah%Kim%NULL%0,                       Jae Seok%Park%NULL%0,                       Jae Seok%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po-Ting%Lin%NULL%1,                       Ting-Yuan%Ni%NULL%1,                       Tren-Yi%Chen%NULL%1,                       Chih-Pei%Su%NULL%1,                       Hsiao-Fen%Sun%NULL%1,                       Mu-Kuan%Chen%NULL%1,                       Chu-Chung%Chou%NULL%1,                       Po-Yu%Wang%NULL%1,                       Yan-Ren%Lin%H6213.lac@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[David A%Lindholm%david.a.lindholm4.mil@mail.mil%1,                       John L%Kiley%NULL%2,                       John L%Kiley%NULL%0,                       Nathan K%Jansen%NULL%1,                       Robert T%Hoard%NULL%1,                       Matthew R%Bondaryk%NULL%1,                       Elizabeth M%Stanley%NULL%1,                       Gadiel R%Alvarado%NULL%1,                       Ana E%Markelz%NULL%1,                       Robert J%Cybulski%NULL%1,                       Jason F%Okulicz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Charmaine Malenab%Manauis%NULL%1,                       Marvin%Loh%marvin.loh@mohh.com.sg%1,                       James%Kwan%NULL%1,                       John%Chua Mingzhou%NULL%1,                       Han Jie%Teo%NULL%1,                       David%Teng Kuan Peng%NULL%1,                       Shawn%Vasoo Sushilan%NULL%1,                       Yee Sin%Leo%NULL%1,                       Ang%Hou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rivkees%Scott A.%coreGivesNoEmail%1,                      Roberson%Shamarial%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Eunhye%Seo%NULL%1,                       Eunchan%Mun%NULL%2,                       Eunchan%Mun%NULL%0,                       Wonsool%Kim%NULL%2,                       Wonsool%Kim%NULL%0,                       Changhwan%Lee%NULL%2,                       Changhwan%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aditya%Shah%shah.aditya@mayo.edu%1,                       Douglas%Challener%NULL%1,                       Aaron J.%Tande%NULL%1,                       Maryam%Mahmood%NULL%1,                       John C.%O’Horo%NULL%1,                       Elie%Berbari%NULL%1,                       Sarah J.%Crane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angie N.%Ton%NULL%1,                       Tarang%Jethwa%NULL%1,                       Karen%Waters%NULL%2,                       Karen%Waters%NULL%0,                       Leigh L.%Speicher%NULL%2,                       Leigh L.%Speicher%NULL%0,                       Dawn%Francis%NULL%2,                       Dawn%Francis%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kate%Mark%NULL%1,                       Katie%Steel%NULL%1,                       Janet%Stevenson%NULL%1,                       Christine%Evans%NULL%1,                       Duncan%McCormick%NULL%1,                       Lorna%Willocks%NULL%1,                       Alison%McCallum%NULL%1,                       Laura%Jones%NULL%1,                       Ingolfur%Johannessen%NULL%1,                       Kate%Templeton%NULL%1,                       Oliver%Koch%NULL%0,                       Claire%Mackintosh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Craig%Brammer%NULL%1,                        Stacy%Donohue%NULL%1,                        Timothy%Elwell%NULL%1,                        Eliza%Fishbein%NULL%1,                        D'Ante%Forschino%NULL%1,                        Dorothy%Horne%NULL%1,                        Buffy%Lloyd-Krejci%NULL%1,                        Jessica%Little%NULL%1,                        Bistra%Nikiforova%NULL%1,                        Elizabeth%Winterbauer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ayesha%Appa%Ayesha.appa@ucsf.edu%1,                        Gabriel%Chamie%NULL%1,                        Aenor%Sawyer%NULL%1,                        Kimberly%Baltzell%NULL%1,                        Kathryn%Dippell%NULL%1,                        Salu%Ribeiro%NULL%1,                        Elias%Duarte%NULL%1,                        Joanna%Vinden%NULL%1,                        CLIAHUB%Consortium%NULL%1,                        Jonathan%Kramer-Feldman%NULL%1,                        Shahryar%Rahdari%NULL%1,                        Doug%MacIntosh%NULL%1,                        Katherine%Nicholson%NULL%1,                        Jonathan%Im%NULL%1,                        Diane%Havlir%NULL%1,                        Bryan%Greenhouse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min Cheol%Chang%NULL%1,                        Wan-Seok%Seo%NULL%1,                        Donghwi%Park%NULL%1,                        Jian%Hur%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marci L.%Drees%NULL%1,                        Mia A.%Papas%NULL%1,                        Terri E.%Corbo%NULL%1,                        Kimberly D.%Williams%NULL%1,                        Sharon T.%Kurfuerst%NULL%2,                        Sharon T.%Kurfuerst%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Erin F.%Flynn%flynne@email.chop.edu%1,                        Elizabeth%Kuhn%NULL%1,                        Mohammed%Shaik%NULL%1,                        Elizabeth%Tarr%NULL%1,                        Nicole%Scattolini%NULL%1,                        Allison%Ballantine%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Scott A.%Goldberg%NULL%1,                        Robert A.%Bonacci%NULL%1,                        Lucas C.%Carlson%NULL%1,                        Charles T.%Pu%NULL%1,                        Christine S.%Ritchie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%0,                        Sadhu%Panda%NULL%2,                        Sadhu%Panda%NULL%0,                        Ebrahim%Khajeh%NULL%1,                        Alexandra%Halalau%alexandra.halalau@beaumont.edu%2,                        Alexandra%Halalau%alexandra.halalau@beaumont.edu%0,                        Jeffrey%Ditkoff%NULL%2,                        Jeffrey%Ditkoff%NULL%0,                        Jessica%Hamilton%NULL%2,                        Jessica%Hamilton%NULL%0,                        Aryana%Sharrak%NULL%2,                        Aryana%Sharrak%NULL%0,                        Aimen%Vanood%NULL%2,                        Aimen%Vanood%NULL%0,                        Amr%Abbas%NULL%2,                        Amr%Abbas%NULL%0,                        James%Ziadeh%NULL%2,                        James%Ziadeh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sang Il%Kim%NULL%1,                        Ji Yong%Lee%NULL%2,                        Ji Yong%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ki Tae%Kwon%NULL%1,                        Jae-Hoon%Ko%NULL%2,                        Jae-Hoon%Ko%NULL%0,                        Heejun%Shin%NULL%2,                        Heejun%Shin%NULL%0,                        Minki%Sung%NULL%2,                        Minki%Sung%NULL%0,                        Jin Yong%Kim%NULL%4,                        Jin Yong%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Elly%Lee%NULL%1,                        Nurul Yaqeen%Mohd Esa%NULL%1,                        Tong Ming%Wee%NULL%1,                        Chun Ian%Soo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yong Shik%Kwon%NULL%1,                        Sun Hyo%Park%NULL%2,                        Sun Hyo%Park%NULL%0,                        Hyun Jung%Kim%NULL%2,                        Hyun Jung%Kim%NULL%0,                        Ji Yeon%Lee%NULL%0,                        Ji Yeon%Lee%NULL%0,                        Mi-ri%Hyun%NULL%2,                        Mi-ri%Hyun%NULL%0,                        Hyun ah%Kim%NULL%2,                        Hyun ah%Kim%NULL%0,                        Jae Seok%Park%NULL%0,                        Jae Seok%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po-Ting%Lin%NULL%1,                        Ting-Yuan%Ni%NULL%1,                        Tren-Yi%Chen%NULL%1,                        Chih-Pei%Su%NULL%1,                        Hsiao-Fen%Sun%NULL%1,                        Mu-Kuan%Chen%NULL%1,                        Chu-Chung%Chou%NULL%1,                        Po-Yu%Wang%NULL%1,                        Yan-Ren%Lin%H6213.lac@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[David A%Lindholm%david.a.lindholm4.mil@mail.mil%1,                        John L%Kiley%NULL%2,                        John L%Kiley%NULL%0,                        Nathan K%Jansen%NULL%1,                        Robert T%Hoard%NULL%1,                        Matthew R%Bondaryk%NULL%1,                        Elizabeth M%Stanley%NULL%1,                        Gadiel R%Alvarado%NULL%1,                        Ana E%Markelz%NULL%1,                        Robert J%Cybulski%NULL%1,                        Jason F%Okulicz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Charmaine Malenab%Manauis%NULL%1,                        Marvin%Loh%marvin.loh@mohh.com.sg%1,                        James%Kwan%NULL%1,                        John%Chua Mingzhou%NULL%1,                        Han Jie%Teo%NULL%1,                        David%Teng Kuan Peng%NULL%1,                        Shawn%Vasoo Sushilan%NULL%1,                        Yee Sin%Leo%NULL%1,                        Ang%Hou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rivkees%Scott A.%coreGivesNoEmail%1,                       Roberson%Shamarial%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Eunhye%Seo%NULL%1,                        Eunchan%Mun%NULL%2,                        Eunchan%Mun%NULL%0,                        Wonsool%Kim%NULL%2,                        Wonsool%Kim%NULL%0,                        Changhwan%Lee%NULL%2,                        Changhwan%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aditya%Shah%shah.aditya@mayo.edu%1,                        Douglas%Challener%NULL%1,                        Aaron J.%Tande%NULL%1,                        Maryam%Mahmood%NULL%1,                        John C.%O’Horo%NULL%1,                        Elie%Berbari%NULL%1,                        Sarah J.%Crane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angie N.%Ton%NULL%1,                        Tarang%Jethwa%NULL%1,                        Karen%Waters%NULL%2,                        Karen%Waters%NULL%0,                        Leigh L.%Speicher%NULL%2,                        Leigh L.%Speicher%NULL%0,                        Dawn%Francis%NULL%2,                        Dawn%Francis%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kate%Mark%NULL%1,                        Katie%Steel%NULL%1,                        Janet%Stevenson%NULL%1,                        Christine%Evans%NULL%1,                        Duncan%McCormick%NULL%1,                        Lorna%Willocks%NULL%1,                        Alison%McCallum%NULL%1,                        Laura%Jones%NULL%1,                        Ingolfur%Johannessen%NULL%1,                        Kate%Templeton%NULL%1,                        Oliver%Koch%NULL%0,                        Claire%Mackintosh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Craig%Brammer%NULL%1,                         Stacy%Donohue%NULL%1,                         Timothy%Elwell%NULL%1,                         Eliza%Fishbein%NULL%1,                         D'Ante%Forschino%NULL%1,                         Dorothy%Horne%NULL%1,                         Buffy%Lloyd-Krejci%NULL%1,                         Jessica%Little%NULL%1,                         Bistra%Nikiforova%NULL%1,                         Elizabeth%Winterbauer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ayesha%Appa%Ayesha.appa@ucsf.edu%1,                         Gabriel%Chamie%NULL%1,                         Aenor%Sawyer%NULL%1,                         Kimberly%Baltzell%NULL%1,                         Kathryn%Dippell%NULL%1,                         Salu%Ribeiro%NULL%1,                         Elias%Duarte%NULL%1,                         Joanna%Vinden%NULL%1,                         CLIAHUB%Consortium%NULL%1,                         Jonathan%Kramer-Feldman%NULL%1,                         Shahryar%Rahdari%NULL%1,                         Doug%MacIntosh%NULL%1,                         Katherine%Nicholson%NULL%1,                         Jonathan%Im%NULL%1,                         Diane%Havlir%NULL%1,                         Bryan%Greenhouse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min Cheol%Chang%NULL%1,                         Wan-Seok%Seo%NULL%1,                         Donghwi%Park%NULL%1,                         Jian%Hur%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marci L.%Drees%NULL%1,                         Mia A.%Papas%NULL%1,                         Terri E.%Corbo%NULL%1,                         Kimberly D.%Williams%NULL%1,                         Sharon T.%Kurfuerst%NULL%2,                         Sharon T.%Kurfuerst%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Erin F.%Flynn%flynne@email.chop.edu%1,                         Elizabeth%Kuhn%NULL%1,                         Mohammed%Shaik%NULL%1,                         Elizabeth%Tarr%NULL%1,                         Nicole%Scattolini%NULL%1,                         Allison%Ballantine%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Scott A.%Goldberg%NULL%1,                         Robert A.%Bonacci%NULL%1,                         Lucas C.%Carlson%NULL%1,                         Charles T.%Pu%NULL%1,                         Christine S.%Ritchie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%0,                         Sadhu%Panda%NULL%2,                         Sadhu%Panda%NULL%0,                         Ebrahim%Khajeh%NULL%1,                         Alexandra%Halalau%alexandra.halalau@beaumont.edu%2,                         Alexandra%Halalau%alexandra.halalau@beaumont.edu%0,                         Jeffrey%Ditkoff%NULL%2,                         Jeffrey%Ditkoff%NULL%0,                         Jessica%Hamilton%NULL%2,                         Jessica%Hamilton%NULL%0,                         Aryana%Sharrak%NULL%2,                         Aryana%Sharrak%NULL%0,                         Aimen%Vanood%NULL%2,                         Aimen%Vanood%NULL%0,                         Amr%Abbas%NULL%2,                         Amr%Abbas%NULL%0,                         James%Ziadeh%NULL%2,                         James%Ziadeh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sang Il%Kim%NULL%1,                         Ji Yong%Lee%NULL%2,                         Ji Yong%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ki Tae%Kwon%NULL%1,                         Jae-Hoon%Ko%NULL%2,                         Jae-Hoon%Ko%NULL%0,                         Heejun%Shin%NULL%2,                         Heejun%Shin%NULL%0,                         Minki%Sung%NULL%2,                         Minki%Sung%NULL%0,                         Jin Yong%Kim%NULL%4,                         Jin Yong%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Elly%Lee%NULL%1,                         Nurul Yaqeen%Mohd Esa%NULL%1,                         Tong Ming%Wee%NULL%1,                         Chun Ian%Soo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yong Shik%Kwon%NULL%1,                         Sun Hyo%Park%NULL%2,                         Sun Hyo%Park%NULL%0,                         Hyun Jung%Kim%NULL%2,                         Hyun Jung%Kim%NULL%0,                         Ji Yeon%Lee%NULL%0,                         Ji Yeon%Lee%NULL%0,                         Mi-ri%Hyun%NULL%2,                         Mi-ri%Hyun%NULL%0,                         Hyun ah%Kim%NULL%2,                         Hyun ah%Kim%NULL%0,                         Jae Seok%Park%NULL%0,                         Jae Seok%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po-Ting%Lin%NULL%1,                         Ting-Yuan%Ni%NULL%1,                         Tren-Yi%Chen%NULL%1,                         Chih-Pei%Su%NULL%1,                         Hsiao-Fen%Sun%NULL%1,                         Mu-Kuan%Chen%NULL%1,                         Chu-Chung%Chou%NULL%1,                         Po-Yu%Wang%NULL%1,                         Yan-Ren%Lin%H6213.lac@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[David A%Lindholm%david.a.lindholm4.mil@mail.mil%1,                         John L%Kiley%NULL%2,                         John L%Kiley%NULL%0,                         Nathan K%Jansen%NULL%1,                         Robert T%Hoard%NULL%1,                         Matthew R%Bondaryk%NULL%1,                         Elizabeth M%Stanley%NULL%1,                         Gadiel R%Alvarado%NULL%1,                         Ana E%Markelz%NULL%1,                         Robert J%Cybulski%NULL%1,                         Jason F%Okulicz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Charmaine Malenab%Manauis%NULL%1,                         Marvin%Loh%marvin.loh@mohh.com.sg%1,                         James%Kwan%NULL%1,                         John%Chua Mingzhou%NULL%1,                         Han Jie%Teo%NULL%1,                         David%Teng Kuan Peng%NULL%1,                         Shawn%Vasoo Sushilan%NULL%1,                         Yee Sin%Leo%NULL%1,                         Ang%Hou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rivkees%Scott A.%coreGivesNoEmail%1,                        Roberson%Shamarial%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Eunhye%Seo%NULL%1,                         Eunchan%Mun%NULL%2,                         Eunchan%Mun%NULL%0,                         Wonsool%Kim%NULL%2,                         Wonsool%Kim%NULL%0,                         Changhwan%Lee%NULL%2,                         Changhwan%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aditya%Shah%shah.aditya@mayo.edu%1,                         Douglas%Challener%NULL%1,                         Aaron J.%Tande%NULL%1,                         Maryam%Mahmood%NULL%1,                         John C.%O’Horo%NULL%1,                         Elie%Berbari%NULL%1,                         Sarah J.%Crane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angie N.%Ton%NULL%1,                         Tarang%Jethwa%NULL%1,                         Karen%Waters%NULL%2,                         Karen%Waters%NULL%0,                         Leigh L.%Speicher%NULL%2,                         Leigh L.%Speicher%NULL%0,                         Dawn%Francis%NULL%2,                         Dawn%Francis%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kate%Mark%NULL%1,                         Katie%Steel%NULL%1,                         Janet%Stevenson%NULL%1,                         Christine%Evans%NULL%1,                         Duncan%McCormick%NULL%1,                         Lorna%Willocks%NULL%1,                         Alison%McCallum%NULL%1,                         Laura%Jones%NULL%1,                         Ingolfur%Johannessen%NULL%1,                         Kate%Templeton%NULL%1,                         Oliver%Koch%NULL%0,                         Claire%Mackintosh%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2060,6 +2354,9 @@
       <c r="I1" t="s">
         <v>151</v>
       </c>
+      <c r="J1" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -2075,7 +2372,7 @@
         <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>499</v>
+        <v>598</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -2088,6 +2385,9 @@
       </c>
       <c r="I2" t="s">
         <v>476</v>
+      </c>
+      <c r="J2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -2104,7 +2404,7 @@
         <v>334</v>
       </c>
       <c r="E3" t="s">
-        <v>500</v>
+        <v>599</v>
       </c>
       <c r="F3" t="s">
         <v>45</v>
@@ -2117,6 +2417,9 @@
       </c>
       <c r="I3" t="s">
         <v>478</v>
+      </c>
+      <c r="J3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4">
@@ -2133,7 +2436,7 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>501</v>
+        <v>600</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -2146,6 +2449,9 @@
       </c>
       <c r="I4" t="s">
         <v>480</v>
+      </c>
+      <c r="J4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5">
@@ -2162,7 +2468,7 @@
         <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>502</v>
+        <v>601</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
@@ -2175,6 +2481,9 @@
       </c>
       <c r="I5" t="s">
         <v>480</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6">
@@ -2191,7 +2500,7 @@
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>503</v>
+        <v>602</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
@@ -2204,6 +2513,9 @@
       </c>
       <c r="I6" t="s">
         <v>476</v>
+      </c>
+      <c r="J6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7">
@@ -2220,7 +2532,7 @@
         <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>504</v>
+        <v>603</v>
       </c>
       <c r="F7" t="s">
         <v>64</v>
@@ -2233,6 +2545,9 @@
       </c>
       <c r="I7" t="s">
         <v>480</v>
+      </c>
+      <c r="J7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -2249,7 +2564,7 @@
         <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>505</v>
+        <v>604</v>
       </c>
       <c r="F8" t="s">
         <v>69</v>
@@ -2262,6 +2577,9 @@
       </c>
       <c r="I8" t="s">
         <v>480</v>
+      </c>
+      <c r="J8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9">
@@ -2292,6 +2610,9 @@
       <c r="I9" t="s">
         <v>480</v>
       </c>
+      <c r="J9" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -2307,7 +2628,7 @@
         <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>506</v>
+        <v>605</v>
       </c>
       <c r="F10" t="s">
         <v>79</v>
@@ -2320,6 +2641,9 @@
       </c>
       <c r="I10" t="s">
         <v>480</v>
+      </c>
+      <c r="J10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11">
@@ -2336,7 +2660,7 @@
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>507</v>
+        <v>342</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -2348,7 +2672,10 @@
         <v>261</v>
       </c>
       <c r="I11" t="s">
-        <v>487</v>
+        <v>53</v>
+      </c>
+      <c r="J11" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="12">
@@ -2365,7 +2692,7 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>508</v>
+        <v>606</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -2378,6 +2705,9 @@
       </c>
       <c r="I12" t="s">
         <v>480</v>
+      </c>
+      <c r="J12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13">
@@ -2394,7 +2724,7 @@
         <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>509</v>
+        <v>607</v>
       </c>
       <c r="F13" t="s">
         <v>90</v>
@@ -2407,6 +2737,9 @@
       </c>
       <c r="I13" t="s">
         <v>476</v>
+      </c>
+      <c r="J13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14">
@@ -2423,7 +2756,7 @@
         <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>510</v>
+        <v>608</v>
       </c>
       <c r="F14" t="s">
         <v>95</v>
@@ -2436,6 +2769,9 @@
       </c>
       <c r="I14" t="s">
         <v>480</v>
+      </c>
+      <c r="J14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="15">
@@ -2452,7 +2788,7 @@
         <v>346</v>
       </c>
       <c r="E15" t="s">
-        <v>511</v>
+        <v>609</v>
       </c>
       <c r="F15" t="s">
         <v>100</v>
@@ -2465,6 +2801,9 @@
       </c>
       <c r="I15" t="s">
         <v>478</v>
+      </c>
+      <c r="J15" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="16">
@@ -2481,7 +2820,7 @@
         <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>512</v>
+        <v>610</v>
       </c>
       <c r="F16" t="s">
         <v>105</v>
@@ -2494,6 +2833,9 @@
       </c>
       <c r="I16" t="s">
         <v>480</v>
+      </c>
+      <c r="J16" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17">
@@ -2510,7 +2852,7 @@
         <v>108</v>
       </c>
       <c r="E17" t="s">
-        <v>513</v>
+        <v>611</v>
       </c>
       <c r="F17" t="s">
         <v>110</v>
@@ -2523,6 +2865,9 @@
       </c>
       <c r="I17" t="s">
         <v>480</v>
+      </c>
+      <c r="J17" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="18">
@@ -2539,7 +2884,7 @@
         <v>144</v>
       </c>
       <c r="E18" t="s">
-        <v>514</v>
+        <v>612</v>
       </c>
       <c r="F18" t="s">
         <v>20</v>
@@ -2552,6 +2897,9 @@
       </c>
       <c r="I18" t="s">
         <v>487</v>
+      </c>
+      <c r="J18" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19">
@@ -2568,7 +2916,7 @@
         <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>515</v>
+        <v>613</v>
       </c>
       <c r="F19" t="s">
         <v>115</v>
@@ -2581,6 +2929,9 @@
       </c>
       <c r="I19" t="s">
         <v>480</v>
+      </c>
+      <c r="J19" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="20">
@@ -2597,7 +2948,7 @@
         <v>118</v>
       </c>
       <c r="E20" t="s">
-        <v>516</v>
+        <v>614</v>
       </c>
       <c r="F20" t="s">
         <v>120</v>
@@ -2610,6 +2961,9 @@
       </c>
       <c r="I20" t="s">
         <v>476</v>
+      </c>
+      <c r="J20" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -2626,7 +2980,7 @@
         <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>517</v>
+        <v>615</v>
       </c>
       <c r="F21" t="s">
         <v>123</v>
@@ -2639,6 +2993,9 @@
       </c>
       <c r="I21" t="s">
         <v>476</v>
+      </c>
+      <c r="J21" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="22">
@@ -2655,7 +3012,7 @@
         <v>125</v>
       </c>
       <c r="E22" t="s">
-        <v>518</v>
+        <v>616</v>
       </c>
       <c r="F22" t="s">
         <v>127</v>
@@ -2668,6 +3025,9 @@
       </c>
       <c r="I22" t="s">
         <v>480</v>
+      </c>
+      <c r="J22" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/63.xlsx
+++ b/Covid_19_Dataset_and_References/References/63.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4117" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4469" uniqueCount="655">
   <si>
     <t>Doi</t>
   </si>
@@ -2015,6 +2015,120 @@
   </si>
   <si>
     <t>[Kate%Mark%NULL%1,                         Katie%Steel%NULL%1,                         Janet%Stevenson%NULL%1,                         Christine%Evans%NULL%1,                         Duncan%McCormick%NULL%1,                         Lorna%Willocks%NULL%1,                         Alison%McCallum%NULL%1,                         Laura%Jones%NULL%1,                         Ingolfur%Johannessen%NULL%1,                         Kate%Templeton%NULL%1,                         Oliver%Koch%NULL%0,                         Claire%Mackintosh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Craig%Brammer%NULL%1,                          Stacy%Donohue%NULL%1,                          Timothy%Elwell%NULL%1,                          Eliza%Fishbein%NULL%1,                          D'Ante%Forschino%NULL%1,                          Dorothy%Horne%NULL%1,                          Buffy%Lloyd-Krejci%NULL%1,                          Jessica%Little%NULL%1,                          Bistra%Nikiforova%NULL%1,                          Elizabeth%Winterbauer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ayesha%Appa%Ayesha.appa@ucsf.edu%1,                          Gabriel%Chamie%NULL%1,                          Aenor%Sawyer%NULL%1,                          Kimberly%Baltzell%NULL%1,                          Kathryn%Dippell%NULL%1,                          Salu%Ribeiro%NULL%1,                          Elias%Duarte%NULL%1,                          Joanna%Vinden%NULL%1,                          CLIAHUB%Consortium%NULL%1,                          Jonathan%Kramer-Feldman%NULL%1,                          Shahryar%Rahdari%NULL%1,                          Doug%MacIntosh%NULL%1,                          Katherine%Nicholson%NULL%1,                          Jonathan%Im%NULL%1,                          Diane%Havlir%NULL%1,                          Bryan%Greenhouse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min Cheol%Chang%NULL%1,                          Wan-Seok%Seo%NULL%1,                          Donghwi%Park%NULL%1,                          Jian%Hur%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marci L.%Drees%NULL%1,                          Mia A.%Papas%NULL%1,                          Terri E.%Corbo%NULL%1,                          Kimberly D.%Williams%NULL%1,                          Sharon T.%Kurfuerst%NULL%2,                          Sharon T.%Kurfuerst%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Erin F.%Flynn%flynne@email.chop.edu%1,                          Elizabeth%Kuhn%NULL%1,                          Mohammed%Shaik%NULL%1,                          Elizabeth%Tarr%NULL%1,                          Nicole%Scattolini%NULL%1,                          Allison%Ballantine%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Scott A.%Goldberg%NULL%1,                          Robert A.%Bonacci%NULL%1,                          Lucas C.%Carlson%NULL%1,                          Charles T.%Pu%NULL%1,                          Christine S.%Ritchie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%0,                          Sadhu%Panda%NULL%2,                          Sadhu%Panda%NULL%0,                          Ebrahim%Khajeh%NULL%1,                          Alexandra%Halalau%alexandra.halalau@beaumont.edu%2,                          Alexandra%Halalau%alexandra.halalau@beaumont.edu%0,                          Jeffrey%Ditkoff%NULL%2,                          Jeffrey%Ditkoff%NULL%0,                          Jessica%Hamilton%NULL%2,                          Jessica%Hamilton%NULL%0,                          Aryana%Sharrak%NULL%2,                          Aryana%Sharrak%NULL%0,                          Aimen%Vanood%NULL%2,                          Aimen%Vanood%NULL%0,                          Amr%Abbas%NULL%2,                          Amr%Abbas%NULL%0,                          James%Ziadeh%NULL%2,                          James%Ziadeh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sang Il%Kim%NULL%1,                          Ji Yong%Lee%NULL%2,                          Ji Yong%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ki Tae%Kwon%NULL%1,                          Jae-Hoon%Ko%NULL%2,                          Jae-Hoon%Ko%NULL%0,                          Heejun%Shin%NULL%2,                          Heejun%Shin%NULL%0,                          Minki%Sung%NULL%2,                          Minki%Sung%NULL%0,                          Jin Yong%Kim%NULL%4,                          Jin Yong%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Elly%Lee%NULL%1,                          Nurul Yaqeen%Mohd Esa%NULL%1,                          Tong Ming%Wee%NULL%1,                          Chun Ian%Soo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yong Shik%Kwon%NULL%1,                          Sun Hyo%Park%NULL%2,                          Sun Hyo%Park%NULL%0,                          Hyun Jung%Kim%NULL%2,                          Hyun Jung%Kim%NULL%0,                          Ji Yeon%Lee%NULL%0,                          Ji Yeon%Lee%NULL%0,                          Mi-ri%Hyun%NULL%2,                          Mi-ri%Hyun%NULL%0,                          Hyun ah%Kim%NULL%2,                          Hyun ah%Kim%NULL%0,                          Jae Seok%Park%NULL%0,                          Jae Seok%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po-Ting%Lin%NULL%1,                          Ting-Yuan%Ni%NULL%1,                          Tren-Yi%Chen%NULL%1,                          Chih-Pei%Su%NULL%1,                          Hsiao-Fen%Sun%NULL%1,                          Mu-Kuan%Chen%NULL%1,                          Chu-Chung%Chou%NULL%1,                          Po-Yu%Wang%NULL%1,                          Yan-Ren%Lin%H6213.lac@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[David A%Lindholm%david.a.lindholm4.mil@mail.mil%1,                          John L%Kiley%NULL%2,                          John L%Kiley%NULL%0,                          Nathan K%Jansen%NULL%1,                          Robert T%Hoard%NULL%1,                          Matthew R%Bondaryk%NULL%1,                          Elizabeth M%Stanley%NULL%1,                          Gadiel R%Alvarado%NULL%1,                          Ana E%Markelz%NULL%1,                          Robert J%Cybulski%NULL%1,                          Jason F%Okulicz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Charmaine Malenab%Manauis%NULL%1,                          Marvin%Loh%marvin.loh@mohh.com.sg%1,                          James%Kwan%NULL%1,                          John%Chua Mingzhou%NULL%1,                          Han Jie%Teo%NULL%1,                          David%Teng Kuan Peng%NULL%1,                          Shawn%Vasoo Sushilan%NULL%1,                          Yee Sin%Leo%NULL%1,                          Ang%Hou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rivkees%Scott A.%coreGivesNoEmail%1,                         Roberson%Shamarial%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Eunhye%Seo%NULL%1,                          Eunchan%Mun%NULL%2,                          Eunchan%Mun%NULL%0,                          Wonsool%Kim%NULL%2,                          Wonsool%Kim%NULL%0,                          Changhwan%Lee%NULL%2,                          Changhwan%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aditya%Shah%shah.aditya@mayo.edu%1,                          Douglas%Challener%NULL%1,                          Aaron J.%Tande%NULL%1,                          Maryam%Mahmood%NULL%1,                          John C.%O’Horo%NULL%1,                          Elie%Berbari%NULL%1,                          Sarah J.%Crane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angie N.%Ton%NULL%1,                          Tarang%Jethwa%NULL%1,                          Karen%Waters%NULL%2,                          Karen%Waters%NULL%0,                          Leigh L.%Speicher%NULL%2,                          Leigh L.%Speicher%NULL%0,                          Dawn%Francis%NULL%2,                          Dawn%Francis%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kate%Mark%NULL%1,                          Katie%Steel%NULL%1,                          Janet%Stevenson%NULL%1,                          Christine%Evans%NULL%1,                          Duncan%McCormick%NULL%1,                          Lorna%Willocks%NULL%1,                          Alison%McCallum%NULL%1,                          Laura%Jones%NULL%1,                          Ingolfur%Johannessen%NULL%1,                          Kate%Templeton%NULL%1,                          Oliver%Koch%NULL%0,                          Claire%Mackintosh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Craig%Brammer%NULL%1,                           Stacy%Donohue%NULL%1,                           Timothy%Elwell%NULL%1,                           Eliza%Fishbein%NULL%1,                           D'Ante%Forschino%NULL%1,                           Dorothy%Horne%NULL%1,                           Buffy%Lloyd-Krejci%NULL%1,                           Jessica%Little%NULL%1,                           Bistra%Nikiforova%NULL%1,                           Elizabeth%Winterbauer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ayesha%Appa%Ayesha.appa@ucsf.edu%1,                           Gabriel%Chamie%NULL%1,                           Aenor%Sawyer%NULL%1,                           Kimberly%Baltzell%NULL%1,                           Kathryn%Dippell%NULL%1,                           Salu%Ribeiro%NULL%1,                           Elias%Duarte%NULL%1,                           Joanna%Vinden%NULL%1,                           CLIAHUB%Consortium%NULL%1,                           Jonathan%Kramer-Feldman%NULL%1,                           Shahryar%Rahdari%NULL%1,                           Doug%MacIntosh%NULL%1,                           Katherine%Nicholson%NULL%1,                           Jonathan%Im%NULL%1,                           Diane%Havlir%NULL%1,                           Bryan%Greenhouse%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Min Cheol%Chang%NULL%1,                           Wan-Seok%Seo%NULL%1,                           Donghwi%Park%NULL%1,                           Jian%Hur%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Marci L.%Drees%NULL%1,                           Mia A.%Papas%NULL%1,                           Terri E.%Corbo%NULL%1,                           Kimberly D.%Williams%NULL%1,                           Sharon T.%Kurfuerst%NULL%2,                           Sharon T.%Kurfuerst%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Erin F.%Flynn%flynne@email.chop.edu%1,                           Elizabeth%Kuhn%NULL%1,                           Mohammed%Shaik%NULL%1,                           Elizabeth%Tarr%NULL%1,                           Nicole%Scattolini%NULL%1,                           Allison%Ballantine%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Scott A.%Goldberg%NULL%1,                           Robert A.%Bonacci%NULL%1,                           Lucas C.%Carlson%NULL%1,                           Charles T.%Pu%NULL%1,                           Christine S.%Ritchie%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Travis%Sanchez%NULL%0,                           Sadhu%Panda%NULL%2,                           Sadhu%Panda%NULL%0,                           Ebrahim%Khajeh%NULL%1,                           Alexandra%Halalau%alexandra.halalau@beaumont.edu%2,                           Alexandra%Halalau%alexandra.halalau@beaumont.edu%0,                           Jeffrey%Ditkoff%NULL%2,                           Jeffrey%Ditkoff%NULL%0,                           Jessica%Hamilton%NULL%2,                           Jessica%Hamilton%NULL%0,                           Aryana%Sharrak%NULL%2,                           Aryana%Sharrak%NULL%0,                           Aimen%Vanood%NULL%2,                           Aimen%Vanood%NULL%0,                           Amr%Abbas%NULL%2,                           Amr%Abbas%NULL%0,                           James%Ziadeh%NULL%2,                           James%Ziadeh%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sang Il%Kim%NULL%1,                           Ji Yong%Lee%NULL%2,                           Ji Yong%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ki Tae%Kwon%NULL%1,                           Jae-Hoon%Ko%NULL%2,                           Jae-Hoon%Ko%NULL%0,                           Heejun%Shin%NULL%2,                           Heejun%Shin%NULL%0,                           Minki%Sung%NULL%2,                           Minki%Sung%NULL%0,                           Jin Yong%Kim%NULL%4,                           Jin Yong%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Elly%Lee%NULL%1,                           Nurul Yaqeen%Mohd Esa%NULL%1,                           Tong Ming%Wee%NULL%1,                           Chun Ian%Soo%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yong Shik%Kwon%NULL%1,                           Sun Hyo%Park%NULL%2,                           Sun Hyo%Park%NULL%0,                           Hyun Jung%Kim%NULL%2,                           Hyun Jung%Kim%NULL%0,                           Ji Yeon%Lee%NULL%0,                           Ji Yeon%Lee%NULL%0,                           Mi-ri%Hyun%NULL%2,                           Mi-ri%Hyun%NULL%0,                           Hyun ah%Kim%NULL%2,                           Hyun ah%Kim%NULL%0,                           Jae Seok%Park%NULL%0,                           Jae Seok%Park%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Po-Ting%Lin%NULL%1,                           Ting-Yuan%Ni%NULL%1,                           Tren-Yi%Chen%NULL%1,                           Chih-Pei%Su%NULL%1,                           Hsiao-Fen%Sun%NULL%1,                           Mu-Kuan%Chen%NULL%1,                           Chu-Chung%Chou%NULL%1,                           Po-Yu%Wang%NULL%1,                           Yan-Ren%Lin%H6213.lac@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[David A%Lindholm%david.a.lindholm4.mil@mail.mil%1,                           John L%Kiley%NULL%2,                           John L%Kiley%NULL%0,                           Nathan K%Jansen%NULL%1,                           Robert T%Hoard%NULL%1,                           Matthew R%Bondaryk%NULL%1,                           Elizabeth M%Stanley%NULL%1,                           Gadiel R%Alvarado%NULL%1,                           Ana E%Markelz%NULL%1,                           Robert J%Cybulski%NULL%1,                           Jason F%Okulicz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Charmaine Malenab%Manauis%NULL%1,                           Marvin%Loh%marvin.loh@mohh.com.sg%1,                           James%Kwan%NULL%1,                           John%Chua Mingzhou%NULL%1,                           Han Jie%Teo%NULL%1,                           David%Teng Kuan Peng%NULL%1,                           Shawn%Vasoo Sushilan%NULL%1,                           Yee Sin%Leo%NULL%1,                           Ang%Hou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rivkees%Scott A.%coreGivesNoEmail%1,                          Roberson%Shamarial%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Eunhye%Seo%NULL%1,                           Eunchan%Mun%NULL%2,                           Eunchan%Mun%NULL%0,                           Wonsool%Kim%NULL%2,                           Wonsool%Kim%NULL%0,                           Changhwan%Lee%NULL%2,                           Changhwan%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Aditya%Shah%shah.aditya@mayo.edu%1,                           Douglas%Challener%NULL%1,                           Aaron J.%Tande%NULL%1,                           Maryam%Mahmood%NULL%1,                           John C.%O’Horo%NULL%1,                           Elie%Berbari%NULL%1,                           Sarah J.%Crane%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Angie N.%Ton%NULL%1,                           Tarang%Jethwa%NULL%1,                           Karen%Waters%NULL%2,                           Karen%Waters%NULL%0,                           Leigh L.%Speicher%NULL%2,                           Leigh L.%Speicher%NULL%0,                           Dawn%Francis%NULL%2,                           Dawn%Francis%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kate%Mark%NULL%1,                           Katie%Steel%NULL%1,                           Janet%Stevenson%NULL%1,                           Christine%Evans%NULL%1,                           Duncan%McCormick%NULL%1,                           Lorna%Willocks%NULL%1,                           Alison%McCallum%NULL%1,                           Laura%Jones%NULL%1,                           Ingolfur%Johannessen%NULL%1,                           Kate%Templeton%NULL%1,                           Oliver%Koch%NULL%0,                           Claire%Mackintosh%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2372,7 +2486,7 @@
         <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>598</v>
+        <v>636</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -2404,7 +2518,7 @@
         <v>334</v>
       </c>
       <c r="E3" t="s">
-        <v>599</v>
+        <v>637</v>
       </c>
       <c r="F3" t="s">
         <v>45</v>
@@ -2436,7 +2550,7 @@
         <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>600</v>
+        <v>638</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -2468,7 +2582,7 @@
         <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>601</v>
+        <v>639</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
@@ -2500,7 +2614,7 @@
         <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>602</v>
+        <v>640</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
@@ -2532,7 +2646,7 @@
         <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>603</v>
+        <v>641</v>
       </c>
       <c r="F7" t="s">
         <v>64</v>
@@ -2564,7 +2678,7 @@
         <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>604</v>
+        <v>642</v>
       </c>
       <c r="F8" t="s">
         <v>69</v>
@@ -2628,7 +2742,7 @@
         <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>605</v>
+        <v>643</v>
       </c>
       <c r="F10" t="s">
         <v>79</v>
@@ -2660,7 +2774,7 @@
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -2692,7 +2806,7 @@
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>606</v>
+        <v>644</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -2724,7 +2838,7 @@
         <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>607</v>
+        <v>645</v>
       </c>
       <c r="F13" t="s">
         <v>90</v>
@@ -2756,7 +2870,7 @@
         <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>608</v>
+        <v>646</v>
       </c>
       <c r="F14" t="s">
         <v>95</v>
@@ -2788,7 +2902,7 @@
         <v>346</v>
       </c>
       <c r="E15" t="s">
-        <v>609</v>
+        <v>647</v>
       </c>
       <c r="F15" t="s">
         <v>100</v>
@@ -2820,7 +2934,7 @@
         <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>610</v>
+        <v>648</v>
       </c>
       <c r="F16" t="s">
         <v>105</v>
@@ -2852,7 +2966,7 @@
         <v>108</v>
       </c>
       <c r="E17" t="s">
-        <v>611</v>
+        <v>649</v>
       </c>
       <c r="F17" t="s">
         <v>110</v>
@@ -2884,7 +2998,7 @@
         <v>144</v>
       </c>
       <c r="E18" t="s">
-        <v>612</v>
+        <v>650</v>
       </c>
       <c r="F18" t="s">
         <v>20</v>
@@ -2916,7 +3030,7 @@
         <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>613</v>
+        <v>651</v>
       </c>
       <c r="F19" t="s">
         <v>115</v>
@@ -2948,7 +3062,7 @@
         <v>118</v>
       </c>
       <c r="E20" t="s">
-        <v>614</v>
+        <v>652</v>
       </c>
       <c r="F20" t="s">
         <v>120</v>
@@ -2980,7 +3094,7 @@
         <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>615</v>
+        <v>653</v>
       </c>
       <c r="F21" t="s">
         <v>123</v>
@@ -3012,7 +3126,7 @@
         <v>125</v>
       </c>
       <c r="E22" t="s">
-        <v>616</v>
+        <v>654</v>
       </c>
       <c r="F22" t="s">
         <v>127</v>
